--- a/2021-sgfdevs-transaction-detail-by-account.xlsx
+++ b/2021-sgfdevs-transaction-detail-by-account.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="64">
   <si>
     <t>Date</t>
   </si>
@@ -44,27 +44,27 @@
     <t>01/04/2021</t>
   </si>
   <si>
+    <t>Expenditure</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Amazon Web Services</t>
+  </si>
+  <si>
+    <t>Devs:Devs Software &amp; Hosting</t>
+  </si>
+  <si>
     <t>Bill Payment (Check)</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Zoom Video</t>
   </si>
   <si>
     <t>Accounts Payable (A/P)</t>
   </si>
   <si>
-    <t>Expenditure</t>
-  </si>
-  <si>
-    <t>Amazon Web Services</t>
-  </si>
-  <si>
-    <t>Devs:Devs Software &amp; Hosting</t>
-  </si>
-  <si>
     <t>01/06/2021</t>
   </si>
   <si>
@@ -74,9 +74,69 @@
     <t>Logic Forte (QuickBooks Subscription)</t>
   </si>
   <si>
+    <t>02/01/2021</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>Pillar Insurance Springfield</t>
+  </si>
+  <si>
+    <t>Devs:Devs Insurance</t>
+  </si>
+  <si>
+    <t>02/02/2021</t>
+  </si>
+  <si>
+    <t>02/04/2021</t>
+  </si>
+  <si>
+    <t>02/08/2021</t>
+  </si>
+  <si>
+    <t>02/11/2021</t>
+  </si>
+  <si>
+    <t>Deposit</t>
+  </si>
+  <si>
+    <t>Self Interactive</t>
+  </si>
+  <si>
+    <t>System-recorded deposit for QuickBooks Payments</t>
+  </si>
+  <si>
+    <t>Undeposited Funds</t>
+  </si>
+  <si>
+    <t>QuickBooks Payments</t>
+  </si>
+  <si>
+    <t>System-recorded fee for QuickBooks Payments. Fee-name: DiscountRateFee, fee-type: Daily.</t>
+  </si>
+  <si>
+    <t>Devs:Devs Payment Fees (Intuit)</t>
+  </si>
+  <si>
     <t>Total for Devs Checking (7527)</t>
   </si>
   <si>
+    <t>Accounts Receivable (A/R)</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>Total for Accounts Receivable (A/R)</t>
+  </si>
+  <si>
+    <t>Paid via QuickBooks Payments: Payment ID aoz5yxgx</t>
+  </si>
+  <si>
+    <t>Total for Undeposited Funds</t>
+  </si>
+  <si>
     <t>01/01/2021</t>
   </si>
   <si>
@@ -86,31 +146,55 @@
     <t>01/05/2021</t>
   </si>
   <si>
+    <t>02/05/2021</t>
+  </si>
+  <si>
     <t>Total for Accounts Payable (A/P)</t>
   </si>
   <si>
     <t>Devs</t>
   </si>
   <si>
+    <t xml:space="preserve">   Devs Insurance</t>
+  </si>
+  <si>
+    <t>Check               2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Total for Devs Insurance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Devs Payment Fees (Intuit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Total for Devs Payment Fees (Intuit)</t>
+  </si>
+  <si>
     <t xml:space="preserve">   Devs Software &amp; Hosting</t>
   </si>
   <si>
+    <t>Zoom Pro Monthly Subscription</t>
+  </si>
+  <si>
     <t>Intuit QuickBooks Essentials ($40/month) - Reimburse Actual Cost</t>
   </si>
   <si>
-    <t>Zoom Pro Monthly Subscription</t>
-  </si>
-  <si>
     <t>Office 365 Business Essentials ($5/mo/user)</t>
   </si>
   <si>
+    <t>AMAZON WEB SERVICES DBT CRD 2058 02/04/21 DBU05BHI</t>
+  </si>
+  <si>
+    <t>NAME.COM, INC DBT CRD 1221 02/06/21 DBH791RU</t>
+  </si>
+  <si>
     <t xml:space="preserve">   Total for Devs Software &amp; Hosting</t>
   </si>
   <si>
     <t>Total for Devs</t>
   </si>
   <si>
-    <t>Monday, Feb 08, 2021 04:33:09 PM GMT-8 - Accrual Basis</t>
+    <t>Tuesday, Mar 09, 2021 06:08:27 AM GMT-8 - Accrual Basis</t>
   </si>
   <si>
     <t>Springfield Devs</t>
@@ -119,7 +203,7 @@
     <t>Transaction Detail by  Account</t>
   </si>
   <si>
-    <t>January 2021</t>
+    <t>January - February, 2021</t>
   </si>
 </sst>
 </file>
@@ -226,26 +310,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="31.796875" customWidth="true"/>
+    <col min="1" max="1" width="34.375" customWidth="true"/>
     <col min="2" max="2" width="9.453125" customWidth="true"/>
     <col min="3" max="3" width="18.046875" customWidth="true"/>
     <col min="4" max="4" width="8.59375" customWidth="true"/>
     <col min="5" max="5" width="7.734375" customWidth="true"/>
     <col min="6" max="6" width="32.65625" customWidth="true"/>
-    <col min="7" max="7" width="55.859375" customWidth="true"/>
-    <col min="8" max="8" width="24.921875" customWidth="true"/>
-    <col min="9" max="9" width="8.59375" customWidth="true"/>
+    <col min="7" max="7" width="76.484375" customWidth="true"/>
+    <col min="8" max="8" width="27.5" customWidth="true"/>
+    <col min="9" max="9" width="9.453125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -258,7 +342,7 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -271,7 +355,7 @@
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -320,7 +404,9 @@
       <c r="C7" t="s" s="3">
         <v>10</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" t="n" s="3">
+        <v>6.36334269E8</v>
+      </c>
       <c r="E7" t="s" s="3">
         <v>11</v>
       </c>
@@ -332,7 +418,7 @@
         <v>13</v>
       </c>
       <c r="I7" t="n" s="4">
-        <v>-14.99</v>
+        <v>-10.29</v>
       </c>
     </row>
     <row r="8">
@@ -342,9 +428,7 @@
       <c r="C8" t="s" s="3">
         <v>14</v>
       </c>
-      <c r="D8" t="n" s="3">
-        <v>6.36334269E8</v>
-      </c>
+      <c r="D8" s="3"/>
       <c r="E8" t="s" s="3">
         <v>11</v>
       </c>
@@ -356,7 +440,7 @@
         <v>16</v>
       </c>
       <c r="I8" t="n" s="4">
-        <v>-10.29</v>
+        <v>-14.99</v>
       </c>
     </row>
     <row r="9">
@@ -364,7 +448,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" t="s" s="3">
@@ -375,7 +459,7 @@
       </c>
       <c r="G9" s="3"/>
       <c r="H9" t="s" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I9" t="n" s="4">
         <v>-20.0</v>
@@ -386,7 +470,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" t="s" s="3">
@@ -397,53 +481,86 @@
       </c>
       <c r="G10" s="3"/>
       <c r="H10" t="s" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I10" t="n" s="4">
         <v>-20.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="2">
+      <c r="B11" t="s" s="3">
         <v>20</v>
       </c>
-      <c r="I11" t="n" s="5">
-        <v>-65.28</v>
+      <c r="C11" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="D11" t="n" s="3">
+        <v>2001.0</v>
+      </c>
+      <c r="E11" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="I11" t="n" s="4">
+        <v>-1148.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>13</v>
+      <c r="B12" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I12" t="n" s="4">
+        <v>-20.0</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="s" s="3">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s" s="3">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F13" t="s" s="3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" t="s" s="3">
         <v>16</v>
       </c>
       <c r="I13" t="n" s="4">
-        <v>20.0</v>
+        <v>-14.99</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="s" s="3">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s" s="3">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" t="s" s="3">
@@ -454,81 +571,81 @@
       </c>
       <c r="G14" s="3"/>
       <c r="H14" t="s" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I14" t="n" s="4">
-        <v>14.99</v>
+        <v>-10.22</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="s" s="3">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F15" t="s" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" t="s" s="3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I15" t="n" s="4">
-        <v>-14.99</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="s" s="3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s" s="3">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" t="s" s="3">
         <v>11</v>
       </c>
-      <c r="F16" t="s" s="3">
-        <v>18</v>
-      </c>
+      <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" t="s" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I16" t="n" s="4">
-        <v>20.0</v>
+        <v>-232.48</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="s" s="3">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s" s="3">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F17" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="G17" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="G17" t="s" s="3">
+        <v>30</v>
+      </c>
       <c r="H17" t="s" s="3">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="I17" t="n" s="4">
-        <v>-20.0</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="s" s="3">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s" s="3">
         <v>10</v>
@@ -538,162 +655,731 @@
         <v>11</v>
       </c>
       <c r="F18" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="G18" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="G18" t="s" s="3">
+        <v>33</v>
+      </c>
       <c r="H18" t="s" s="3">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="I18" t="n" s="4">
-        <v>-20.0</v>
+        <v>-6.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I19" t="n" s="5">
-        <v>0.0</v>
+        <v>-916.97</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>26</v>
+      <c r="B21" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="I21" t="n" s="4">
+        <v>-600.0</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F22" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="G22" t="s" s="3">
-        <v>27</v>
-      </c>
-      <c r="H22" t="s" s="3">
-        <v>13</v>
-      </c>
-      <c r="I22" t="n" s="4">
-        <v>20.0</v>
+      <c r="A22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I22" t="n" s="5">
+        <v>-600.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="C23" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F23" t="s" s="3">
-        <v>12</v>
-      </c>
-      <c r="G23" t="s" s="3">
-        <v>28</v>
-      </c>
-      <c r="H23" t="s" s="3">
-        <v>13</v>
-      </c>
-      <c r="I23" t="n" s="4">
-        <v>14.99</v>
+      <c r="A23" t="s" s="2">
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="s" s="3">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D24" t="n" s="3">
-        <v>6.36334269E8</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D24" s="3"/>
       <c r="E24" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F24" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="G24" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="G24" t="s" s="3">
+        <v>39</v>
+      </c>
       <c r="H24" t="s" s="3">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="I24" t="n" s="4">
-        <v>10.29</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="s" s="3">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s" s="3">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F25" t="s" s="3">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G25" t="s" s="3">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H25" t="s" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I25" t="n" s="4">
-        <v>20.0</v>
+        <v>-600.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I26" t="n" s="5">
-        <v>65.28</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="I27" t="n" s="5">
-        <v>65.28</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="I28" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="I29" t="n" s="4">
+        <v>14.99</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="6" t="s">
+      <c r="B30" t="s" s="3">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F30" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I30" t="n" s="4">
+        <v>-14.99</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="I31" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="C32" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I32" t="n" s="4">
+        <v>-20.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="C33" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I33" t="n" s="4">
+        <v>-20.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="C34" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="I34" t="n" s="4">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="C35" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I35" t="n" s="4">
+        <v>-20.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="C36" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="I36" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="C37" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I37" t="n" s="4">
+        <v>-14.99</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="C38" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="I38" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="C39" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F39" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I39" t="n" s="4">
+        <v>-20.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I40" t="n" s="5">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="C43" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="D43" t="n" s="3">
+        <v>2001.0</v>
+      </c>
+      <c r="E43" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F43" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="G43" t="s" s="3">
+        <v>48</v>
+      </c>
+      <c r="H43" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I43" t="n" s="4">
+        <v>1148.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I44" t="n" s="5">
+        <v>1148.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="C46" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F46" t="s" s="3">
         <v>32</v>
       </c>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
+      <c r="G46" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="H46" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I46" t="n" s="4">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I47" t="n" s="5">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="C49" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F49" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="G49" t="s" s="3">
+        <v>53</v>
+      </c>
+      <c r="H49" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I49" t="n" s="4">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="C50" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F50" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G50" t="s" s="3">
+        <v>54</v>
+      </c>
+      <c r="H50" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I50" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="s" s="3">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D51" t="n" s="3">
+        <v>6.36334269E8</v>
+      </c>
+      <c r="E51" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F51" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="G51" s="3"/>
+      <c r="H51" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I51" t="n" s="4">
+        <v>10.29</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="C52" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F52" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G52" t="s" s="3">
+        <v>55</v>
+      </c>
+      <c r="H52" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I52" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="C53" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F53" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="G53" t="s" s="3">
+        <v>53</v>
+      </c>
+      <c r="H53" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I53" t="n" s="4">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="C54" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F54" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G54" t="s" s="3">
+        <v>54</v>
+      </c>
+      <c r="H54" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I54" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="C55" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F55" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s" s="3">
+        <v>56</v>
+      </c>
+      <c r="H55" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I55" t="n" s="4">
+        <v>10.22</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="C56" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F56" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G56" t="s" s="3">
+        <v>55</v>
+      </c>
+      <c r="H56" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I56" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="C57" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F57" s="3"/>
+      <c r="G57" t="s" s="3">
+        <v>57</v>
+      </c>
+      <c r="H57" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I57" t="n" s="4">
+        <v>232.48</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="I58" t="n" s="5">
+        <v>362.97</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="I59" t="n" s="5">
+        <v>1516.97</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="A62:I62"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>

--- a/2021-sgfdevs-transaction-detail-by-account.xlsx
+++ b/2021-sgfdevs-transaction-detail-by-account.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="78">
   <si>
     <t>Date</t>
   </si>
@@ -68,12 +68,12 @@
     <t>01/06/2021</t>
   </si>
   <si>
+    <t>Logic Forte (QuickBooks Subscription)</t>
+  </si>
+  <si>
     <t>Microsoft Corporation</t>
   </si>
   <si>
-    <t>Logic Forte (QuickBooks Subscription)</t>
-  </si>
-  <si>
     <t>02/01/2021</t>
   </si>
   <si>
@@ -98,6 +98,15 @@
     <t>02/11/2021</t>
   </si>
   <si>
+    <t>QuickBooks Payments</t>
+  </si>
+  <si>
+    <t>System-recorded fee for QuickBooks Payments. Fee-name: DiscountRateFee, fee-type: Daily.</t>
+  </si>
+  <si>
+    <t>Devs:Devs Payment Fees (Intuit)</t>
+  </si>
+  <si>
     <t>Deposit</t>
   </si>
   <si>
@@ -110,22 +119,31 @@
     <t>Undeposited Funds</t>
   </si>
   <si>
-    <t>QuickBooks Payments</t>
-  </si>
-  <si>
-    <t>System-recorded fee for QuickBooks Payments. Fee-name: DiscountRateFee, fee-type: Daily.</t>
-  </si>
-  <si>
-    <t>Devs:Devs Payment Fees (Intuit)</t>
+    <t>03/02/2021</t>
+  </si>
+  <si>
+    <t>03/03/2021</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>Hearo Technologies</t>
+  </si>
+  <si>
+    <t>Accounts Receivable (A/R)</t>
+  </si>
+  <si>
+    <t>03/09/2021</t>
   </si>
   <si>
     <t>Total for Devs Checking (7527)</t>
   </si>
   <si>
-    <t>Accounts Receivable (A/R)</t>
-  </si>
-  <si>
-    <t>Payment</t>
+    <t>Pledge</t>
+  </si>
+  <si>
+    <t>Devs Revenue:Devs Sponsorships</t>
   </si>
   <si>
     <t>Total for Accounts Receivable (A/R)</t>
@@ -149,9 +167,30 @@
     <t>02/05/2021</t>
   </si>
   <si>
+    <t>03/01/2021</t>
+  </si>
+  <si>
+    <t>03/05/2021</t>
+  </si>
+  <si>
     <t>Total for Accounts Payable (A/P)</t>
   </si>
   <si>
+    <t>Devs Revenue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Devs Sponsorships</t>
+  </si>
+  <si>
+    <t>Tier 1 Sponsor benefits for 12 months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Total for Devs Sponsorships</t>
+  </si>
+  <si>
+    <t>Total for Devs Revenue</t>
+  </si>
+  <si>
     <t>Devs</t>
   </si>
   <si>
@@ -188,13 +227,16 @@
     <t>NAME.COM, INC DBT CRD 1221 02/06/21 DBH791RU</t>
   </si>
   <si>
+    <t>AMAZON WEB SERVICES DBT CRD 2340 03/03/21 DBJVUWQ6</t>
+  </si>
+  <si>
     <t xml:space="preserve">   Total for Devs Software &amp; Hosting</t>
   </si>
   <si>
     <t>Total for Devs</t>
   </si>
   <si>
-    <t>Tuesday, Mar 09, 2021 06:08:27 AM GMT-8 - Accrual Basis</t>
+    <t>Tuesday, Apr 13, 2021 05:27:21 AM GMT-7 - Accrual Basis</t>
   </si>
   <si>
     <t>Springfield Devs</t>
@@ -203,7 +245,7 @@
     <t>Transaction Detail by  Account</t>
   </si>
   <si>
-    <t>January - February, 2021</t>
+    <t>January - March, 2021</t>
   </si>
 </sst>
 </file>
@@ -310,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -329,7 +371,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -342,7 +384,7 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -355,7 +397,7 @@
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -523,7 +565,7 @@
         <v>11</v>
       </c>
       <c r="F12" t="s" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" t="s" s="3">
@@ -582,21 +624,19 @@
         <v>26</v>
       </c>
       <c r="C15" t="s" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" t="s" s="3">
         <v>11</v>
       </c>
-      <c r="F15" t="s" s="3">
-        <v>18</v>
-      </c>
+      <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" t="s" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I15" t="n" s="4">
-        <v>-20.0</v>
+        <v>-232.48</v>
       </c>
     </row>
     <row r="16">
@@ -604,19 +644,21 @@
         <v>26</v>
       </c>
       <c r="C16" t="s" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" t="s" s="3">
         <v>11</v>
       </c>
-      <c r="F16" s="3"/>
+      <c r="F16" t="s" s="3">
+        <v>19</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="H16" t="s" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I16" t="n" s="4">
-        <v>-232.48</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="17">
@@ -624,23 +666,23 @@
         <v>27</v>
       </c>
       <c r="C17" t="s" s="3">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F17" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="G17" t="s" s="3">
         <v>29</v>
       </c>
-      <c r="G17" t="s" s="3">
+      <c r="H17" t="s" s="3">
         <v>30</v>
       </c>
-      <c r="H17" t="s" s="3">
-        <v>31</v>
-      </c>
       <c r="I17" t="n" s="4">
-        <v>600.0</v>
+        <v>-6.0</v>
       </c>
     </row>
     <row r="18">
@@ -648,7 +690,7 @@
         <v>27</v>
       </c>
       <c r="C18" t="s" s="3">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" t="s" s="3">
@@ -664,307 +706,309 @@
         <v>34</v>
       </c>
       <c r="I18" t="n" s="4">
-        <v>-6.0</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="2">
+      <c r="B19" t="s" s="3">
         <v>35</v>
       </c>
-      <c r="I19" t="n" s="5">
-        <v>-916.97</v>
+      <c r="C19" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I19" t="n" s="4">
+        <v>-14.99</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="2">
+      <c r="B20" t="s" s="3">
         <v>36</v>
+      </c>
+      <c r="C20" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="I20" t="n" s="4">
+        <v>600.0</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="s" s="3">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s" s="3">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F21" t="s" s="3">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" t="s" s="3">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="I21" t="n" s="4">
+        <v>-9.42</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I22" t="n" s="4">
+        <v>-20.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s" s="3">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I23" t="n" s="4">
+        <v>-20.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I24" t="n" s="5">
+        <v>-381.38</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="I26" t="n" s="4">
         <v>-600.0</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
+    <row r="27">
+      <c r="B27" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="D27" t="n" s="3">
+        <v>1180.0</v>
+      </c>
+      <c r="E27" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s" s="3">
         <v>38</v>
       </c>
-      <c r="I22" t="n" s="5">
-        <v>-600.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" t="s" s="3">
-        <v>27</v>
-      </c>
-      <c r="C24" t="s" s="3">
-        <v>37</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F24" t="s" s="3">
-        <v>29</v>
-      </c>
-      <c r="G24" t="s" s="3">
-        <v>39</v>
-      </c>
-      <c r="H24" t="s" s="3">
-        <v>36</v>
-      </c>
-      <c r="I24" t="n" s="4">
+      <c r="G27" s="3"/>
+      <c r="H27" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="I27" t="n" s="4">
         <v>600.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" t="s" s="3">
-        <v>27</v>
-      </c>
-      <c r="C25" t="s" s="3">
-        <v>28</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F25" t="s" s="3">
-        <v>29</v>
-      </c>
-      <c r="G25" t="s" s="3">
-        <v>39</v>
-      </c>
-      <c r="H25" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I25" t="n" s="4">
-        <v>-600.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I26" t="n" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
-        <v>16</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="s" s="3">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s" s="3">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F28" t="s" s="3">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" t="s" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I28" t="n" s="4">
-        <v>20.0</v>
+        <v>-600.0</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="s" s="3">
-        <v>41</v>
-      </c>
-      <c r="C29" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F29" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="G29" s="3"/>
-      <c r="H29" t="s" s="3">
-        <v>13</v>
-      </c>
-      <c r="I29" t="n" s="4">
-        <v>14.99</v>
+      <c r="A29" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I29" t="n" s="5">
+        <v>-600.0</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="C30" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F30" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="H30" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I30" t="n" s="4">
-        <v>-14.99</v>
+      <c r="A30" t="s" s="2">
+        <v>34</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="s" s="3">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s" s="3">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F31" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="G31" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="G31" t="s" s="3">
+        <v>45</v>
+      </c>
       <c r="H31" t="s" s="3">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="I31" t="n" s="4">
-        <v>20.0</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="s" s="3">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C32" t="s" s="3">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F32" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="G32" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="G32" t="s" s="3">
+        <v>45</v>
+      </c>
       <c r="H32" t="s" s="3">
         <v>8</v>
       </c>
       <c r="I32" t="n" s="4">
-        <v>-20.0</v>
+        <v>-600.0</v>
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="C33" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F33" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="G33" s="3"/>
-      <c r="H33" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I33" t="n" s="4">
-        <v>-20.0</v>
+      <c r="A33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I33" t="n" s="5">
+        <v>0.0</v>
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C34" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F34" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="G34" s="3"/>
-      <c r="H34" t="s" s="3">
-        <v>13</v>
-      </c>
-      <c r="I34" t="n" s="4">
-        <v>14.99</v>
+      <c r="A34" t="s" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="s" s="3">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s" s="3">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F35" t="s" s="3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" t="s" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I35" t="n" s="4">
-        <v>-20.0</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="s" s="3">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s" s="3">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F36" t="s" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" t="s" s="3">
@@ -976,7 +1020,7 @@
     </row>
     <row r="37">
       <c r="B37" t="s" s="3">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s" s="3">
         <v>14</v>
@@ -998,17 +1042,17 @@
     </row>
     <row r="38">
       <c r="B38" t="s" s="3">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s" s="3">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F38" t="s" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" t="s" s="3">
@@ -1020,7 +1064,7 @@
     </row>
     <row r="39">
       <c r="B39" t="s" s="3">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C39" t="s" s="3">
         <v>14</v>
@@ -1030,7 +1074,7 @@
         <v>11</v>
       </c>
       <c r="F39" t="s" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" t="s" s="3">
@@ -1041,21 +1085,69 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I40" t="n" s="5">
-        <v>0.0</v>
+      <c r="B40" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="C40" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I40" t="n" s="4">
+        <v>-20.0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>46</v>
+      <c r="B41" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="C41" t="s" s="3">
+        <v>48</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F41" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="I41" t="n" s="4">
+        <v>14.99</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>47</v>
+      <c r="B42" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="C42" t="s" s="3">
+        <v>48</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F42" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="I42" t="n" s="4">
+        <v>20.0</v>
       </c>
     </row>
     <row r="43">
@@ -1063,83 +1155,139 @@
         <v>20</v>
       </c>
       <c r="C43" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="D43" t="n" s="3">
-        <v>2001.0</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D43" s="3"/>
       <c r="E43" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F43" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="G43" t="s" s="3">
-        <v>48</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G43" s="3"/>
       <c r="H43" t="s" s="3">
         <v>8</v>
       </c>
       <c r="I43" t="n" s="4">
-        <v>1148.0</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="I44" t="n" s="5">
-        <v>1148.0</v>
+      <c r="B44" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="C44" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F44" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I44" t="n" s="4">
+        <v>-14.99</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2">
+      <c r="B45" t="s" s="3">
         <v>50</v>
+      </c>
+      <c r="C45" t="s" s="3">
+        <v>48</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F45" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G45" s="3"/>
+      <c r="H45" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="I45" t="n" s="4">
+        <v>20.0</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="s" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C46" t="s" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F46" t="s" s="3">
-        <v>32</v>
-      </c>
-      <c r="G46" t="s" s="3">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G46" s="3"/>
       <c r="H46" t="s" s="3">
         <v>8</v>
       </c>
       <c r="I46" t="n" s="4">
-        <v>6.0</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="2">
+      <c r="B47" t="s" s="3">
         <v>51</v>
       </c>
-      <c r="I47" t="n" s="5">
-        <v>6.0</v>
+      <c r="C47" t="s" s="3">
+        <v>48</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F47" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="I47" t="n" s="4">
+        <v>20.0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>52</v>
+      <c r="B48" t="s" s="3">
+        <v>51</v>
+      </c>
+      <c r="C48" t="s" s="3">
+        <v>48</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F48" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="G48" s="3"/>
+      <c r="H48" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="I48" t="n" s="4">
+        <v>14.99</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" t="s" s="3">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C49" t="s" s="3">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" t="s" s="3">
@@ -1148,204 +1296,130 @@
       <c r="F49" t="s" s="3">
         <v>15</v>
       </c>
-      <c r="G49" t="s" s="3">
-        <v>53</v>
-      </c>
+      <c r="G49" s="3"/>
       <c r="H49" t="s" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I49" t="n" s="4">
-        <v>14.99</v>
+        <v>-14.99</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" t="s" s="3">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C50" t="s" s="3">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F50" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="G50" t="s" s="3">
-        <v>54</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G50" s="3"/>
       <c r="H50" t="s" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I50" t="n" s="4">
-        <v>20.0</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" t="s" s="3">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="C51" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="D51" t="n" s="3">
-        <v>6.36334269E8</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D51" s="3"/>
       <c r="E51" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F51" t="s" s="3">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" t="s" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I51" t="n" s="4">
-        <v>10.29</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" t="s" s="3">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C52" t="s" s="3">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F52" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G52" s="3"/>
+      <c r="H52" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I52" t="n" s="4">
+        <v>-20.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="I53" t="n" s="5">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
         <v>55</v>
-      </c>
-      <c r="H52" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="I52" t="n" s="4">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="B53" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C53" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="D53" s="3"/>
-      <c r="E53" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F53" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="G53" t="s" s="3">
-        <v>53</v>
-      </c>
-      <c r="H53" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="I53" t="n" s="4">
-        <v>14.99</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="B54" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C54" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="D54" s="3"/>
-      <c r="E54" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F54" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="G54" t="s" s="3">
-        <v>54</v>
-      </c>
-      <c r="H54" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="I54" t="n" s="4">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" t="s" s="3">
-        <v>25</v>
-      </c>
-      <c r="C55" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="D55" s="3"/>
-      <c r="E55" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F55" t="s" s="3">
-        <v>12</v>
-      </c>
-      <c r="G55" t="s" s="3">
-        <v>56</v>
-      </c>
-      <c r="H55" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I55" t="n" s="4">
-        <v>10.22</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" t="s" s="3">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C56" t="s" s="3">
         <v>42</v>
       </c>
-      <c r="D56" s="3"/>
+      <c r="D56" t="n" s="3">
+        <v>1180.0</v>
+      </c>
       <c r="E56" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F56" t="s" s="3">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G56" t="s" s="3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H56" t="s" s="3">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I56" t="n" s="4">
-        <v>20.0</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="s" s="3">
-        <v>26</v>
-      </c>
-      <c r="C57" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="D57" s="3"/>
-      <c r="E57" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F57" s="3"/>
-      <c r="G57" t="s" s="3">
+      <c r="A57" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="H57" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I57" t="n" s="4">
-        <v>232.48</v>
+      <c r="I57" t="n" s="5">
+        <v>600.0</v>
       </c>
     </row>
     <row r="58">
@@ -1353,33 +1427,437 @@
         <v>58</v>
       </c>
       <c r="I58" t="n" s="5">
-        <v>362.97</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="I59" t="n" s="5">
-        <v>1516.97</v>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="C61" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="D61" t="n" s="3">
+        <v>2001.0</v>
+      </c>
+      <c r="E61" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F61" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="G61" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="H61" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I61" t="n" s="4">
+        <v>1148.0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B62"/>
-      <c r="C62"/>
-      <c r="D62"/>
-      <c r="E62"/>
-      <c r="F62"/>
-      <c r="G62"/>
-      <c r="H62"/>
-      <c r="I62"/>
+      <c r="A62" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="I62" t="n" s="5">
+        <v>1148.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="C64" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F64" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="G64" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="H64" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I64" t="n" s="4">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="I65" t="n" s="5">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" t="s" s="3">
+        <v>47</v>
+      </c>
+      <c r="C67" t="s" s="3">
+        <v>48</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F67" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="G67" t="s" s="3">
+        <v>66</v>
+      </c>
+      <c r="H67" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I67" t="n" s="4">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="s" s="3">
+        <v>47</v>
+      </c>
+      <c r="C68" t="s" s="3">
+        <v>48</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F68" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G68" t="s" s="3">
+        <v>67</v>
+      </c>
+      <c r="H68" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I68" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" t="s" s="3">
+        <v>9</v>
+      </c>
+      <c r="C69" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D69" t="n" s="3">
+        <v>6.36334269E8</v>
+      </c>
+      <c r="E69" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F69" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="G69" s="3"/>
+      <c r="H69" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I69" t="n" s="4">
+        <v>10.29</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" t="s" s="3">
+        <v>49</v>
+      </c>
+      <c r="C70" t="s" s="3">
+        <v>48</v>
+      </c>
+      <c r="D70" s="3"/>
+      <c r="E70" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F70" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G70" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="H70" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I70" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="C71" t="s" s="3">
+        <v>48</v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F71" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G71" t="s" s="3">
+        <v>67</v>
+      </c>
+      <c r="H71" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I71" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="C72" t="s" s="3">
+        <v>48</v>
+      </c>
+      <c r="D72" s="3"/>
+      <c r="E72" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F72" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="G72" t="s" s="3">
+        <v>66</v>
+      </c>
+      <c r="H72" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I72" t="n" s="4">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="C73" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F73" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="G73" t="s" s="3">
+        <v>69</v>
+      </c>
+      <c r="H73" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I73" t="n" s="4">
+        <v>10.22</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" t="s" s="3">
+        <v>50</v>
+      </c>
+      <c r="C74" t="s" s="3">
+        <v>48</v>
+      </c>
+      <c r="D74" s="3"/>
+      <c r="E74" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F74" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G74" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="H74" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I74" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="C75" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="E75" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F75" s="3"/>
+      <c r="G75" t="s" s="3">
+        <v>70</v>
+      </c>
+      <c r="H75" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I75" t="n" s="4">
+        <v>232.48</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" t="s" s="3">
+        <v>51</v>
+      </c>
+      <c r="C76" t="s" s="3">
+        <v>48</v>
+      </c>
+      <c r="D76" s="3"/>
+      <c r="E76" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F76" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="G76" t="s" s="3">
+        <v>66</v>
+      </c>
+      <c r="H76" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I76" t="n" s="4">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" t="s" s="3">
+        <v>51</v>
+      </c>
+      <c r="C77" t="s" s="3">
+        <v>48</v>
+      </c>
+      <c r="D77" s="3"/>
+      <c r="E77" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F77" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G77" t="s" s="3">
+        <v>67</v>
+      </c>
+      <c r="H77" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I77" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="C78" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D78" s="3"/>
+      <c r="E78" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F78" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="G78" t="s" s="3">
+        <v>71</v>
+      </c>
+      <c r="H78" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I78" t="n" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" t="s" s="3">
+        <v>52</v>
+      </c>
+      <c r="C79" t="s" s="3">
+        <v>48</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F79" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G79" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="H79" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I79" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I80" t="n" s="5">
+        <v>427.38</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I81" t="n" s="5">
+        <v>1581.38</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A62:I62"/>
+    <mergeCell ref="A84:I84"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>

--- a/2021-sgfdevs-transaction-detail-by-account.xlsx
+++ b/2021-sgfdevs-transaction-detail-by-account.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="103">
   <si>
     <t>Date</t>
   </si>
@@ -68,12 +68,12 @@
     <t>01/06/2021</t>
   </si>
   <si>
+    <t>Microsoft Corporation</t>
+  </si>
+  <si>
     <t>Logic Forte (QuickBooks Subscription)</t>
   </si>
   <si>
-    <t>Microsoft Corporation</t>
-  </si>
-  <si>
     <t>02/01/2021</t>
   </si>
   <si>
@@ -98,6 +98,18 @@
     <t>02/11/2021</t>
   </si>
   <si>
+    <t>Deposit</t>
+  </si>
+  <si>
+    <t>Self Interactive</t>
+  </si>
+  <si>
+    <t>System-recorded deposit for QuickBooks Payments</t>
+  </si>
+  <si>
+    <t>Undeposited Funds</t>
+  </si>
+  <si>
     <t>QuickBooks Payments</t>
   </si>
   <si>
@@ -107,18 +119,6 @@
     <t>Devs:Devs Payment Fees (Intuit)</t>
   </si>
   <si>
-    <t>Deposit</t>
-  </si>
-  <si>
-    <t>Self Interactive</t>
-  </si>
-  <si>
-    <t>System-recorded deposit for QuickBooks Payments</t>
-  </si>
-  <si>
-    <t>Undeposited Funds</t>
-  </si>
-  <si>
     <t>03/02/2021</t>
   </si>
   <si>
@@ -137,6 +137,39 @@
     <t>03/09/2021</t>
   </si>
   <si>
+    <t>04/01/2021</t>
+  </si>
+  <si>
+    <t>04/05/2021</t>
+  </si>
+  <si>
+    <t>04/08/2021</t>
+  </si>
+  <si>
+    <t>04/09/2021</t>
+  </si>
+  <si>
+    <t>Devs:Devs Office Supplies</t>
+  </si>
+  <si>
+    <t>04/15/2021</t>
+  </si>
+  <si>
+    <t>Meetup.com</t>
+  </si>
+  <si>
+    <t>05/03/2021</t>
+  </si>
+  <si>
+    <t>05/07/2021</t>
+  </si>
+  <si>
+    <t>Pizza Hut (Grant)</t>
+  </si>
+  <si>
+    <t>Devs:Devs Member Meals</t>
+  </si>
+  <si>
     <t>Total for Devs Checking (7527)</t>
   </si>
   <si>
@@ -146,6 +179,12 @@
     <t>Devs Revenue:Devs Sponsorships</t>
   </si>
   <si>
+    <t>04/23/2021</t>
+  </si>
+  <si>
+    <t>Jack Henry &amp; Associates</t>
+  </si>
+  <si>
     <t>Total for Accounts Receivable (A/R)</t>
   </si>
   <si>
@@ -173,6 +212,12 @@
     <t>03/05/2021</t>
   </si>
   <si>
+    <t>05/01/2021</t>
+  </si>
+  <si>
+    <t>05/05/2021</t>
+  </si>
+  <si>
     <t>Total for Accounts Payable (A/P)</t>
   </si>
   <si>
@@ -185,6 +230,9 @@
     <t>Tier 1 Sponsor benefits for 12 months</t>
   </si>
   <si>
+    <t>Tier 2 Sponsor benefits for 12 months</t>
+  </si>
+  <si>
     <t xml:space="preserve">   Total for Devs Sponsorships</t>
   </si>
   <si>
@@ -203,6 +251,27 @@
     <t xml:space="preserve">   Total for Devs Insurance</t>
   </si>
   <si>
+    <t xml:space="preserve">   Devs Member Meals</t>
+  </si>
+  <si>
+    <t>DBT CRD 1457 DBUCM PIZZA HUT 004082 4178638722 MO C#4443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Total for Devs Member Meals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Devs Office Supplies</t>
+  </si>
+  <si>
+    <t>DBT CRD 1258 DBJV2B7Q NAME.COM, INC 7202492374 CO C#4443</t>
+  </si>
+  <si>
+    <t>DBT CRD 0609 DBJ5MLTB MEETUP ORG SUB 6M 6468384815 NY C#4443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Total for Devs Office Supplies</t>
+  </si>
+  <si>
     <t xml:space="preserve">   Devs Payment Fees (Intuit)</t>
   </si>
   <si>
@@ -212,12 +281,12 @@
     <t xml:space="preserve">   Devs Software &amp; Hosting</t>
   </si>
   <si>
+    <t>Intuit QuickBooks Essentials ($40/month) - Reimburse Actual Cost</t>
+  </si>
+  <si>
     <t>Zoom Pro Monthly Subscription</t>
   </si>
   <si>
-    <t>Intuit QuickBooks Essentials ($40/month) - Reimburse Actual Cost</t>
-  </si>
-  <si>
     <t>Office 365 Business Essentials ($5/mo/user)</t>
   </si>
   <si>
@@ -230,13 +299,19 @@
     <t>AMAZON WEB SERVICES DBT CRD 2340 03/03/21 DBJVUWQ6</t>
   </si>
   <si>
+    <t>DBT CRD 0632 DBWLJUXT AMAZON WEB SERVICES AWS.AMAZON.CO WA C#4443</t>
+  </si>
+  <si>
+    <t>DBT CRD 0136 DBXCN325 AMAZON WEB SERVICES AWS.AMAZON.CO WA C#4443</t>
+  </si>
+  <si>
     <t xml:space="preserve">   Total for Devs Software &amp; Hosting</t>
   </si>
   <si>
     <t>Total for Devs</t>
   </si>
   <si>
-    <t>Tuesday, Apr 13, 2021 05:27:21 AM GMT-7 - Accrual Basis</t>
+    <t>Saturday, Jun 19, 2021 06:40:08 AM GMT-7 - Accrual Basis</t>
   </si>
   <si>
     <t>Springfield Devs</t>
@@ -245,7 +320,7 @@
     <t>Transaction Detail by  Account</t>
   </si>
   <si>
-    <t>January - March, 2021</t>
+    <t>January - May, 2021</t>
   </si>
 </sst>
 </file>
@@ -352,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:I122"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -371,7 +446,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -384,7 +459,7 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -397,7 +472,7 @@
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -565,7 +640,7 @@
         <v>11</v>
       </c>
       <c r="F12" t="s" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" t="s" s="3">
@@ -651,7 +726,7 @@
         <v>11</v>
       </c>
       <c r="F16" t="s" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" t="s" s="3">
@@ -666,23 +741,23 @@
         <v>27</v>
       </c>
       <c r="C17" t="s" s="3">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F17" t="s" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H17" t="s" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I17" t="n" s="4">
-        <v>-6.0</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="18">
@@ -690,7 +765,7 @@
         <v>27</v>
       </c>
       <c r="C18" t="s" s="3">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" t="s" s="3">
@@ -706,7 +781,7 @@
         <v>34</v>
       </c>
       <c r="I18" t="n" s="4">
-        <v>600.0</v>
+        <v>-6.0</v>
       </c>
     </row>
     <row r="19">
@@ -736,21 +811,21 @@
         <v>36</v>
       </c>
       <c r="C20" t="s" s="3">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F20" t="s" s="3">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" t="s" s="3">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I20" t="n" s="4">
-        <v>600.0</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="21">
@@ -780,21 +855,21 @@
         <v>36</v>
       </c>
       <c r="C22" t="s" s="3">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F22" t="s" s="3">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" t="s" s="3">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I22" t="n" s="4">
-        <v>-20.0</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="23">
@@ -809,7 +884,7 @@
         <v>11</v>
       </c>
       <c r="F23" t="s" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" t="s" s="3">
@@ -820,408 +895,408 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="2">
+      <c r="B24" t="s" s="3">
         <v>41</v>
       </c>
-      <c r="I24" t="n" s="5">
-        <v>-381.38</v>
+      <c r="C24" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I24" t="n" s="4">
+        <v>-20.0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="2">
-        <v>39</v>
+      <c r="B25" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I25" t="n" s="4">
+        <v>-14.99</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="s" s="3">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s" s="3">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F26" t="s" s="3">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" t="s" s="3">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="I26" t="n" s="4">
-        <v>-600.0</v>
+        <v>-10.25</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="s" s="3">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="D27" t="n" s="3">
-        <v>1180.0</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D27" s="3"/>
       <c r="E27" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F27" t="s" s="3">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" t="s" s="3">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I27" t="n" s="4">
-        <v>600.0</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="s" s="3">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s" s="3">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" t="s" s="3">
         <v>11</v>
       </c>
-      <c r="F28" t="s" s="3">
-        <v>38</v>
-      </c>
+      <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" t="s" s="3">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="I28" t="n" s="4">
-        <v>-600.0</v>
+        <v>-17.98</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I29" t="n" s="5">
-        <v>-600.0</v>
+      <c r="B29" t="s" s="3">
+        <v>46</v>
+      </c>
+      <c r="C29" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s" s="3">
+        <v>47</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" t="s" s="3">
+        <v>45</v>
+      </c>
+      <c r="I29" t="n" s="4">
+        <v>-98.94</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="2">
-        <v>34</v>
+      <c r="B30" t="s" s="3">
+        <v>48</v>
+      </c>
+      <c r="C30" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F30" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I30" t="n" s="4">
+        <v>-20.0</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="s" s="3">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s" s="3">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F31" t="s" s="3">
-        <v>32</v>
-      </c>
-      <c r="G31" t="s" s="3">
-        <v>45</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G31" s="3"/>
       <c r="H31" t="s" s="3">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="I31" t="n" s="4">
-        <v>600.0</v>
+        <v>-9.98</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="s" s="3">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s" s="3">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F32" t="s" s="3">
-        <v>32</v>
-      </c>
-      <c r="G32" t="s" s="3">
-        <v>45</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G32" s="3"/>
       <c r="H32" t="s" s="3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I32" t="n" s="4">
-        <v>-600.0</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I33" t="n" s="5">
-        <v>0.0</v>
+      <c r="B33" t="s" s="3">
+        <v>49</v>
+      </c>
+      <c r="C33" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s" s="3">
+        <v>50</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" t="s" s="3">
+        <v>51</v>
+      </c>
+      <c r="I33" t="n" s="4">
+        <v>-71.45</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>16</v>
+        <v>52</v>
+      </c>
+      <c r="I34" t="n" s="5">
+        <v>-684.97</v>
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="C35" t="s" s="3">
-        <v>48</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F35" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="G35" s="3"/>
-      <c r="H35" t="s" s="3">
-        <v>13</v>
-      </c>
-      <c r="I35" t="n" s="4">
-        <v>14.99</v>
+      <c r="A35" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="s" s="3">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C36" t="s" s="3">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F36" t="s" s="3">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" t="s" s="3">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="I36" t="n" s="4">
-        <v>20.0</v>
+        <v>-600.0</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="s" s="3">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D37" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="D37" t="n" s="3">
+        <v>1180.0</v>
+      </c>
       <c r="E37" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F37" t="s" s="3">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" t="s" s="3">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="I37" t="n" s="4">
-        <v>-14.99</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="s" s="3">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C38" t="s" s="3">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F38" t="s" s="3">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" t="s" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I38" t="n" s="4">
-        <v>20.0</v>
+        <v>-600.0</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="s" s="3">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="C39" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D39" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="D39" t="n" s="3">
+        <v>1181.0</v>
+      </c>
       <c r="E39" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F39" t="s" s="3">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" t="s" s="3">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="I39" t="n" s="4">
-        <v>-20.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="C40" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F40" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="G40" s="3"/>
-      <c r="H40" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I40" t="n" s="4">
-        <v>-20.0</v>
+      <c r="A40" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="I40" t="n" s="5">
+        <v>900.0</v>
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C41" t="s" s="3">
-        <v>48</v>
-      </c>
-      <c r="D41" s="3"/>
-      <c r="E41" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F41" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="G41" s="3"/>
-      <c r="H41" t="s" s="3">
-        <v>13</v>
-      </c>
-      <c r="I41" t="n" s="4">
-        <v>14.99</v>
+      <c r="A41" t="s" s="2">
+        <v>31</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="s" s="3">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C42" t="s" s="3">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F42" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="G42" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="G42" t="s" s="3">
+        <v>58</v>
+      </c>
       <c r="H42" t="s" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I42" t="n" s="4">
-        <v>20.0</v>
+        <v>-600.0</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="s" s="3">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C43" t="s" s="3">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F43" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="G43" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="G43" t="s" s="3">
+        <v>58</v>
+      </c>
       <c r="H43" t="s" s="3">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="I43" t="n" s="4">
-        <v>-20.0</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="3">
-        <v>24</v>
-      </c>
-      <c r="C44" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D44" s="3"/>
-      <c r="E44" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F44" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="G44" s="3"/>
-      <c r="H44" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I44" t="n" s="4">
-        <v>-14.99</v>
+      <c r="A44" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="I44" t="n" s="5">
+        <v>0.0</v>
       </c>
     </row>
     <row r="45">
-      <c r="B45" t="s" s="3">
-        <v>50</v>
-      </c>
-      <c r="C45" t="s" s="3">
-        <v>48</v>
-      </c>
-      <c r="D45" s="3"/>
-      <c r="E45" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F45" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="G45" s="3"/>
-      <c r="H45" t="s" s="3">
-        <v>13</v>
-      </c>
-      <c r="I45" t="n" s="4">
-        <v>20.0</v>
+      <c r="A45" t="s" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="s" s="3">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C46" t="s" s="3">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" t="s" s="3">
@@ -1232,40 +1307,40 @@
       </c>
       <c r="G46" s="3"/>
       <c r="H46" t="s" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I46" t="n" s="4">
-        <v>-20.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" t="s" s="3">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C47" t="s" s="3">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F47" t="s" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" t="s" s="3">
         <v>13</v>
       </c>
       <c r="I47" t="n" s="4">
-        <v>20.0</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" t="s" s="3">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s" s="3">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" t="s" s="3">
@@ -1276,37 +1351,37 @@
       </c>
       <c r="G48" s="3"/>
       <c r="H48" t="s" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I48" t="n" s="4">
-        <v>14.99</v>
+        <v>-14.99</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" t="s" s="3">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="C49" t="s" s="3">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F49" t="s" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" t="s" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I49" t="n" s="4">
-        <v>-14.99</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" t="s" s="3">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C50" t="s" s="3">
         <v>14</v>
@@ -1316,7 +1391,7 @@
         <v>11</v>
       </c>
       <c r="F50" t="s" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" t="s" s="3">
@@ -1328,200 +1403,362 @@
     </row>
     <row r="51">
       <c r="B51" t="s" s="3">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="C51" t="s" s="3">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F51" t="s" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" t="s" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I51" t="n" s="4">
-        <v>20.0</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" t="s" s="3">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C52" t="s" s="3">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F52" t="s" s="3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="I52" t="n" s="4">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="C53" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F53" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G53" s="3"/>
+      <c r="H53" t="s" s="3">
         <v>8</v>
       </c>
-      <c r="I52" t="n" s="4">
+      <c r="I53" t="n" s="4">
         <v>-20.0</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="I53" t="n" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
     <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>54</v>
+      <c r="B54" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="C54" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F54" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G54" s="3"/>
+      <c r="H54" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="I54" t="n" s="4">
+        <v>20.0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>55</v>
+      <c r="B55" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="C55" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F55" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="G55" s="3"/>
+      <c r="H55" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I55" t="n" s="4">
+        <v>-14.99</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="C56" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F56" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G56" s="3"/>
+      <c r="H56" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="I56" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="C57" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F57" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G57" s="3"/>
+      <c r="H57" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I57" t="n" s="4">
+        <v>-20.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="s" s="3">
+        <v>64</v>
+      </c>
+      <c r="C58" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F58" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="G58" s="3"/>
+      <c r="H58" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="I58" t="n" s="4">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="s" s="3">
+        <v>64</v>
+      </c>
+      <c r="C59" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F59" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G59" s="3"/>
+      <c r="H59" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="I59" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="s" s="3">
         <v>35</v>
       </c>
-      <c r="C56" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="D56" t="n" s="3">
-        <v>1180.0</v>
-      </c>
-      <c r="E56" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F56" t="s" s="3">
-        <v>38</v>
-      </c>
-      <c r="G56" t="s" s="3">
-        <v>56</v>
-      </c>
-      <c r="H56" t="s" s="3">
-        <v>39</v>
-      </c>
-      <c r="I56" t="n" s="4">
-        <v>600.0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="I57" t="n" s="5">
-        <v>600.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="I58" t="n" s="5">
-        <v>600.0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>60</v>
+      <c r="C60" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F60" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="G60" s="3"/>
+      <c r="H60" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I60" t="n" s="4">
+        <v>-14.99</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" t="s" s="3">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C61" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="D61" t="n" s="3">
-        <v>2001.0</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D61" s="3"/>
       <c r="E61" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F61" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="G61" t="s" s="3">
-        <v>61</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G61" s="3"/>
       <c r="H61" t="s" s="3">
         <v>8</v>
       </c>
       <c r="I61" t="n" s="4">
-        <v>1148.0</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="I62" t="n" s="5">
-        <v>1148.0</v>
+      <c r="B62" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="C62" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F62" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G62" s="3"/>
+      <c r="H62" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="I62" t="n" s="4">
+        <v>20.0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>63</v>
+      <c r="B63" t="s" s="3">
+        <v>40</v>
+      </c>
+      <c r="C63" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F63" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G63" s="3"/>
+      <c r="H63" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I63" t="n" s="4">
+        <v>-20.0</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" t="s" s="3">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C64" t="s" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F64" t="s" s="3">
-        <v>28</v>
-      </c>
-      <c r="G64" t="s" s="3">
-        <v>29</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G64" s="3"/>
       <c r="H64" t="s" s="3">
         <v>8</v>
       </c>
       <c r="I64" t="n" s="4">
-        <v>6.0</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="I65" t="n" s="5">
-        <v>6.0</v>
+      <c r="B65" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="C65" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F65" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="G65" s="3"/>
+      <c r="H65" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="I65" t="n" s="4">
+        <v>14.99</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="2">
-        <v>65</v>
+      <c r="B66" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="C66" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F66" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G66" s="3"/>
+      <c r="H66" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="I66" t="n" s="4">
+        <v>20.0</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" t="s" s="3">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C67" t="s" s="3">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" t="s" s="3">
@@ -1530,22 +1767,20 @@
       <c r="F67" t="s" s="3">
         <v>15</v>
       </c>
-      <c r="G67" t="s" s="3">
-        <v>66</v>
-      </c>
+      <c r="G67" s="3"/>
       <c r="H67" t="s" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I67" t="n" s="4">
-        <v>14.99</v>
+        <v>-14.99</v>
       </c>
     </row>
     <row r="68">
       <c r="B68" t="s" s="3">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C68" t="s" s="3">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" t="s" s="3">
@@ -1554,11 +1789,9 @@
       <c r="F68" t="s" s="3">
         <v>18</v>
       </c>
-      <c r="G68" t="s" s="3">
-        <v>67</v>
-      </c>
+      <c r="G68" s="3"/>
       <c r="H68" t="s" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I68" t="n" s="4">
         <v>20.0</v>
@@ -1566,71 +1799,65 @@
     </row>
     <row r="69">
       <c r="B69" t="s" s="3">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C69" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="D69" t="n" s="3">
-        <v>6.36334269E8</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D69" s="3"/>
       <c r="E69" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F69" t="s" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G69" s="3"/>
       <c r="H69" t="s" s="3">
         <v>8</v>
       </c>
       <c r="I69" t="n" s="4">
-        <v>10.29</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="70">
       <c r="B70" t="s" s="3">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C70" t="s" s="3">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F70" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="G70" t="s" s="3">
-        <v>68</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G70" s="3"/>
       <c r="H70" t="s" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I70" t="n" s="4">
-        <v>20.0</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="71">
       <c r="B71" t="s" s="3">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="C71" t="s" s="3">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F71" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s" s="3">
-        <v>67</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G71" s="3"/>
       <c r="H71" t="s" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I71" t="n" s="4">
         <v>20.0</v>
@@ -1638,226 +1865,872 @@
     </row>
     <row r="72">
       <c r="B72" t="s" s="3">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C72" t="s" s="3">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F72" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="G72" t="s" s="3">
-        <v>66</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G72" s="3"/>
       <c r="H72" t="s" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I72" t="n" s="4">
-        <v>14.99</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="73">
       <c r="B73" t="s" s="3">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="C73" t="s" s="3">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F73" t="s" s="3">
-        <v>12</v>
-      </c>
-      <c r="G73" t="s" s="3">
-        <v>69</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G73" s="3"/>
       <c r="H73" t="s" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I73" t="n" s="4">
-        <v>10.22</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="74">
       <c r="B74" t="s" s="3">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C74" t="s" s="3">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F74" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="G74" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G74" s="3"/>
+      <c r="H74" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I74" t="n" s="4">
+        <v>-20.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="H74" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="I74" t="n" s="4">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="B75" t="s" s="3">
-        <v>26</v>
-      </c>
-      <c r="C75" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="D75" s="3"/>
-      <c r="E75" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F75" s="3"/>
-      <c r="G75" t="s" s="3">
+      <c r="I75" t="n" s="5">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
         <v>70</v>
-      </c>
-      <c r="H75" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I75" t="n" s="4">
-        <v>232.48</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="B76" t="s" s="3">
-        <v>51</v>
-      </c>
-      <c r="C76" t="s" s="3">
-        <v>48</v>
-      </c>
-      <c r="D76" s="3"/>
-      <c r="E76" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F76" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="G76" t="s" s="3">
-        <v>66</v>
-      </c>
-      <c r="H76" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="I76" t="n" s="4">
-        <v>14.99</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="B77" t="s" s="3">
-        <v>51</v>
-      </c>
-      <c r="C77" t="s" s="3">
-        <v>48</v>
-      </c>
-      <c r="D77" s="3"/>
-      <c r="E77" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F77" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="G77" t="s" s="3">
-        <v>67</v>
-      </c>
-      <c r="H77" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="I77" t="n" s="4">
-        <v>20.0</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" t="s" s="3">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C78" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="D78" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="D78" t="n" s="3">
+        <v>1180.0</v>
+      </c>
       <c r="E78" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F78" t="s" s="3">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="G78" t="s" s="3">
         <v>71</v>
       </c>
       <c r="H78" t="s" s="3">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="I78" t="n" s="4">
-        <v>9.42</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="79">
       <c r="B79" t="s" s="3">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C79" t="s" s="3">
-        <v>48</v>
-      </c>
-      <c r="D79" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="D79" t="n" s="3">
+        <v>1181.0</v>
+      </c>
       <c r="E79" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F79" t="s" s="3">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="G79" t="s" s="3">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H79" t="s" s="3">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I79" t="n" s="4">
-        <v>20.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I80" t="n" s="5">
-        <v>427.38</v>
+        <v>2100.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I81" t="n" s="5">
-        <v>1581.38</v>
+        <v>2100.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B84"/>
-      <c r="C84"/>
-      <c r="D84"/>
-      <c r="E84"/>
-      <c r="F84"/>
-      <c r="G84"/>
-      <c r="H84"/>
-      <c r="I84"/>
+      <c r="B84" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="C84" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="D84" t="n" s="3">
+        <v>2001.0</v>
+      </c>
+      <c r="E84" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F84" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="G84" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="H84" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I84" t="n" s="4">
+        <v>1148.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I85" t="n" s="5">
+        <v>1148.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" t="s" s="3">
+        <v>49</v>
+      </c>
+      <c r="C87" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D87" s="3"/>
+      <c r="E87" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F87" t="s" s="3">
+        <v>50</v>
+      </c>
+      <c r="G87" t="s" s="3">
+        <v>80</v>
+      </c>
+      <c r="H87" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I87" t="n" s="4">
+        <v>71.45</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I88" t="n" s="5">
+        <v>71.45</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="C90" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D90" s="3"/>
+      <c r="E90" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F90" s="3"/>
+      <c r="G90" t="s" s="3">
+        <v>83</v>
+      </c>
+      <c r="H90" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I90" t="n" s="4">
+        <v>17.98</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" t="s" s="3">
+        <v>46</v>
+      </c>
+      <c r="C91" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D91" s="3"/>
+      <c r="E91" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F91" t="s" s="3">
+        <v>47</v>
+      </c>
+      <c r="G91" t="s" s="3">
+        <v>84</v>
+      </c>
+      <c r="H91" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I91" t="n" s="4">
+        <v>98.94</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I92" t="n" s="5">
+        <v>116.92</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="C94" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D94" s="3"/>
+      <c r="E94" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F94" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="G94" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="H94" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I94" t="n" s="4">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I95" t="n" s="5">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" t="s" s="3">
+        <v>60</v>
+      </c>
+      <c r="C97" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="D97" s="3"/>
+      <c r="E97" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F97" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G97" t="s" s="3">
+        <v>89</v>
+      </c>
+      <c r="H97" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I97" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" t="s" s="3">
+        <v>60</v>
+      </c>
+      <c r="C98" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="D98" s="3"/>
+      <c r="E98" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F98" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="G98" t="s" s="3">
+        <v>90</v>
+      </c>
+      <c r="H98" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I98" t="n" s="4">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" t="s" s="3">
+        <v>9</v>
+      </c>
+      <c r="C99" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D99" t="n" s="3">
+        <v>6.36334269E8</v>
+      </c>
+      <c r="E99" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F99" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="G99" s="3"/>
+      <c r="H99" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I99" t="n" s="4">
+        <v>10.29</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" t="s" s="3">
+        <v>62</v>
+      </c>
+      <c r="C100" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="D100" s="3"/>
+      <c r="E100" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F100" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G100" t="s" s="3">
+        <v>91</v>
+      </c>
+      <c r="H100" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I100" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="C101" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="D101" s="3"/>
+      <c r="E101" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F101" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G101" t="s" s="3">
+        <v>89</v>
+      </c>
+      <c r="H101" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I101" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="C102" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="D102" s="3"/>
+      <c r="E102" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F102" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="G102" t="s" s="3">
+        <v>90</v>
+      </c>
+      <c r="H102" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I102" t="n" s="4">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="C103" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D103" s="3"/>
+      <c r="E103" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F103" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="G103" t="s" s="3">
+        <v>92</v>
+      </c>
+      <c r="H103" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I103" t="n" s="4">
+        <v>10.22</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="C104" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="D104" s="3"/>
+      <c r="E104" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F104" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G104" t="s" s="3">
+        <v>91</v>
+      </c>
+      <c r="H104" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I104" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="C105" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D105" s="3"/>
+      <c r="E105" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F105" s="3"/>
+      <c r="G105" t="s" s="3">
+        <v>93</v>
+      </c>
+      <c r="H105" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I105" t="n" s="4">
+        <v>232.48</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" t="s" s="3">
+        <v>64</v>
+      </c>
+      <c r="C106" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="D106" s="3"/>
+      <c r="E106" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F106" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="G106" t="s" s="3">
+        <v>90</v>
+      </c>
+      <c r="H106" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I106" t="n" s="4">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" t="s" s="3">
+        <v>64</v>
+      </c>
+      <c r="C107" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="D107" s="3"/>
+      <c r="E107" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F107" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G107" t="s" s="3">
+        <v>89</v>
+      </c>
+      <c r="H107" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I107" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="C108" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D108" s="3"/>
+      <c r="E108" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F108" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="G108" t="s" s="3">
+        <v>94</v>
+      </c>
+      <c r="H108" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I108" t="n" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="B109" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="C109" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="D109" s="3"/>
+      <c r="E109" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F109" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G109" t="s" s="3">
+        <v>91</v>
+      </c>
+      <c r="H109" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I109" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="C110" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="D110" s="3"/>
+      <c r="E110" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F110" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G110" t="s" s="3">
+        <v>89</v>
+      </c>
+      <c r="H110" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I110" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="C111" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="D111" s="3"/>
+      <c r="E111" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F111" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="G111" t="s" s="3">
+        <v>90</v>
+      </c>
+      <c r="H111" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I111" t="n" s="4">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="B112" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="C112" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D112" s="3"/>
+      <c r="E112" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F112" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="G112" t="s" s="3">
+        <v>95</v>
+      </c>
+      <c r="H112" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I112" t="n" s="4">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="C113" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="D113" s="3"/>
+      <c r="E113" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F113" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G113" t="s" s="3">
+        <v>91</v>
+      </c>
+      <c r="H113" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I113" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" t="s" s="3">
+        <v>66</v>
+      </c>
+      <c r="C114" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="D114" s="3"/>
+      <c r="E114" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F114" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="G114" t="s" s="3">
+        <v>90</v>
+      </c>
+      <c r="H114" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I114" t="n" s="4">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="B115" t="s" s="3">
+        <v>66</v>
+      </c>
+      <c r="C115" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="D115" s="3"/>
+      <c r="E115" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F115" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G115" t="s" s="3">
+        <v>89</v>
+      </c>
+      <c r="H115" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I115" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="B116" t="s" s="3">
+        <v>48</v>
+      </c>
+      <c r="C116" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D116" s="3"/>
+      <c r="E116" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F116" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="G116" t="s" s="3">
+        <v>96</v>
+      </c>
+      <c r="H116" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I116" t="n" s="4">
+        <v>9.98</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="B117" t="s" s="3">
+        <v>67</v>
+      </c>
+      <c r="C117" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="D117" s="3"/>
+      <c r="E117" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F117" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G117" t="s" s="3">
+        <v>91</v>
+      </c>
+      <c r="H117" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I117" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="I118" t="n" s="5">
+        <v>557.59</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="I119" t="n" s="5">
+        <v>1899.96</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B122"/>
+      <c r="C122"/>
+      <c r="D122"/>
+      <c r="E122"/>
+      <c r="F122"/>
+      <c r="G122"/>
+      <c r="H122"/>
+      <c r="I122"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A84:I84"/>
+    <mergeCell ref="A122:I122"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>

--- a/2021-sgfdevs-transaction-detail-by-account.xlsx
+++ b/2021-sgfdevs-transaction-detail-by-account.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="110">
   <si>
     <t>Date</t>
   </si>
@@ -98,6 +98,15 @@
     <t>02/11/2021</t>
   </si>
   <si>
+    <t>QuickBooks Payments</t>
+  </si>
+  <si>
+    <t>System-recorded fee for QuickBooks Payments. Fee-name: DiscountRateFee, fee-type: Daily.</t>
+  </si>
+  <si>
+    <t>Devs:Devs Payment Fees (Intuit)</t>
+  </si>
+  <si>
     <t>Deposit</t>
   </si>
   <si>
@@ -110,15 +119,6 @@
     <t>Undeposited Funds</t>
   </si>
   <si>
-    <t>QuickBooks Payments</t>
-  </si>
-  <si>
-    <t>System-recorded fee for QuickBooks Payments. Fee-name: DiscountRateFee, fee-type: Daily.</t>
-  </si>
-  <si>
-    <t>Devs:Devs Payment Fees (Intuit)</t>
-  </si>
-  <si>
     <t>03/02/2021</t>
   </si>
   <si>
@@ -170,6 +170,21 @@
     <t>Devs:Devs Member Meals</t>
   </si>
   <si>
+    <t>06/01/2021</t>
+  </si>
+  <si>
+    <t>06/04/2021</t>
+  </si>
+  <si>
+    <t>06/09/2021</t>
+  </si>
+  <si>
+    <t>06/24/2021</t>
+  </si>
+  <si>
+    <t>Jack Henry &amp; Associates</t>
+  </si>
+  <si>
     <t>Total for Devs Checking (7527)</t>
   </si>
   <si>
@@ -182,9 +197,6 @@
     <t>04/23/2021</t>
   </si>
   <si>
-    <t>Jack Henry &amp; Associates</t>
-  </si>
-  <si>
     <t>Total for Accounts Receivable (A/R)</t>
   </si>
   <si>
@@ -218,6 +230,9 @@
     <t>05/05/2021</t>
   </si>
   <si>
+    <t>06/05/2021</t>
+  </si>
+  <si>
     <t>Total for Accounts Payable (A/P)</t>
   </si>
   <si>
@@ -257,6 +272,9 @@
     <t>DBT CRD 1457 DBUCM PIZZA HUT 004082 4178638722 MO C#4443</t>
   </si>
   <si>
+    <t>DBT CRD 1454 DBIQT36L PIZZA HUT 004082 4178638722 MO C#4443</t>
+  </si>
+  <si>
     <t xml:space="preserve">   Total for Devs Member Meals</t>
   </si>
   <si>
@@ -305,13 +323,16 @@
     <t>DBT CRD 0136 DBXCN325 AMAZON WEB SERVICES AWS.AMAZON.CO WA C#4443</t>
   </si>
   <si>
+    <t>DBT CRD 0835 DBVW5ODF AMAZON WEB SERVICES AWS.AMAZON.CO WA C#4443</t>
+  </si>
+  <si>
     <t xml:space="preserve">   Total for Devs Software &amp; Hosting</t>
   </si>
   <si>
     <t>Total for Devs</t>
   </si>
   <si>
-    <t>Saturday, Jun 19, 2021 06:40:08 AM GMT-7 - Accrual Basis</t>
+    <t>Thursday, Jul 29, 2021 07:19:18 AM GMT-7 - Accrual Basis</t>
   </si>
   <si>
     <t>Springfield Devs</t>
@@ -320,7 +341,7 @@
     <t>Transaction Detail by  Account</t>
   </si>
   <si>
-    <t>January - May, 2021</t>
+    <t>January - June, 2021</t>
   </si>
 </sst>
 </file>
@@ -427,7 +448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I122"/>
+  <dimension ref="A1:I134"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -446,7 +467,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -459,7 +480,7 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -472,7 +493,7 @@
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -699,19 +720,21 @@
         <v>26</v>
       </c>
       <c r="C15" t="s" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" t="s" s="3">
         <v>11</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" t="s" s="3">
+        <v>18</v>
+      </c>
       <c r="G15" s="3"/>
       <c r="H15" t="s" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I15" t="n" s="4">
-        <v>-232.48</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="16">
@@ -719,21 +742,19 @@
         <v>26</v>
       </c>
       <c r="C16" t="s" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" t="s" s="3">
         <v>11</v>
       </c>
-      <c r="F16" t="s" s="3">
-        <v>18</v>
-      </c>
+      <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" t="s" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I16" t="n" s="4">
-        <v>-20.0</v>
+        <v>-232.48</v>
       </c>
     </row>
     <row r="17">
@@ -741,23 +762,23 @@
         <v>27</v>
       </c>
       <c r="C17" t="s" s="3">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F17" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="G17" t="s" s="3">
         <v>29</v>
       </c>
-      <c r="G17" t="s" s="3">
+      <c r="H17" t="s" s="3">
         <v>30</v>
       </c>
-      <c r="H17" t="s" s="3">
-        <v>31</v>
-      </c>
       <c r="I17" t="n" s="4">
-        <v>600.0</v>
+        <v>-6.0</v>
       </c>
     </row>
     <row r="18">
@@ -765,7 +786,7 @@
         <v>27</v>
       </c>
       <c r="C18" t="s" s="3">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" t="s" s="3">
@@ -781,7 +802,7 @@
         <v>34</v>
       </c>
       <c r="I18" t="n" s="4">
-        <v>-6.0</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="19">
@@ -833,21 +854,21 @@
         <v>36</v>
       </c>
       <c r="C21" t="s" s="3">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F21" t="s" s="3">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" t="s" s="3">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="I21" t="n" s="4">
-        <v>-9.42</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="22">
@@ -855,21 +876,21 @@
         <v>36</v>
       </c>
       <c r="C22" t="s" s="3">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F22" t="s" s="3">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" t="s" s="3">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="I22" t="n" s="4">
-        <v>600.0</v>
+        <v>-9.42</v>
       </c>
     </row>
     <row r="23">
@@ -921,21 +942,21 @@
         <v>42</v>
       </c>
       <c r="C25" t="s" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F25" t="s" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" t="s" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I25" t="n" s="4">
-        <v>-14.99</v>
+        <v>-10.25</v>
       </c>
     </row>
     <row r="26">
@@ -943,21 +964,21 @@
         <v>42</v>
       </c>
       <c r="C26" t="s" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F26" t="s" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" t="s" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I26" t="n" s="4">
-        <v>-10.25</v>
+        <v>-14.99</v>
       </c>
     </row>
     <row r="27">
@@ -1113,67 +1134,96 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="2">
+      <c r="B34" t="s" s="3">
         <v>52</v>
       </c>
-      <c r="I34" t="n" s="5">
-        <v>-684.97</v>
+      <c r="C34" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I34" t="n" s="4">
+        <v>-20.0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="2">
-        <v>39</v>
+      <c r="B35" t="s" s="3">
+        <v>53</v>
+      </c>
+      <c r="C35" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s" s="3">
+        <v>50</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" t="s" s="3">
+        <v>51</v>
+      </c>
+      <c r="I35" t="n" s="4">
+        <v>-73.99</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="s" s="3">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C36" t="s" s="3">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F36" t="s" s="3">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" t="s" s="3">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="I36" t="n" s="4">
-        <v>-600.0</v>
+        <v>-10.22</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="s" s="3">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C37" t="s" s="3">
-        <v>53</v>
-      </c>
-      <c r="D37" t="n" s="3">
-        <v>1180.0</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D37" s="3"/>
       <c r="E37" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F37" t="s" s="3">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" t="s" s="3">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I37" t="n" s="4">
-        <v>600.0</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="s" s="3">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s" s="3">
         <v>37</v>
@@ -1183,80 +1233,78 @@
         <v>11</v>
       </c>
       <c r="F38" t="s" s="3">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" t="s" s="3">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="I38" t="n" s="4">
-        <v>-600.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="39">
-      <c r="B39" t="s" s="3">
-        <v>55</v>
-      </c>
-      <c r="C39" t="s" s="3">
-        <v>53</v>
-      </c>
-      <c r="D39" t="n" s="3">
-        <v>1181.0</v>
-      </c>
-      <c r="E39" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F39" t="s" s="3">
-        <v>56</v>
-      </c>
-      <c r="G39" s="3"/>
-      <c r="H39" t="s" s="3">
-        <v>54</v>
-      </c>
-      <c r="I39" t="n" s="4">
-        <v>1500.0</v>
+      <c r="A39" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="I39" t="n" s="5">
+        <v>690.82</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="I40" t="n" s="5">
-        <v>900.0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>31</v>
+      <c r="B41" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="C41" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F41" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="I41" t="n" s="4">
+        <v>-600.0</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="s" s="3">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C42" t="s" s="3">
-        <v>28</v>
-      </c>
-      <c r="D42" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="D42" t="n" s="3">
+        <v>1180.0</v>
+      </c>
       <c r="E42" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F42" t="s" s="3">
-        <v>29</v>
-      </c>
-      <c r="G42" t="s" s="3">
-        <v>58</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G42" s="3"/>
       <c r="H42" t="s" s="3">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="I42" t="n" s="4">
-        <v>-600.0</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="s" s="3">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C43" t="s" s="3">
         <v>37</v>
@@ -1266,257 +1314,230 @@
         <v>11</v>
       </c>
       <c r="F43" t="s" s="3">
-        <v>29</v>
-      </c>
-      <c r="G43" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I43" t="n" s="4">
+        <v>-600.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="s" s="3">
+        <v>60</v>
+      </c>
+      <c r="C44" t="s" s="3">
         <v>58</v>
       </c>
-      <c r="H43" t="s" s="3">
-        <v>39</v>
-      </c>
-      <c r="I43" t="n" s="4">
-        <v>600.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
+      <c r="D44" t="n" s="3">
+        <v>1181.0</v>
+      </c>
+      <c r="E44" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F44" t="s" s="3">
+        <v>56</v>
+      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" t="s" s="3">
         <v>59</v>
       </c>
-      <c r="I44" t="n" s="5">
-        <v>0.0</v>
+      <c r="I44" t="n" s="4">
+        <v>1500.0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>16</v>
+      <c r="B45" t="s" s="3">
+        <v>55</v>
+      </c>
+      <c r="C45" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F45" t="s" s="3">
+        <v>56</v>
+      </c>
+      <c r="G45" s="3"/>
+      <c r="H45" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I45" t="n" s="4">
+        <v>-1500.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="3">
-        <v>60</v>
-      </c>
-      <c r="C46" t="s" s="3">
+      <c r="A46" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="D46" s="3"/>
-      <c r="E46" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F46" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="G46" s="3"/>
-      <c r="H46" t="s" s="3">
-        <v>13</v>
-      </c>
-      <c r="I46" t="n" s="4">
-        <v>20.0</v>
+      <c r="I46" t="n" s="5">
+        <v>-600.0</v>
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="3">
-        <v>60</v>
-      </c>
-      <c r="C47" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="D47" s="3"/>
-      <c r="E47" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F47" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="G47" s="3"/>
-      <c r="H47" t="s" s="3">
-        <v>13</v>
-      </c>
-      <c r="I47" t="n" s="4">
-        <v>14.99</v>
+      <c r="A47" t="s" s="2">
+        <v>34</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" t="s" s="3">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C48" t="s" s="3">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F48" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="G48" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="G48" t="s" s="3">
+        <v>62</v>
+      </c>
       <c r="H48" t="s" s="3">
         <v>8</v>
       </c>
       <c r="I48" t="n" s="4">
-        <v>-14.99</v>
+        <v>-600.0</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" t="s" s="3">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="C49" t="s" s="3">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F49" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="G49" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="G49" t="s" s="3">
+        <v>62</v>
+      </c>
       <c r="H49" t="s" s="3">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="I49" t="n" s="4">
-        <v>20.0</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="C50" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D50" s="3"/>
-      <c r="E50" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F50" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="G50" s="3"/>
-      <c r="H50" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I50" t="n" s="4">
-        <v>-20.0</v>
+      <c r="A50" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I50" t="n" s="5">
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="C51" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D51" s="3"/>
-      <c r="E51" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F51" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="G51" s="3"/>
-      <c r="H51" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I51" t="n" s="4">
-        <v>-20.0</v>
+      <c r="A51" t="s" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" t="s" s="3">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C52" t="s" s="3">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F52" t="s" s="3">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" t="s" s="3">
         <v>13</v>
       </c>
       <c r="I52" t="n" s="4">
-        <v>14.99</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="53">
       <c r="B53" t="s" s="3">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C53" t="s" s="3">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F53" t="s" s="3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" t="s" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I53" t="n" s="4">
-        <v>-20.0</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="s" s="3">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s" s="3">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F54" t="s" s="3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" t="s" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I54" t="n" s="4">
-        <v>20.0</v>
+        <v>-14.99</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" t="s" s="3">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C55" t="s" s="3">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F55" t="s" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" t="s" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I55" t="n" s="4">
-        <v>-14.99</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" t="s" s="3">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="C56" t="s" s="3">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" t="s" s="3">
@@ -1527,15 +1548,15 @@
       </c>
       <c r="G56" s="3"/>
       <c r="H56" t="s" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I56" t="n" s="4">
-        <v>20.0</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" t="s" s="3">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C57" t="s" s="3">
         <v>14</v>
@@ -1545,7 +1566,7 @@
         <v>11</v>
       </c>
       <c r="F57" t="s" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" t="s" s="3">
@@ -1557,10 +1578,10 @@
     </row>
     <row r="58">
       <c r="B58" t="s" s="3">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="C58" t="s" s="3">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" t="s" s="3">
@@ -1579,10 +1600,10 @@
     </row>
     <row r="59">
       <c r="B59" t="s" s="3">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="C59" t="s" s="3">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" t="s" s="3">
@@ -1601,7 +1622,7 @@
     </row>
     <row r="60">
       <c r="B60" t="s" s="3">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C60" t="s" s="3">
         <v>14</v>
@@ -1611,19 +1632,19 @@
         <v>11</v>
       </c>
       <c r="F60" t="s" s="3">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" t="s" s="3">
         <v>8</v>
       </c>
       <c r="I60" t="n" s="4">
-        <v>-14.99</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" t="s" s="3">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C61" t="s" s="3">
         <v>14</v>
@@ -1633,22 +1654,22 @@
         <v>11</v>
       </c>
       <c r="F61" t="s" s="3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" t="s" s="3">
         <v>8</v>
       </c>
       <c r="I61" t="n" s="4">
-        <v>-20.0</v>
+        <v>-14.99</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" t="s" s="3">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C62" t="s" s="3">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" t="s" s="3">
@@ -1667,7 +1688,7 @@
     </row>
     <row r="63">
       <c r="B63" t="s" s="3">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C63" t="s" s="3">
         <v>14</v>
@@ -1689,10 +1710,10 @@
     </row>
     <row r="64">
       <c r="B64" t="s" s="3">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="C64" t="s" s="3">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" t="s" s="3">
@@ -1703,18 +1724,18 @@
       </c>
       <c r="G64" s="3"/>
       <c r="H64" t="s" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I64" t="n" s="4">
-        <v>-20.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="65">
       <c r="B65" t="s" s="3">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="C65" t="s" s="3">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" t="s" s="3">
@@ -1733,29 +1754,29 @@
     </row>
     <row r="66">
       <c r="B66" t="s" s="3">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C66" t="s" s="3">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F66" t="s" s="3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" t="s" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I66" t="n" s="4">
-        <v>20.0</v>
+        <v>-14.99</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" t="s" s="3">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C67" t="s" s="3">
         <v>14</v>
@@ -1765,22 +1786,22 @@
         <v>11</v>
       </c>
       <c r="F67" t="s" s="3">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" t="s" s="3">
         <v>8</v>
       </c>
       <c r="I67" t="n" s="4">
-        <v>-14.99</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="68">
       <c r="B68" t="s" s="3">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="C68" t="s" s="3">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" t="s" s="3">
@@ -1799,7 +1820,7 @@
     </row>
     <row r="69">
       <c r="B69" t="s" s="3">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C69" t="s" s="3">
         <v>14</v>
@@ -1821,10 +1842,10 @@
     </row>
     <row r="70">
       <c r="B70" t="s" s="3">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="C70" t="s" s="3">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" t="s" s="3">
@@ -1843,10 +1864,10 @@
     </row>
     <row r="71">
       <c r="B71" t="s" s="3">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="C71" t="s" s="3">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" t="s" s="3">
@@ -1857,18 +1878,18 @@
       </c>
       <c r="G71" s="3"/>
       <c r="H71" t="s" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I71" t="n" s="4">
-        <v>20.0</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="72">
       <c r="B72" t="s" s="3">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C72" t="s" s="3">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" t="s" s="3">
@@ -1879,18 +1900,18 @@
       </c>
       <c r="G72" s="3"/>
       <c r="H72" t="s" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I72" t="n" s="4">
-        <v>-20.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="73">
       <c r="B73" t="s" s="3">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="C73" t="s" s="3">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" t="s" s="3">
@@ -1909,7 +1930,7 @@
     </row>
     <row r="74">
       <c r="B74" t="s" s="3">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C74" t="s" s="3">
         <v>14</v>
@@ -1919,520 +1940,504 @@
         <v>11</v>
       </c>
       <c r="F74" t="s" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G74" s="3"/>
       <c r="H74" t="s" s="3">
         <v>8</v>
       </c>
       <c r="I74" t="n" s="4">
+        <v>-14.99</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="C75" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="E75" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F75" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G75" s="3"/>
+      <c r="H75" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I75" t="n" s="4">
         <v>-20.0</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="I75" t="n" s="5">
-        <v>14.99</v>
-      </c>
-    </row>
     <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>69</v>
+      <c r="B76" t="s" s="3">
+        <v>70</v>
+      </c>
+      <c r="C76" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="D76" s="3"/>
+      <c r="E76" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F76" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G76" s="3"/>
+      <c r="H76" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="I76" t="n" s="4">
+        <v>20.0</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>70</v>
+      <c r="B77" t="s" s="3">
+        <v>48</v>
+      </c>
+      <c r="C77" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D77" s="3"/>
+      <c r="E77" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F77" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G77" s="3"/>
+      <c r="H77" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I77" t="n" s="4">
+        <v>-20.0</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" t="s" s="3">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="C78" t="s" s="3">
-        <v>53</v>
-      </c>
-      <c r="D78" t="n" s="3">
-        <v>1180.0</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="D78" s="3"/>
       <c r="E78" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F78" t="s" s="3">
-        <v>38</v>
-      </c>
-      <c r="G78" t="s" s="3">
-        <v>71</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G78" s="3"/>
       <c r="H78" t="s" s="3">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="I78" t="n" s="4">
-        <v>600.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="79">
       <c r="B79" t="s" s="3">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C79" t="s" s="3">
-        <v>53</v>
-      </c>
-      <c r="D79" t="n" s="3">
-        <v>1181.0</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D79" s="3"/>
       <c r="E79" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F79" t="s" s="3">
-        <v>56</v>
-      </c>
-      <c r="G79" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G79" s="3"/>
+      <c r="H79" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I79" t="n" s="4">
+        <v>-20.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" t="s" s="3">
+        <v>52</v>
+      </c>
+      <c r="C80" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D80" s="3"/>
+      <c r="E80" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F80" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G80" s="3"/>
+      <c r="H80" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I80" t="n" s="4">
+        <v>-20.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" t="s" s="3">
+        <v>52</v>
+      </c>
+      <c r="C81" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="D81" s="3"/>
+      <c r="E81" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F81" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G81" s="3"/>
+      <c r="H81" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="I81" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" t="s" s="3">
         <v>72</v>
       </c>
-      <c r="H79" t="s" s="3">
-        <v>39</v>
-      </c>
-      <c r="I79" t="n" s="4">
-        <v>1500.0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
+      <c r="C82" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="D82" s="3"/>
+      <c r="E82" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F82" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G82" s="3"/>
+      <c r="H82" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="I82" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" t="s" s="3">
+        <v>54</v>
+      </c>
+      <c r="C83" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D83" s="3"/>
+      <c r="E83" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F83" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G83" s="3"/>
+      <c r="H83" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I83" t="n" s="4">
+        <v>-20.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="I80" t="n" s="5">
-        <v>2100.0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I81" t="n" s="5">
-        <v>2100.0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="B84" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C84" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="D84" t="n" s="3">
-        <v>2001.0</v>
-      </c>
-      <c r="E84" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F84" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="G84" t="s" s="3">
-        <v>77</v>
-      </c>
-      <c r="H84" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I84" t="n" s="4">
-        <v>1148.0</v>
+      <c r="I84" t="n" s="5">
+        <v>0.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I85" t="n" s="5">
-        <v>1148.0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="87">
       <c r="B87" t="s" s="3">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C87" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="D87" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="D87" t="n" s="3">
+        <v>1180.0</v>
+      </c>
       <c r="E87" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F87" t="s" s="3">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G87" t="s" s="3">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H87" t="s" s="3">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="I87" t="n" s="4">
-        <v>71.45</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I88" t="n" s="5">
-        <v>71.45</v>
+      <c r="B88" t="s" s="3">
+        <v>60</v>
+      </c>
+      <c r="C88" t="s" s="3">
+        <v>58</v>
+      </c>
+      <c r="D88" t="n" s="3">
+        <v>1181.0</v>
+      </c>
+      <c r="E88" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F88" t="s" s="3">
+        <v>56</v>
+      </c>
+      <c r="G88" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="H88" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="I88" t="n" s="4">
+        <v>1500.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
+      </c>
+      <c r="I89" t="n" s="5">
+        <v>2100.0</v>
       </c>
     </row>
     <row r="90">
-      <c r="B90" t="s" s="3">
-        <v>44</v>
-      </c>
-      <c r="C90" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="D90" s="3"/>
-      <c r="E90" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F90" s="3"/>
-      <c r="G90" t="s" s="3">
-        <v>83</v>
-      </c>
-      <c r="H90" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I90" t="n" s="4">
-        <v>17.98</v>
+      <c r="A90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I90" t="n" s="5">
+        <v>2100.0</v>
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="3">
-        <v>46</v>
-      </c>
-      <c r="C91" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="D91" s="3"/>
-      <c r="E91" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F91" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="G91" t="s" s="3">
-        <v>84</v>
-      </c>
-      <c r="H91" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I91" t="n" s="4">
-        <v>98.94</v>
+      <c r="A91" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I92" t="n" s="5">
-        <v>116.92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="2">
-        <v>86</v>
+      <c r="B93" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="C93" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="D93" t="n" s="3">
+        <v>2001.0</v>
+      </c>
+      <c r="E93" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F93" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="G93" t="s" s="3">
+        <v>82</v>
+      </c>
+      <c r="H93" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I93" t="n" s="4">
+        <v>1148.0</v>
       </c>
     </row>
     <row r="94">
-      <c r="B94" t="s" s="3">
-        <v>27</v>
-      </c>
-      <c r="C94" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="D94" s="3"/>
-      <c r="E94" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F94" t="s" s="3">
-        <v>32</v>
-      </c>
-      <c r="G94" t="s" s="3">
-        <v>33</v>
-      </c>
-      <c r="H94" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I94" t="n" s="4">
-        <v>6.0</v>
+      <c r="A94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I94" t="n" s="5">
+        <v>1148.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="I95" t="n" s="5">
-        <v>6.0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="2">
-        <v>88</v>
+      <c r="B96" t="s" s="3">
+        <v>49</v>
+      </c>
+      <c r="C96" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D96" s="3"/>
+      <c r="E96" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F96" t="s" s="3">
+        <v>50</v>
+      </c>
+      <c r="G96" t="s" s="3">
+        <v>85</v>
+      </c>
+      <c r="H96" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I96" t="n" s="4">
+        <v>71.45</v>
       </c>
     </row>
     <row r="97">
       <c r="B97" t="s" s="3">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C97" t="s" s="3">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F97" t="s" s="3">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="G97" t="s" s="3">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H97" t="s" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I97" t="n" s="4">
-        <v>20.0</v>
+        <v>73.99</v>
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="3">
-        <v>60</v>
-      </c>
-      <c r="C98" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="D98" s="3"/>
-      <c r="E98" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F98" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="G98" t="s" s="3">
-        <v>90</v>
-      </c>
-      <c r="H98" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="I98" t="n" s="4">
-        <v>14.99</v>
+      <c r="A98" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I98" t="n" s="5">
+        <v>145.44</v>
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="C99" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="D99" t="n" s="3">
-        <v>6.36334269E8</v>
-      </c>
-      <c r="E99" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F99" t="s" s="3">
-        <v>12</v>
-      </c>
-      <c r="G99" s="3"/>
-      <c r="H99" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I99" t="n" s="4">
-        <v>10.29</v>
+      <c r="A99" t="s" s="2">
+        <v>88</v>
       </c>
     </row>
     <row r="100">
       <c r="B100" t="s" s="3">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C100" t="s" s="3">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" t="s" s="3">
         <v>11</v>
       </c>
-      <c r="F100" t="s" s="3">
-        <v>18</v>
-      </c>
+      <c r="F100" s="3"/>
       <c r="G100" t="s" s="3">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H100" t="s" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I100" t="n" s="4">
-        <v>20.0</v>
+        <v>17.98</v>
       </c>
     </row>
     <row r="101">
       <c r="B101" t="s" s="3">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C101" t="s" s="3">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F101" t="s" s="3">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="G101" t="s" s="3">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H101" t="s" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I101" t="n" s="4">
-        <v>20.0</v>
+        <v>98.94</v>
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C102" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="D102" s="3"/>
-      <c r="E102" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F102" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="G102" t="s" s="3">
-        <v>90</v>
-      </c>
-      <c r="H102" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="I102" t="n" s="4">
-        <v>14.99</v>
+      <c r="A102" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I102" t="n" s="5">
+        <v>116.92</v>
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="3">
-        <v>25</v>
-      </c>
-      <c r="C103" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="D103" s="3"/>
-      <c r="E103" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F103" t="s" s="3">
-        <v>12</v>
-      </c>
-      <c r="G103" t="s" s="3">
+      <c r="A103" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="H103" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I103" t="n" s="4">
-        <v>10.22</v>
       </c>
     </row>
     <row r="104">
       <c r="B104" t="s" s="3">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="C104" t="s" s="3">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F104" t="s" s="3">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G104" t="s" s="3">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="H104" t="s" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I104" t="n" s="4">
-        <v>20.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="105">
-      <c r="B105" t="s" s="3">
-        <v>26</v>
-      </c>
-      <c r="C105" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="D105" s="3"/>
-      <c r="E105" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F105" s="3"/>
-      <c r="G105" t="s" s="3">
+      <c r="A105" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H105" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I105" t="n" s="4">
-        <v>232.48</v>
+      <c r="I105" t="n" s="5">
+        <v>6.0</v>
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="s" s="3">
-        <v>64</v>
-      </c>
-      <c r="C106" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="D106" s="3"/>
-      <c r="E106" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F106" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="G106" t="s" s="3">
-        <v>90</v>
-      </c>
-      <c r="H106" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="I106" t="n" s="4">
-        <v>14.99</v>
+      <c r="A106" t="s" s="2">
+        <v>94</v>
       </c>
     </row>
     <row r="107">
@@ -2440,7 +2445,7 @@
         <v>64</v>
       </c>
       <c r="C107" t="s" s="3">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" t="s" s="3">
@@ -2450,7 +2455,7 @@
         <v>19</v>
       </c>
       <c r="G107" t="s" s="3">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H107" t="s" s="3">
         <v>16</v>
@@ -2461,68 +2466,68 @@
     </row>
     <row r="108">
       <c r="B108" t="s" s="3">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C108" t="s" s="3">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F108" t="s" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G108" t="s" s="3">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H108" t="s" s="3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I108" t="n" s="4">
-        <v>9.42</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="109">
       <c r="B109" t="s" s="3">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="D109" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="D109" t="n" s="3">
+        <v>6.36334269E8</v>
+      </c>
       <c r="E109" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F109" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="G109" t="s" s="3">
-        <v>91</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G109" s="3"/>
       <c r="H109" t="s" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I109" t="n" s="4">
-        <v>20.0</v>
+        <v>10.29</v>
       </c>
     </row>
     <row r="110">
       <c r="B110" t="s" s="3">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="C110" t="s" s="3">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D110" s="3"/>
       <c r="E110" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F110" t="s" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G110" t="s" s="3">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H110" t="s" s="3">
         <v>16</v>
@@ -2533,10 +2538,10 @@
     </row>
     <row r="111">
       <c r="B111" t="s" s="3">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C111" t="s" s="3">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D111" s="3"/>
       <c r="E111" t="s" s="3">
@@ -2546,7 +2551,7 @@
         <v>15</v>
       </c>
       <c r="G111" t="s" s="3">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="H111" t="s" s="3">
         <v>16</v>
@@ -2557,140 +2562,138 @@
     </row>
     <row r="112">
       <c r="B112" t="s" s="3">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C112" t="s" s="3">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="D112" s="3"/>
       <c r="E112" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F112" t="s" s="3">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G112" t="s" s="3">
         <v>95</v>
       </c>
       <c r="H112" t="s" s="3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I112" t="n" s="4">
-        <v>10.25</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="113">
       <c r="B113" t="s" s="3">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C113" t="s" s="3">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="D113" s="3"/>
       <c r="E113" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F113" t="s" s="3">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G113" t="s" s="3">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="H113" t="s" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I113" t="n" s="4">
-        <v>20.0</v>
+        <v>10.22</v>
       </c>
     </row>
     <row r="114">
       <c r="B114" t="s" s="3">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C114" t="s" s="3">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F114" t="s" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G114" t="s" s="3">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H114" t="s" s="3">
         <v>16</v>
       </c>
       <c r="I114" t="n" s="4">
-        <v>14.99</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="115">
       <c r="B115" t="s" s="3">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="C115" t="s" s="3">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="D115" s="3"/>
       <c r="E115" t="s" s="3">
         <v>11</v>
       </c>
-      <c r="F115" t="s" s="3">
-        <v>19</v>
-      </c>
+      <c r="F115" s="3"/>
       <c r="G115" t="s" s="3">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="H115" t="s" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I115" t="n" s="4">
-        <v>20.0</v>
+        <v>232.48</v>
       </c>
     </row>
     <row r="116">
       <c r="B116" t="s" s="3">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C116" t="s" s="3">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="D116" s="3"/>
       <c r="E116" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F116" t="s" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G116" t="s" s="3">
         <v>96</v>
       </c>
       <c r="H116" t="s" s="3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I116" t="n" s="4">
-        <v>9.98</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="117">
       <c r="B117" t="s" s="3">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C117" t="s" s="3">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D117" s="3"/>
       <c r="E117" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F117" t="s" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G117" t="s" s="3">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H117" t="s" s="3">
         <v>16</v>
@@ -2700,37 +2703,325 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="2">
+      <c r="B118" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="C118" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D118" s="3"/>
+      <c r="E118" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F118" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="G118" t="s" s="3">
+        <v>100</v>
+      </c>
+      <c r="H118" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I118" t="n" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="B119" t="s" s="3">
+        <v>69</v>
+      </c>
+      <c r="C119" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="D119" s="3"/>
+      <c r="E119" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F119" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G119" t="s" s="3">
         <v>97</v>
       </c>
-      <c r="I118" t="n" s="5">
-        <v>557.59</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="I119" t="n" s="5">
-        <v>1899.96</v>
+      <c r="H119" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I119" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="B120" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="C120" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="D120" s="3"/>
+      <c r="E120" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F120" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="G120" t="s" s="3">
+        <v>96</v>
+      </c>
+      <c r="H120" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I120" t="n" s="4">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="B121" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="C121" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="D121" s="3"/>
+      <c r="E121" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F121" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G121" t="s" s="3">
+        <v>95</v>
+      </c>
+      <c r="H121" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I121" t="n" s="4">
+        <v>20.0</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B122"/>
-      <c r="C122"/>
-      <c r="D122"/>
-      <c r="E122"/>
-      <c r="F122"/>
-      <c r="G122"/>
-      <c r="H122"/>
-      <c r="I122"/>
+      <c r="B122" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="C122" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D122" s="3"/>
+      <c r="E122" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F122" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="G122" t="s" s="3">
+        <v>101</v>
+      </c>
+      <c r="H122" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I122" t="n" s="4">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="B123" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="C123" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="D123" s="3"/>
+      <c r="E123" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F123" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G123" t="s" s="3">
+        <v>97</v>
+      </c>
+      <c r="H123" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I123" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="B124" t="s" s="3">
+        <v>70</v>
+      </c>
+      <c r="C124" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="D124" s="3"/>
+      <c r="E124" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F124" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G124" t="s" s="3">
+        <v>95</v>
+      </c>
+      <c r="H124" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I124" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="B125" t="s" s="3">
+        <v>48</v>
+      </c>
+      <c r="C125" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D125" s="3"/>
+      <c r="E125" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F125" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="G125" t="s" s="3">
+        <v>102</v>
+      </c>
+      <c r="H125" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I125" t="n" s="4">
+        <v>9.98</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="B126" t="s" s="3">
+        <v>71</v>
+      </c>
+      <c r="C126" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="D126" s="3"/>
+      <c r="E126" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F126" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G126" t="s" s="3">
+        <v>97</v>
+      </c>
+      <c r="H126" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I126" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="B127" t="s" s="3">
+        <v>52</v>
+      </c>
+      <c r="C127" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="D127" s="3"/>
+      <c r="E127" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F127" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G127" t="s" s="3">
+        <v>95</v>
+      </c>
+      <c r="H127" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I127" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="B128" t="s" s="3">
+        <v>53</v>
+      </c>
+      <c r="C128" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D128" s="3"/>
+      <c r="E128" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F128" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="G128" t="s" s="3">
+        <v>103</v>
+      </c>
+      <c r="H128" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I128" t="n" s="4">
+        <v>10.22</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="B129" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="C129" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="D129" s="3"/>
+      <c r="E129" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F129" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G129" t="s" s="3">
+        <v>97</v>
+      </c>
+      <c r="H129" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I129" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="I130" t="n" s="5">
+        <v>592.82</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="I131" t="n" s="5">
+        <v>2009.18</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B134"/>
+      <c r="C134"/>
+      <c r="D134"/>
+      <c r="E134"/>
+      <c r="F134"/>
+      <c r="G134"/>
+      <c r="H134"/>
+      <c r="I134"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A122:I122"/>
+    <mergeCell ref="A134:I134"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>

--- a/2021-sgfdevs-transaction-detail-by-account.xlsx
+++ b/2021-sgfdevs-transaction-detail-by-account.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="120">
   <si>
     <t>Date</t>
   </si>
@@ -185,6 +185,18 @@
     <t>Jack Henry &amp; Associates</t>
   </si>
   <si>
+    <t>07/01/2021</t>
+  </si>
+  <si>
+    <t>07/06/2021</t>
+  </si>
+  <si>
+    <t>07/09/2021</t>
+  </si>
+  <si>
+    <t>07/12/2021</t>
+  </si>
+  <si>
     <t>Total for Devs Checking (7527)</t>
   </si>
   <si>
@@ -197,6 +209,12 @@
     <t>04/23/2021</t>
   </si>
   <si>
+    <t>07/27/2021</t>
+  </si>
+  <si>
+    <t>World Wide Technology</t>
+  </si>
+  <si>
     <t>Total for Accounts Receivable (A/R)</t>
   </si>
   <si>
@@ -233,6 +251,9 @@
     <t>06/05/2021</t>
   </si>
   <si>
+    <t>07/05/2021</t>
+  </si>
+  <si>
     <t>Total for Accounts Payable (A/P)</t>
   </si>
   <si>
@@ -275,6 +296,9 @@
     <t>DBT CRD 1454 DBIQT36L PIZZA HUT 004082 4178638722 MO C#4443</t>
   </si>
   <si>
+    <t>DBT CRD 1113 DBBXKMPK PIZZA HUT 004082 4178638722 MO C#4443</t>
+  </si>
+  <si>
     <t xml:space="preserve">   Total for Devs Member Meals</t>
   </si>
   <si>
@@ -287,6 +311,9 @@
     <t>DBT CRD 0609 DBJ5MLTB MEETUP ORG SUB 6M 6468384815 NY C#4443</t>
   </si>
   <si>
+    <t>DBT CRD 1137 DBV8SOB7 NAME.COM, INC 7202492374 CO C#4443</t>
+  </si>
+  <si>
     <t xml:space="preserve">   Total for Devs Office Supplies</t>
   </si>
   <si>
@@ -326,13 +353,16 @@
     <t>DBT CRD 0835 DBVW5ODF AMAZON WEB SERVICES AWS.AMAZON.CO WA C#4443</t>
   </si>
   <si>
+    <t>DBT CRD 0416 DBXE0VQF AMAZON WEB SERVICES AWS.AMAZON.CO WA C#4443</t>
+  </si>
+  <si>
     <t xml:space="preserve">   Total for Devs Software &amp; Hosting</t>
   </si>
   <si>
     <t>Total for Devs</t>
   </si>
   <si>
-    <t>Thursday, Jul 29, 2021 07:19:18 AM GMT-7 - Accrual Basis</t>
+    <t>Sunday, Aug 08, 2021 10:23:18 AM GMT-7 - Accrual Basis</t>
   </si>
   <si>
     <t>Springfield Devs</t>
@@ -341,7 +371,7 @@
     <t>Transaction Detail by  Account</t>
   </si>
   <si>
-    <t>January - June, 2021</t>
+    <t>January - July, 2021</t>
   </si>
 </sst>
 </file>
@@ -448,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I134"/>
+  <dimension ref="A1:I150"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -467,7 +497,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -480,7 +510,7 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -493,7 +523,7 @@
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -832,21 +862,21 @@
         <v>36</v>
       </c>
       <c r="C20" t="s" s="3">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F20" t="s" s="3">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" t="s" s="3">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I20" t="n" s="4">
-        <v>-20.0</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="21">
@@ -854,21 +884,21 @@
         <v>36</v>
       </c>
       <c r="C21" t="s" s="3">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F21" t="s" s="3">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" t="s" s="3">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I21" t="n" s="4">
-        <v>600.0</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="22">
@@ -1244,162 +1274,187 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="2">
+      <c r="B39" t="s" s="3">
         <v>57</v>
       </c>
-      <c r="I39" t="n" s="5">
-        <v>690.82</v>
+      <c r="C39" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F39" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I39" t="n" s="4">
+        <v>-20.0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>39</v>
+      <c r="B40" t="s" s="3">
+        <v>58</v>
+      </c>
+      <c r="C40" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I40" t="n" s="4">
+        <v>-20.0</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="s" s="3">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="C41" t="s" s="3">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F41" t="s" s="3">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" t="s" s="3">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="I41" t="n" s="4">
-        <v>-600.0</v>
+        <v>-9.96</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="s" s="3">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s" s="3">
-        <v>58</v>
-      </c>
-      <c r="D42" t="n" s="3">
-        <v>1180.0</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D42" s="3"/>
       <c r="E42" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F42" t="s" s="3">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" t="s" s="3">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I42" t="n" s="4">
-        <v>600.0</v>
+        <v>-122.78</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="s" s="3">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C43" t="s" s="3">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" t="s" s="3">
         <v>11</v>
       </c>
-      <c r="F43" t="s" s="3">
-        <v>38</v>
-      </c>
+      <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" t="s" s="3">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="I43" t="n" s="4">
+        <v>-39.96</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I44" t="n" s="5">
+        <v>478.12</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="C46" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F46" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="I46" t="n" s="4">
         <v>-600.0</v>
       </c>
     </row>
-    <row r="44">
-      <c r="B44" t="s" s="3">
-        <v>60</v>
-      </c>
-      <c r="C44" t="s" s="3">
-        <v>58</v>
-      </c>
-      <c r="D44" t="n" s="3">
-        <v>1181.0</v>
-      </c>
-      <c r="E44" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F44" t="s" s="3">
-        <v>56</v>
-      </c>
-      <c r="G44" s="3"/>
-      <c r="H44" t="s" s="3">
-        <v>59</v>
-      </c>
-      <c r="I44" t="n" s="4">
-        <v>1500.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" t="s" s="3">
-        <v>55</v>
-      </c>
-      <c r="C45" t="s" s="3">
-        <v>37</v>
-      </c>
-      <c r="D45" s="3"/>
-      <c r="E45" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F45" t="s" s="3">
-        <v>56</v>
-      </c>
-      <c r="G45" s="3"/>
-      <c r="H45" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I45" t="n" s="4">
-        <v>-1500.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="I46" t="n" s="5">
-        <v>-600.0</v>
-      </c>
-    </row>
     <row r="47">
-      <c r="A47" t="s" s="2">
-        <v>34</v>
+      <c r="B47" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="C47" t="s" s="3">
+        <v>62</v>
+      </c>
+      <c r="D47" t="n" s="3">
+        <v>1180.0</v>
+      </c>
+      <c r="E47" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F47" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="I47" t="n" s="4">
+        <v>600.0</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" t="s" s="3">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C48" t="s" s="3">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F48" t="s" s="3">
-        <v>32</v>
-      </c>
-      <c r="G48" t="s" s="3">
-        <v>62</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G48" s="3"/>
       <c r="H48" t="s" s="3">
         <v>8</v>
       </c>
@@ -1409,179 +1464,154 @@
     </row>
     <row r="49">
       <c r="B49" t="s" s="3">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="C49" t="s" s="3">
+        <v>62</v>
+      </c>
+      <c r="D49" t="n" s="3">
+        <v>1181.0</v>
+      </c>
+      <c r="E49" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F49" t="s" s="3">
+        <v>56</v>
+      </c>
+      <c r="G49" s="3"/>
+      <c r="H49" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="I49" t="n" s="4">
+        <v>1500.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="s" s="3">
+        <v>55</v>
+      </c>
+      <c r="C50" t="s" s="3">
         <v>37</v>
       </c>
-      <c r="D49" s="3"/>
-      <c r="E49" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F49" t="s" s="3">
-        <v>32</v>
-      </c>
-      <c r="G49" t="s" s="3">
+      <c r="D50" s="3"/>
+      <c r="E50" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F50" t="s" s="3">
+        <v>56</v>
+      </c>
+      <c r="G50" s="3"/>
+      <c r="H50" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I50" t="n" s="4">
+        <v>-1500.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="C51" t="s" s="3">
         <v>62</v>
       </c>
-      <c r="H49" t="s" s="3">
-        <v>39</v>
-      </c>
-      <c r="I49" t="n" s="4">
-        <v>600.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="2">
+      <c r="D51" t="n" s="3">
+        <v>1182.0</v>
+      </c>
+      <c r="E51" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F51" t="s" s="3">
+        <v>66</v>
+      </c>
+      <c r="G51" s="3"/>
+      <c r="H51" t="s" s="3">
         <v>63</v>
       </c>
-      <c r="I50" t="n" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>16</v>
+      <c r="I51" t="n" s="4">
+        <v>1500.0</v>
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="3">
-        <v>64</v>
-      </c>
-      <c r="C52" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="D52" s="3"/>
-      <c r="E52" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F52" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="G52" s="3"/>
-      <c r="H52" t="s" s="3">
-        <v>13</v>
-      </c>
-      <c r="I52" t="n" s="4">
-        <v>20.0</v>
+      <c r="A52" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I52" t="n" s="5">
+        <v>900.0</v>
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="s" s="3">
-        <v>64</v>
-      </c>
-      <c r="C53" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="D53" s="3"/>
-      <c r="E53" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F53" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="G53" s="3"/>
-      <c r="H53" t="s" s="3">
-        <v>13</v>
-      </c>
-      <c r="I53" t="n" s="4">
-        <v>14.99</v>
+      <c r="A53" t="s" s="2">
+        <v>34</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="s" s="3">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C54" t="s" s="3">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F54" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="G54" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="G54" t="s" s="3">
+        <v>68</v>
+      </c>
       <c r="H54" t="s" s="3">
         <v>8</v>
       </c>
       <c r="I54" t="n" s="4">
-        <v>-14.99</v>
+        <v>-600.0</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" t="s" s="3">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="C55" t="s" s="3">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F55" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="G55" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="G55" t="s" s="3">
+        <v>68</v>
+      </c>
       <c r="H55" t="s" s="3">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="I55" t="n" s="4">
-        <v>20.0</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="C56" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D56" s="3"/>
-      <c r="E56" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F56" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="G56" s="3"/>
-      <c r="H56" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I56" t="n" s="4">
-        <v>-20.0</v>
+      <c r="A56" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I56" t="n" s="5">
+        <v>0.0</v>
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="C57" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D57" s="3"/>
-      <c r="E57" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F57" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="G57" s="3"/>
-      <c r="H57" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I57" t="n" s="4">
-        <v>-20.0</v>
+      <c r="A57" t="s" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="58">
       <c r="B58" t="s" s="3">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C58" t="s" s="3">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" t="s" s="3">
@@ -1600,10 +1630,10 @@
     </row>
     <row r="59">
       <c r="B59" t="s" s="3">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C59" t="s" s="3">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" t="s" s="3">
@@ -1622,7 +1652,7 @@
     </row>
     <row r="60">
       <c r="B60" t="s" s="3">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s" s="3">
         <v>14</v>
@@ -1632,63 +1662,63 @@
         <v>11</v>
       </c>
       <c r="F60" t="s" s="3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" t="s" s="3">
         <v>8</v>
       </c>
       <c r="I60" t="n" s="4">
-        <v>-20.0</v>
+        <v>-14.99</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" t="s" s="3">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="C61" t="s" s="3">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F61" t="s" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" t="s" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I61" t="n" s="4">
-        <v>-14.99</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" t="s" s="3">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="C62" t="s" s="3">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F62" t="s" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" t="s" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I62" t="n" s="4">
-        <v>20.0</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" t="s" s="3">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C63" t="s" s="3">
         <v>14</v>
@@ -1710,10 +1740,10 @@
     </row>
     <row r="64">
       <c r="B64" t="s" s="3">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="C64" t="s" s="3">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" t="s" s="3">
@@ -1724,18 +1754,18 @@
       </c>
       <c r="G64" s="3"/>
       <c r="H64" t="s" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I64" t="n" s="4">
-        <v>20.0</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="65">
       <c r="B65" t="s" s="3">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="C65" t="s" s="3">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" t="s" s="3">
@@ -1754,29 +1784,29 @@
     </row>
     <row r="66">
       <c r="B66" t="s" s="3">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C66" t="s" s="3">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F66" t="s" s="3">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" t="s" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I66" t="n" s="4">
-        <v>-14.99</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" t="s" s="3">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C67" t="s" s="3">
         <v>14</v>
@@ -1786,22 +1816,22 @@
         <v>11</v>
       </c>
       <c r="F67" t="s" s="3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" t="s" s="3">
         <v>8</v>
       </c>
       <c r="I67" t="n" s="4">
-        <v>-20.0</v>
+        <v>-14.99</v>
       </c>
     </row>
     <row r="68">
       <c r="B68" t="s" s="3">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C68" t="s" s="3">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" t="s" s="3">
@@ -1820,7 +1850,7 @@
     </row>
     <row r="69">
       <c r="B69" t="s" s="3">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C69" t="s" s="3">
         <v>14</v>
@@ -1842,117 +1872,117 @@
     </row>
     <row r="70">
       <c r="B70" t="s" s="3">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="C70" t="s" s="3">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F70" t="s" s="3">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" t="s" s="3">
         <v>13</v>
       </c>
       <c r="I70" t="n" s="4">
-        <v>14.99</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="71">
       <c r="B71" t="s" s="3">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="C71" t="s" s="3">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F71" t="s" s="3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G71" s="3"/>
       <c r="H71" t="s" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I71" t="n" s="4">
-        <v>-20.0</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="72">
       <c r="B72" t="s" s="3">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C72" t="s" s="3">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F72" t="s" s="3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G72" s="3"/>
       <c r="H72" t="s" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I72" t="n" s="4">
-        <v>20.0</v>
+        <v>-14.99</v>
       </c>
     </row>
     <row r="73">
       <c r="B73" t="s" s="3">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C73" t="s" s="3">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F73" t="s" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" t="s" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I73" t="n" s="4">
-        <v>20.0</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="74">
       <c r="B74" t="s" s="3">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="C74" t="s" s="3">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F74" t="s" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G74" s="3"/>
       <c r="H74" t="s" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I74" t="n" s="4">
-        <v>-14.99</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" t="s" s="3">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C75" t="s" s="3">
         <v>14</v>
@@ -1974,10 +2004,10 @@
     </row>
     <row r="76">
       <c r="B76" t="s" s="3">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="C76" t="s" s="3">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" t="s" s="3">
@@ -1988,18 +2018,18 @@
       </c>
       <c r="G76" s="3"/>
       <c r="H76" t="s" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I76" t="n" s="4">
-        <v>20.0</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="77">
       <c r="B77" t="s" s="3">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C77" t="s" s="3">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" t="s" s="3">
@@ -2010,37 +2040,37 @@
       </c>
       <c r="G77" s="3"/>
       <c r="H77" t="s" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I77" t="n" s="4">
-        <v>-20.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" t="s" s="3">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="C78" t="s" s="3">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F78" t="s" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" t="s" s="3">
         <v>13</v>
       </c>
       <c r="I78" t="n" s="4">
-        <v>20.0</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="79">
       <c r="B79" t="s" s="3">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C79" t="s" s="3">
         <v>14</v>
@@ -2050,73 +2080,73 @@
         <v>11</v>
       </c>
       <c r="F79" t="s" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" t="s" s="3">
         <v>8</v>
       </c>
       <c r="I79" t="n" s="4">
-        <v>-20.0</v>
+        <v>-14.99</v>
       </c>
     </row>
     <row r="80">
       <c r="B80" t="s" s="3">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C80" t="s" s="3">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F80" t="s" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" t="s" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I80" t="n" s="4">
-        <v>-20.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="81">
       <c r="B81" t="s" s="3">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C81" t="s" s="3">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F81" t="s" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G81" s="3"/>
       <c r="H81" t="s" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I81" t="n" s="4">
-        <v>20.0</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="82">
       <c r="B82" t="s" s="3">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C82" t="s" s="3">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F82" t="s" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G82" s="3"/>
       <c r="H82" t="s" s="3">
@@ -2128,7 +2158,7 @@
     </row>
     <row r="83">
       <c r="B83" t="s" s="3">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C83" t="s" s="3">
         <v>14</v>
@@ -2138,7 +2168,7 @@
         <v>11</v>
       </c>
       <c r="F83" t="s" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G83" s="3"/>
       <c r="H83" t="s" s="3">
@@ -2149,444 +2179,496 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I84" t="n" s="5">
-        <v>0.0</v>
+      <c r="B84" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="C84" t="s" s="3">
+        <v>71</v>
+      </c>
+      <c r="D84" s="3"/>
+      <c r="E84" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F84" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G84" s="3"/>
+      <c r="H84" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="I84" t="n" s="4">
+        <v>20.0</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>74</v>
+      <c r="B85" t="s" s="3">
+        <v>49</v>
+      </c>
+      <c r="C85" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D85" s="3"/>
+      <c r="E85" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F85" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G85" s="3"/>
+      <c r="H85" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I85" t="n" s="4">
+        <v>-20.0</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="2">
-        <v>75</v>
+      <c r="B86" t="s" s="3">
+        <v>52</v>
+      </c>
+      <c r="C86" t="s" s="3">
+        <v>71</v>
+      </c>
+      <c r="D86" s="3"/>
+      <c r="E86" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F86" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G86" s="3"/>
+      <c r="H86" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="I86" t="n" s="4">
+        <v>20.0</v>
       </c>
     </row>
     <row r="87">
       <c r="B87" t="s" s="3">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C87" t="s" s="3">
-        <v>58</v>
-      </c>
-      <c r="D87" t="n" s="3">
-        <v>1180.0</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D87" s="3"/>
       <c r="E87" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F87" t="s" s="3">
-        <v>38</v>
-      </c>
-      <c r="G87" t="s" s="3">
-        <v>76</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G87" s="3"/>
       <c r="H87" t="s" s="3">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="I87" t="n" s="4">
-        <v>600.0</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="88">
       <c r="B88" t="s" s="3">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C88" t="s" s="3">
-        <v>58</v>
-      </c>
-      <c r="D88" t="n" s="3">
-        <v>1181.0</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D88" s="3"/>
       <c r="E88" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F88" t="s" s="3">
-        <v>56</v>
-      </c>
-      <c r="G88" t="s" s="3">
-        <v>77</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G88" s="3"/>
       <c r="H88" t="s" s="3">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="I88" t="n" s="4">
-        <v>1500.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I89" t="n" s="5">
-        <v>2100.0</v>
+      <c r="B89" t="s" s="3">
+        <v>54</v>
+      </c>
+      <c r="C89" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D89" s="3"/>
+      <c r="E89" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F89" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G89" s="3"/>
+      <c r="H89" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I89" t="n" s="4">
+        <v>-20.0</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="2">
+      <c r="B90" t="s" s="3">
+        <v>57</v>
+      </c>
+      <c r="C90" t="s" s="3">
+        <v>71</v>
+      </c>
+      <c r="D90" s="3"/>
+      <c r="E90" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F90" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G90" s="3"/>
+      <c r="H90" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="I90" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" t="s" s="3">
+        <v>57</v>
+      </c>
+      <c r="C91" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D91" s="3"/>
+      <c r="E91" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F91" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G91" s="3"/>
+      <c r="H91" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I91" t="n" s="4">
+        <v>-20.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" t="s" s="3">
         <v>79</v>
       </c>
-      <c r="I90" t="n" s="5">
-        <v>2100.0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="2">
-        <v>81</v>
+      <c r="C92" t="s" s="3">
+        <v>71</v>
+      </c>
+      <c r="D92" s="3"/>
+      <c r="E92" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F92" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G92" s="3"/>
+      <c r="H92" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="I92" t="n" s="4">
+        <v>20.0</v>
       </c>
     </row>
     <row r="93">
       <c r="B93" t="s" s="3">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="C93" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="D93" t="n" s="3">
-        <v>2001.0</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D93" s="3"/>
       <c r="E93" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F93" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="G93" t="s" s="3">
-        <v>82</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G93" s="3"/>
       <c r="H93" t="s" s="3">
         <v>8</v>
       </c>
       <c r="I93" t="n" s="4">
-        <v>1148.0</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I94" t="n" s="5">
-        <v>1148.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="3">
-        <v>49</v>
-      </c>
-      <c r="C96" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="D96" s="3"/>
-      <c r="E96" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F96" t="s" s="3">
-        <v>50</v>
-      </c>
-      <c r="G96" t="s" s="3">
-        <v>85</v>
-      </c>
-      <c r="H96" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I96" t="n" s="4">
-        <v>71.45</v>
+      <c r="A96" t="s" s="2">
+        <v>82</v>
       </c>
     </row>
     <row r="97">
       <c r="B97" t="s" s="3">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C97" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="D97" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="D97" t="n" s="3">
+        <v>1180.0</v>
+      </c>
       <c r="E97" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F97" t="s" s="3">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G97" t="s" s="3">
+        <v>83</v>
+      </c>
+      <c r="H97" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="I97" t="n" s="4">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" t="s" s="3">
+        <v>64</v>
+      </c>
+      <c r="C98" t="s" s="3">
+        <v>62</v>
+      </c>
+      <c r="D98" t="n" s="3">
+        <v>1181.0</v>
+      </c>
+      <c r="E98" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F98" t="s" s="3">
+        <v>56</v>
+      </c>
+      <c r="G98" t="s" s="3">
+        <v>84</v>
+      </c>
+      <c r="H98" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="I98" t="n" s="4">
+        <v>1500.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="C99" t="s" s="3">
+        <v>62</v>
+      </c>
+      <c r="D99" t="n" s="3">
+        <v>1182.0</v>
+      </c>
+      <c r="E99" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F99" t="s" s="3">
+        <v>66</v>
+      </c>
+      <c r="G99" t="s" s="3">
+        <v>84</v>
+      </c>
+      <c r="H99" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="I99" t="n" s="4">
+        <v>1500.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I100" t="n" s="5">
+        <v>3600.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="H97" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I97" t="n" s="4">
-        <v>73.99</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="I98" t="n" s="5">
-        <v>145.44</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s" s="2">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="B100" t="s" s="3">
-        <v>44</v>
-      </c>
-      <c r="C100" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="D100" s="3"/>
-      <c r="E100" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F100" s="3"/>
-      <c r="G100" t="s" s="3">
-        <v>89</v>
-      </c>
-      <c r="H100" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I100" t="n" s="4">
-        <v>17.98</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="B101" t="s" s="3">
-        <v>46</v>
-      </c>
-      <c r="C101" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="D101" s="3"/>
-      <c r="E101" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F101" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="G101" t="s" s="3">
-        <v>90</v>
-      </c>
-      <c r="H101" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I101" t="n" s="4">
-        <v>98.94</v>
+      <c r="I101" t="n" s="5">
+        <v>3600.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I102" t="n" s="5">
-        <v>116.92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="104">
       <c r="B104" t="s" s="3">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C104" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="D104" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="D104" t="n" s="3">
+        <v>2001.0</v>
+      </c>
       <c r="E104" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F104" t="s" s="3">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G104" t="s" s="3">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="H104" t="s" s="3">
         <v>8</v>
       </c>
       <c r="I104" t="n" s="4">
-        <v>6.0</v>
+        <v>1148.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I105" t="n" s="5">
-        <v>6.0</v>
+        <v>1148.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="107">
       <c r="B107" t="s" s="3">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C107" t="s" s="3">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F107" t="s" s="3">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="G107" t="s" s="3">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H107" t="s" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I107" t="n" s="4">
-        <v>20.0</v>
+        <v>71.45</v>
       </c>
     </row>
     <row r="108">
       <c r="B108" t="s" s="3">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C108" t="s" s="3">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F108" t="s" s="3">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G108" t="s" s="3">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H108" t="s" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I108" t="n" s="4">
-        <v>14.99</v>
+        <v>73.99</v>
       </c>
     </row>
     <row r="109">
       <c r="B109" t="s" s="3">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="C109" t="s" s="3">
         <v>10</v>
       </c>
-      <c r="D109" t="n" s="3">
-        <v>6.36334269E8</v>
-      </c>
+      <c r="D109" s="3"/>
       <c r="E109" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F109" t="s" s="3">
-        <v>12</v>
-      </c>
-      <c r="G109" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="G109" t="s" s="3">
+        <v>94</v>
+      </c>
       <c r="H109" t="s" s="3">
         <v>8</v>
       </c>
       <c r="I109" t="n" s="4">
-        <v>10.29</v>
+        <v>122.78</v>
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="3">
-        <v>66</v>
-      </c>
-      <c r="C110" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="D110" s="3"/>
-      <c r="E110" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F110" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="G110" t="s" s="3">
-        <v>97</v>
-      </c>
-      <c r="H110" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="I110" t="n" s="4">
-        <v>20.0</v>
+      <c r="A110" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="I110" t="n" s="5">
+        <v>268.22</v>
       </c>
     </row>
     <row r="111">
-      <c r="B111" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C111" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="D111" s="3"/>
-      <c r="E111" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F111" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="G111" t="s" s="3">
+      <c r="A111" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="H111" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="I111" t="n" s="4">
-        <v>14.99</v>
       </c>
     </row>
     <row r="112">
       <c r="B112" t="s" s="3">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C112" t="s" s="3">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="D112" s="3"/>
       <c r="E112" t="s" s="3">
         <v>11</v>
       </c>
-      <c r="F112" t="s" s="3">
-        <v>19</v>
-      </c>
+      <c r="F112" s="3"/>
       <c r="G112" t="s" s="3">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H112" t="s" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I112" t="n" s="4">
-        <v>20.0</v>
+        <v>17.98</v>
       </c>
     </row>
     <row r="113">
       <c r="B113" t="s" s="3">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C113" t="s" s="3">
         <v>10</v>
@@ -2596,7 +2678,7 @@
         <v>11</v>
       </c>
       <c r="F113" t="s" s="3">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="G113" t="s" s="3">
         <v>98</v>
@@ -2605,229 +2687,159 @@
         <v>8</v>
       </c>
       <c r="I113" t="n" s="4">
-        <v>10.22</v>
+        <v>98.94</v>
       </c>
     </row>
     <row r="114">
       <c r="B114" t="s" s="3">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C114" t="s" s="3">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" t="s" s="3">
         <v>11</v>
       </c>
-      <c r="F114" t="s" s="3">
-        <v>18</v>
-      </c>
+      <c r="F114" s="3"/>
       <c r="G114" t="s" s="3">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H114" t="s" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I114" t="n" s="4">
-        <v>20.0</v>
+        <v>39.96</v>
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="3">
-        <v>26</v>
-      </c>
-      <c r="C115" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="D115" s="3"/>
-      <c r="E115" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F115" s="3"/>
-      <c r="G115" t="s" s="3">
-        <v>99</v>
-      </c>
-      <c r="H115" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I115" t="n" s="4">
-        <v>232.48</v>
+      <c r="A115" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="I115" t="n" s="5">
+        <v>156.88</v>
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="3">
-        <v>68</v>
-      </c>
-      <c r="C116" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="D116" s="3"/>
-      <c r="E116" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F116" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="G116" t="s" s="3">
-        <v>96</v>
-      </c>
-      <c r="H116" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="I116" t="n" s="4">
-        <v>14.99</v>
+      <c r="A116" t="s" s="2">
+        <v>101</v>
       </c>
     </row>
     <row r="117">
       <c r="B117" t="s" s="3">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="C117" t="s" s="3">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="D117" s="3"/>
       <c r="E117" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F117" t="s" s="3">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G117" t="s" s="3">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="H117" t="s" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I117" t="n" s="4">
-        <v>20.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="3">
-        <v>36</v>
-      </c>
-      <c r="C118" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="D118" s="3"/>
-      <c r="E118" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F118" t="s" s="3">
-        <v>12</v>
-      </c>
-      <c r="G118" t="s" s="3">
-        <v>100</v>
-      </c>
-      <c r="H118" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I118" t="n" s="4">
-        <v>9.42</v>
+      <c r="A118" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="I118" t="n" s="5">
+        <v>6.0</v>
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="3">
-        <v>69</v>
-      </c>
-      <c r="C119" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="D119" s="3"/>
-      <c r="E119" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F119" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="G119" t="s" s="3">
-        <v>97</v>
-      </c>
-      <c r="H119" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="I119" t="n" s="4">
-        <v>20.0</v>
+      <c r="A119" t="s" s="2">
+        <v>103</v>
       </c>
     </row>
     <row r="120">
       <c r="B120" t="s" s="3">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="C120" t="s" s="3">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F120" t="s" s="3">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G120" t="s" s="3">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="H120" t="s" s="3">
         <v>16</v>
       </c>
       <c r="I120" t="n" s="4">
-        <v>14.99</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="121">
       <c r="B121" t="s" s="3">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="C121" t="s" s="3">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F121" t="s" s="3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G121" t="s" s="3">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="H121" t="s" s="3">
         <v>16</v>
       </c>
       <c r="I121" t="n" s="4">
-        <v>20.0</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="122">
       <c r="B122" t="s" s="3">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s" s="3">
         <v>10</v>
       </c>
-      <c r="D122" s="3"/>
+      <c r="D122" t="n" s="3">
+        <v>6.36334269E8</v>
+      </c>
       <c r="E122" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F122" t="s" s="3">
         <v>12</v>
       </c>
-      <c r="G122" t="s" s="3">
-        <v>101</v>
-      </c>
+      <c r="G122" s="3"/>
       <c r="H122" t="s" s="3">
         <v>8</v>
       </c>
       <c r="I122" t="n" s="4">
-        <v>10.25</v>
+        <v>10.29</v>
       </c>
     </row>
     <row r="123">
       <c r="B123" t="s" s="3">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C123" t="s" s="3">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D123" s="3"/>
       <c r="E123" t="s" s="3">
@@ -2837,7 +2849,7 @@
         <v>18</v>
       </c>
       <c r="G123" t="s" s="3">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="H123" t="s" s="3">
         <v>16</v>
@@ -2848,92 +2860,92 @@
     </row>
     <row r="124">
       <c r="B124" t="s" s="3">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C124" t="s" s="3">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D124" s="3"/>
       <c r="E124" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F124" t="s" s="3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G124" t="s" s="3">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="H124" t="s" s="3">
         <v>16</v>
       </c>
       <c r="I124" t="n" s="4">
-        <v>20.0</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="125">
       <c r="B125" t="s" s="3">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C125" t="s" s="3">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D125" s="3"/>
       <c r="E125" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F125" t="s" s="3">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G125" t="s" s="3">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H125" t="s" s="3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I125" t="n" s="4">
-        <v>9.98</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="126">
       <c r="B126" t="s" s="3">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="C126" t="s" s="3">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F126" t="s" s="3">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G126" t="s" s="3">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="H126" t="s" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I126" t="n" s="4">
-        <v>20.0</v>
+        <v>10.22</v>
       </c>
     </row>
     <row r="127">
       <c r="B127" t="s" s="3">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="C127" t="s" s="3">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F127" t="s" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G127" t="s" s="3">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H127" t="s" s="3">
         <v>16</v>
@@ -2944,7 +2956,7 @@
     </row>
     <row r="128">
       <c r="B128" t="s" s="3">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="C128" t="s" s="3">
         <v>10</v>
@@ -2953,35 +2965,33 @@
       <c r="E128" t="s" s="3">
         <v>11</v>
       </c>
-      <c r="F128" t="s" s="3">
-        <v>12</v>
-      </c>
+      <c r="F128" s="3"/>
       <c r="G128" t="s" s="3">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="H128" t="s" s="3">
         <v>8</v>
       </c>
       <c r="I128" t="n" s="4">
-        <v>10.22</v>
+        <v>232.48</v>
       </c>
     </row>
     <row r="129">
       <c r="B129" t="s" s="3">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C129" t="s" s="3">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D129" s="3"/>
       <c r="E129" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F129" t="s" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G129" t="s" s="3">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="H129" t="s" s="3">
         <v>16</v>
@@ -2991,37 +3001,421 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="2">
+      <c r="B130" t="s" s="3">
+        <v>74</v>
+      </c>
+      <c r="C130" t="s" s="3">
+        <v>71</v>
+      </c>
+      <c r="D130" s="3"/>
+      <c r="E130" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F130" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="G130" t="s" s="3">
+        <v>105</v>
+      </c>
+      <c r="H130" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I130" t="n" s="4">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="B131" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="C131" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D131" s="3"/>
+      <c r="E131" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F131" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="G131" t="s" s="3">
+        <v>109</v>
+      </c>
+      <c r="H131" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I131" t="n" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="B132" t="s" s="3">
+        <v>75</v>
+      </c>
+      <c r="C132" t="s" s="3">
+        <v>71</v>
+      </c>
+      <c r="D132" s="3"/>
+      <c r="E132" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F132" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G132" t="s" s="3">
+        <v>106</v>
+      </c>
+      <c r="H132" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I132" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="B133" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="C133" t="s" s="3">
+        <v>71</v>
+      </c>
+      <c r="D133" s="3"/>
+      <c r="E133" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F133" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="G133" t="s" s="3">
+        <v>105</v>
+      </c>
+      <c r="H133" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I133" t="n" s="4">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="B134" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="C134" t="s" s="3">
+        <v>71</v>
+      </c>
+      <c r="D134" s="3"/>
+      <c r="E134" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F134" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G134" t="s" s="3">
         <v>104</v>
       </c>
-      <c r="I130" t="n" s="5">
-        <v>592.82</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="I131" t="n" s="5">
-        <v>2009.18</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="6" t="s">
+      <c r="H134" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I134" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="B135" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="C135" t="s" s="3">
+        <v>71</v>
+      </c>
+      <c r="D135" s="3"/>
+      <c r="E135" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F135" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G135" t="s" s="3">
         <v>106</v>
       </c>
-      <c r="B134"/>
-      <c r="C134"/>
-      <c r="D134"/>
-      <c r="E134"/>
-      <c r="F134"/>
-      <c r="G134"/>
-      <c r="H134"/>
-      <c r="I134"/>
+      <c r="H135" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I135" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="B136" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="C136" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D136" s="3"/>
+      <c r="E136" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F136" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="G136" t="s" s="3">
+        <v>110</v>
+      </c>
+      <c r="H136" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I136" t="n" s="4">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="B137" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="C137" t="s" s="3">
+        <v>71</v>
+      </c>
+      <c r="D137" s="3"/>
+      <c r="E137" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F137" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G137" t="s" s="3">
+        <v>104</v>
+      </c>
+      <c r="H137" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I137" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="B138" t="s" s="3">
+        <v>48</v>
+      </c>
+      <c r="C138" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D138" s="3"/>
+      <c r="E138" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F138" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="G138" t="s" s="3">
+        <v>111</v>
+      </c>
+      <c r="H138" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I138" t="n" s="4">
+        <v>9.98</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="B139" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="C139" t="s" s="3">
+        <v>71</v>
+      </c>
+      <c r="D139" s="3"/>
+      <c r="E139" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F139" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G139" t="s" s="3">
+        <v>106</v>
+      </c>
+      <c r="H139" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I139" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="B140" t="s" s="3">
+        <v>52</v>
+      </c>
+      <c r="C140" t="s" s="3">
+        <v>71</v>
+      </c>
+      <c r="D140" s="3"/>
+      <c r="E140" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F140" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G140" t="s" s="3">
+        <v>104</v>
+      </c>
+      <c r="H140" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I140" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="B141" t="s" s="3">
+        <v>53</v>
+      </c>
+      <c r="C141" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D141" s="3"/>
+      <c r="E141" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F141" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="G141" t="s" s="3">
+        <v>112</v>
+      </c>
+      <c r="H141" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I141" t="n" s="4">
+        <v>10.22</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="B142" t="s" s="3">
+        <v>78</v>
+      </c>
+      <c r="C142" t="s" s="3">
+        <v>71</v>
+      </c>
+      <c r="D142" s="3"/>
+      <c r="E142" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F142" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G142" t="s" s="3">
+        <v>106</v>
+      </c>
+      <c r="H142" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I142" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="B143" t="s" s="3">
+        <v>57</v>
+      </c>
+      <c r="C143" t="s" s="3">
+        <v>71</v>
+      </c>
+      <c r="D143" s="3"/>
+      <c r="E143" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F143" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G143" t="s" s="3">
+        <v>104</v>
+      </c>
+      <c r="H143" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I143" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="B144" t="s" s="3">
+        <v>79</v>
+      </c>
+      <c r="C144" t="s" s="3">
+        <v>71</v>
+      </c>
+      <c r="D144" s="3"/>
+      <c r="E144" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F144" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G144" t="s" s="3">
+        <v>106</v>
+      </c>
+      <c r="H144" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I144" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="B145" t="s" s="3">
+        <v>58</v>
+      </c>
+      <c r="C145" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D145" s="3"/>
+      <c r="E145" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F145" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="G145" t="s" s="3">
+        <v>113</v>
+      </c>
+      <c r="H145" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I145" t="n" s="4">
+        <v>9.96</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="I146" t="n" s="5">
+        <v>642.78</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="I147" t="n" s="5">
+        <v>2221.88</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B150"/>
+      <c r="C150"/>
+      <c r="D150"/>
+      <c r="E150"/>
+      <c r="F150"/>
+      <c r="G150"/>
+      <c r="H150"/>
+      <c r="I150"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A134:I134"/>
+    <mergeCell ref="A150:I150"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>

--- a/2021-sgfdevs-transaction-detail-by-account.xlsx
+++ b/2021-sgfdevs-transaction-detail-by-account.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="140">
   <si>
     <t>Date</t>
   </si>
@@ -98,6 +98,18 @@
     <t>02/11/2021</t>
   </si>
   <si>
+    <t>Deposit</t>
+  </si>
+  <si>
+    <t>Self Interactive</t>
+  </si>
+  <si>
+    <t>System-recorded deposit for QuickBooks Payments</t>
+  </si>
+  <si>
+    <t>Undeposited Funds</t>
+  </si>
+  <si>
     <t>QuickBooks Payments</t>
   </si>
   <si>
@@ -107,18 +119,6 @@
     <t>Devs:Devs Payment Fees (Intuit)</t>
   </si>
   <si>
-    <t>Deposit</t>
-  </si>
-  <si>
-    <t>Self Interactive</t>
-  </si>
-  <si>
-    <t>System-recorded deposit for QuickBooks Payments</t>
-  </si>
-  <si>
-    <t>Undeposited Funds</t>
-  </si>
-  <si>
     <t>03/02/2021</t>
   </si>
   <si>
@@ -197,6 +197,30 @@
     <t>07/12/2021</t>
   </si>
   <si>
+    <t>08/02/2021</t>
+  </si>
+  <si>
+    <t>08/03/2021</t>
+  </si>
+  <si>
+    <t>08/06/2021</t>
+  </si>
+  <si>
+    <t>08/30/2021</t>
+  </si>
+  <si>
+    <t>O'reilly Auto</t>
+  </si>
+  <si>
+    <t>08/31/2021</t>
+  </si>
+  <si>
+    <t>Printful</t>
+  </si>
+  <si>
+    <t>Supplies &amp; Materials</t>
+  </si>
+  <si>
     <t>Total for Devs Checking (7527)</t>
   </si>
   <si>
@@ -215,12 +239,21 @@
     <t>World Wide Technology</t>
   </si>
   <si>
+    <t>08/18/2021</t>
+  </si>
+  <si>
+    <t>-Split-</t>
+  </si>
+  <si>
     <t>Total for Accounts Receivable (A/R)</t>
   </si>
   <si>
     <t>Paid via QuickBooks Payments: Payment ID aoz5yxgx</t>
   </si>
   <si>
+    <t>Paid via QuickBooks Payments: Payment ID MU0026764343</t>
+  </si>
+  <si>
     <t>Total for Undeposited Funds</t>
   </si>
   <si>
@@ -254,6 +287,12 @@
     <t>07/05/2021</t>
   </si>
   <si>
+    <t>08/01/2021</t>
+  </si>
+  <si>
+    <t>08/05/2021</t>
+  </si>
+  <si>
     <t>Total for Accounts Payable (A/P)</t>
   </si>
   <si>
@@ -275,6 +314,15 @@
     <t>Total for Devs Revenue</t>
   </si>
   <si>
+    <t>Discounts given</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Total for Discounts given</t>
+  </si>
+  <si>
     <t>Devs</t>
   </si>
   <si>
@@ -299,6 +347,9 @@
     <t>DBT CRD 1113 DBBXKMPK PIZZA HUT 004082 4178638722 MO C#4443</t>
   </si>
   <si>
+    <t>DBT CRD 1215 DBYIB8HS PIZZA HUT 004082 4178638722 MO C#4443</t>
+  </si>
+  <si>
     <t xml:space="preserve">   Total for Devs Member Meals</t>
   </si>
   <si>
@@ -356,13 +407,22 @@
     <t>DBT CRD 0416 DBXE0VQF AMAZON WEB SERVICES AWS.AMAZON.CO WA C#4443</t>
   </si>
   <si>
+    <t>DBT CRD 2013 DBV1DGK3 AMAZON WEB SERVICES AWS.AMAZON.CO WA C#4443</t>
+  </si>
+  <si>
     <t xml:space="preserve">   Total for Devs Software &amp; Hosting</t>
   </si>
   <si>
     <t>Total for Devs</t>
   </si>
   <si>
-    <t>Sunday, Aug 08, 2021 10:23:18 AM GMT-7 - Accrual Basis</t>
+    <t>DBT CRD 0107 DB4JV2Y1 PRINTFUL, INC. CHARLOTTE NC C#4443</t>
+  </si>
+  <si>
+    <t>Total for Supplies &amp; Materials</t>
+  </si>
+  <si>
+    <t>Thursday, Sep 30, 2021 09:08:33 AM GMT-7 - Accrual Basis</t>
   </si>
   <si>
     <t>Springfield Devs</t>
@@ -371,7 +431,7 @@
     <t>Transaction Detail by  Account</t>
   </si>
   <si>
-    <t>January - July, 2021</t>
+    <t>January - August, 2021</t>
   </si>
 </sst>
 </file>
@@ -446,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="true" applyFont="true">
       <alignment wrapText="true" horizontal="center"/>
@@ -463,6 +523,9 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <alignment wrapText="true" horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" quotePrefix="true">
+      <alignment wrapText="true" horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment wrapText="false" horizontal="center"/>
     </xf>
@@ -478,7 +541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I150"/>
+  <dimension ref="A1:I177"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -496,8 +559,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="s">
-        <v>117</v>
+      <c r="A1" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -509,8 +572,8 @@
       <c r="I1"/>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="s">
-        <v>118</v>
+      <c r="A2" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -522,8 +585,8 @@
       <c r="I2"/>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="s">
-        <v>119</v>
+      <c r="A3" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -792,23 +855,23 @@
         <v>27</v>
       </c>
       <c r="C17" t="s" s="3">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F17" t="s" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H17" t="s" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I17" t="n" s="4">
-        <v>-6.0</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="18">
@@ -816,7 +879,7 @@
         <v>27</v>
       </c>
       <c r="C18" t="s" s="3">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" t="s" s="3">
@@ -832,7 +895,7 @@
         <v>34</v>
       </c>
       <c r="I18" t="n" s="4">
-        <v>600.0</v>
+        <v>-6.0</v>
       </c>
     </row>
     <row r="19">
@@ -862,21 +925,21 @@
         <v>36</v>
       </c>
       <c r="C20" t="s" s="3">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F20" t="s" s="3">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" t="s" s="3">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I20" t="n" s="4">
-        <v>600.0</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="21">
@@ -884,21 +947,21 @@
         <v>36</v>
       </c>
       <c r="C21" t="s" s="3">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F21" t="s" s="3">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" t="s" s="3">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I21" t="n" s="4">
-        <v>-20.0</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="22">
@@ -1080,21 +1143,21 @@
         <v>48</v>
       </c>
       <c r="C30" t="s" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F30" t="s" s="3">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" t="s" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I30" t="n" s="4">
-        <v>-20.0</v>
+        <v>-9.98</v>
       </c>
     </row>
     <row r="31">
@@ -1102,21 +1165,21 @@
         <v>48</v>
       </c>
       <c r="C31" t="s" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F31" t="s" s="3">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" t="s" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I31" t="n" s="4">
-        <v>-9.98</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="32">
@@ -1124,21 +1187,21 @@
         <v>49</v>
       </c>
       <c r="C32" t="s" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F32" t="s" s="3">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" t="s" s="3">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I32" t="n" s="4">
-        <v>-20.0</v>
+        <v>-71.45</v>
       </c>
     </row>
     <row r="33">
@@ -1146,21 +1209,21 @@
         <v>49</v>
       </c>
       <c r="C33" t="s" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F33" t="s" s="3">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" t="s" s="3">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I33" t="n" s="4">
-        <v>-71.45</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="34">
@@ -1197,14 +1260,14 @@
         <v>11</v>
       </c>
       <c r="F35" t="s" s="3">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" t="s" s="3">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="I35" t="n" s="4">
-        <v>-73.99</v>
+        <v>-10.22</v>
       </c>
     </row>
     <row r="36">
@@ -1219,14 +1282,14 @@
         <v>11</v>
       </c>
       <c r="F36" t="s" s="3">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" t="s" s="3">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="I36" t="n" s="4">
-        <v>-10.22</v>
+        <v>-73.99</v>
       </c>
     </row>
     <row r="37">
@@ -1382,84 +1445,115 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="2">
+      <c r="B44" t="s" s="3">
         <v>61</v>
       </c>
-      <c r="I44" t="n" s="5">
-        <v>478.12</v>
+      <c r="C44" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F44" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I44" t="n" s="4">
+        <v>-20.0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>39</v>
+      <c r="B45" t="s" s="3">
+        <v>62</v>
+      </c>
+      <c r="C45" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F45" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="G45" s="3"/>
+      <c r="H45" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="I45" t="n" s="4">
+        <v>-10.26</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="s" s="3">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="C46" t="s" s="3">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F46" t="s" s="3">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" t="s" s="3">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I46" t="n" s="4">
-        <v>-600.0</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" t="s" s="3">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C47" t="s" s="3">
-        <v>62</v>
-      </c>
-      <c r="D47" t="n" s="3">
-        <v>1180.0</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D47" s="3"/>
       <c r="E47" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F47" t="s" s="3">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" t="s" s="3">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="I47" t="n" s="4">
-        <v>600.0</v>
+        <v>-60.91</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" t="s" s="3">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C48" t="s" s="3">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F48" t="s" s="3">
-        <v>38</v>
-      </c>
-      <c r="G48" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="G48" t="s" s="3">
+        <v>33</v>
+      </c>
       <c r="H48" t="s" s="3">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="I48" t="n" s="4">
-        <v>-600.0</v>
+        <v>-40.85</v>
       </c>
     </row>
     <row r="49">
@@ -1467,111 +1561,109 @@
         <v>64</v>
       </c>
       <c r="C49" t="s" s="3">
-        <v>62</v>
-      </c>
-      <c r="D49" t="n" s="3">
-        <v>1181.0</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D49" s="3"/>
       <c r="E49" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F49" t="s" s="3">
-        <v>56</v>
-      </c>
-      <c r="G49" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="G49" t="s" s="3">
+        <v>30</v>
+      </c>
       <c r="H49" t="s" s="3">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="I49" t="n" s="4">
-        <v>1500.0</v>
+        <v>1400.0</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" t="s" s="3">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C50" t="s" s="3">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F50" t="s" s="3">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" t="s" s="3">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="I50" t="n" s="4">
-        <v>-1500.0</v>
+        <v>-17.99</v>
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="C51" t="s" s="3">
-        <v>62</v>
-      </c>
-      <c r="D51" t="n" s="3">
-        <v>1182.0</v>
-      </c>
-      <c r="E51" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F51" t="s" s="3">
-        <v>66</v>
-      </c>
-      <c r="G51" s="3"/>
-      <c r="H51" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="I51" t="n" s="4">
-        <v>1500.0</v>
+      <c r="A51" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I51" t="n" s="5">
+        <v>1708.11</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="I52" t="n" s="5">
-        <v>900.0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>34</v>
+      <c r="B53" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="C53" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F53" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="G53" s="3"/>
+      <c r="H53" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="I53" t="n" s="4">
+        <v>-600.0</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="s" s="3">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C54" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="D54" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="D54" t="n" s="3">
+        <v>1180.0</v>
+      </c>
       <c r="E54" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F54" t="s" s="3">
-        <v>32</v>
-      </c>
-      <c r="G54" t="s" s="3">
-        <v>68</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G54" s="3"/>
       <c r="H54" t="s" s="3">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="I54" t="n" s="4">
-        <v>-600.0</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" t="s" s="3">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C55" t="s" s="3">
         <v>37</v>
@@ -1581,301 +1673,282 @@
         <v>11</v>
       </c>
       <c r="F55" t="s" s="3">
-        <v>32</v>
-      </c>
-      <c r="G55" t="s" s="3">
-        <v>68</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G55" s="3"/>
       <c r="H55" t="s" s="3">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="I55" t="n" s="4">
-        <v>600.0</v>
+        <v>-600.0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I56" t="n" s="5">
-        <v>0.0</v>
+      <c r="B56" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="C56" t="s" s="3">
+        <v>70</v>
+      </c>
+      <c r="D56" t="n" s="3">
+        <v>1181.0</v>
+      </c>
+      <c r="E56" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F56" t="s" s="3">
+        <v>56</v>
+      </c>
+      <c r="G56" s="3"/>
+      <c r="H56" t="s" s="3">
+        <v>71</v>
+      </c>
+      <c r="I56" t="n" s="4">
+        <v>1500.0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>16</v>
+      <c r="B57" t="s" s="3">
+        <v>55</v>
+      </c>
+      <c r="C57" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F57" t="s" s="3">
+        <v>56</v>
+      </c>
+      <c r="G57" s="3"/>
+      <c r="H57" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I57" t="n" s="4">
+        <v>-1500.0</v>
       </c>
     </row>
     <row r="58">
       <c r="B58" t="s" s="3">
+        <v>73</v>
+      </c>
+      <c r="C58" t="s" s="3">
         <v>70</v>
       </c>
-      <c r="C58" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="D58" s="3"/>
+      <c r="D58" t="n" s="3">
+        <v>1182.0</v>
+      </c>
       <c r="E58" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F58" t="s" s="3">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" t="s" s="3">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="I58" t="n" s="4">
-        <v>14.99</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="59">
       <c r="B59" t="s" s="3">
+        <v>75</v>
+      </c>
+      <c r="C59" t="s" s="3">
         <v>70</v>
       </c>
-      <c r="C59" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="D59" s="3"/>
+      <c r="D59" t="n" s="3">
+        <v>1183.0</v>
+      </c>
       <c r="E59" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F59" t="s" s="3">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="G59" s="3"/>
-      <c r="H59" t="s" s="3">
-        <v>13</v>
+      <c r="H59" t="s" s="6">
+        <v>76</v>
       </c>
       <c r="I59" t="n" s="4">
-        <v>20.0</v>
+        <v>1400.0</v>
       </c>
     </row>
     <row r="60">
       <c r="B60" t="s" s="3">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="C60" t="s" s="3">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F60" t="s" s="3">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" t="s" s="3">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="I60" t="n" s="4">
-        <v>-14.99</v>
+        <v>-1400.0</v>
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="3">
-        <v>72</v>
-      </c>
-      <c r="C61" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="D61" s="3"/>
-      <c r="E61" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F61" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="G61" s="3"/>
-      <c r="H61" t="s" s="3">
-        <v>13</v>
-      </c>
-      <c r="I61" t="n" s="4">
-        <v>20.0</v>
+      <c r="A61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I61" t="n" s="5">
+        <v>900.0</v>
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="C62" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D62" s="3"/>
-      <c r="E62" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F62" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="G62" s="3"/>
-      <c r="H62" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I62" t="n" s="4">
-        <v>-20.0</v>
+      <c r="A62" t="s" s="2">
+        <v>31</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" t="s" s="3">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C63" t="s" s="3">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F63" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="G63" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="G63" t="s" s="3">
+        <v>78</v>
+      </c>
       <c r="H63" t="s" s="3">
         <v>8</v>
       </c>
       <c r="I63" t="n" s="4">
-        <v>-20.0</v>
+        <v>-600.0</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" t="s" s="3">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C64" t="s" s="3">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F64" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="G64" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="G64" t="s" s="3">
+        <v>78</v>
+      </c>
       <c r="H64" t="s" s="3">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="I64" t="n" s="4">
-        <v>-20.0</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="65">
       <c r="B65" t="s" s="3">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C65" t="s" s="3">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F65" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="G65" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="G65" t="s" s="3">
+        <v>79</v>
+      </c>
       <c r="H65" t="s" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I65" t="n" s="4">
-        <v>14.99</v>
+        <v>-1400.0</v>
       </c>
     </row>
     <row r="66">
       <c r="B66" t="s" s="3">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C66" t="s" s="3">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F66" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="G66" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="G66" t="s" s="3">
+        <v>79</v>
+      </c>
       <c r="H66" t="s" s="3">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="I66" t="n" s="4">
-        <v>20.0</v>
+        <v>1400.0</v>
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="3">
-        <v>24</v>
-      </c>
-      <c r="C67" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D67" s="3"/>
-      <c r="E67" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F67" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="G67" s="3"/>
-      <c r="H67" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I67" t="n" s="4">
-        <v>-14.99</v>
+      <c r="A67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I67" t="n" s="5">
+        <v>0.0</v>
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="3">
-        <v>73</v>
-      </c>
-      <c r="C68" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="D68" s="3"/>
-      <c r="E68" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F68" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="G68" s="3"/>
-      <c r="H68" t="s" s="3">
-        <v>13</v>
-      </c>
-      <c r="I68" t="n" s="4">
-        <v>20.0</v>
+      <c r="A68" t="s" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="69">
       <c r="B69" t="s" s="3">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="C69" t="s" s="3">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F69" t="s" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G69" s="3"/>
       <c r="H69" t="s" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I69" t="n" s="4">
-        <v>-20.0</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="70">
       <c r="B70" t="s" s="3">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C70" t="s" s="3">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" t="s" s="3">
@@ -1894,10 +1967,10 @@
     </row>
     <row r="71">
       <c r="B71" t="s" s="3">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s" s="3">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" t="s" s="3">
@@ -1908,37 +1981,37 @@
       </c>
       <c r="G71" s="3"/>
       <c r="H71" t="s" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I71" t="n" s="4">
-        <v>14.99</v>
+        <v>-14.99</v>
       </c>
     </row>
     <row r="72">
       <c r="B72" t="s" s="3">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="C72" t="s" s="3">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F72" t="s" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G72" s="3"/>
       <c r="H72" t="s" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I72" t="n" s="4">
-        <v>-14.99</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="73">
       <c r="B73" t="s" s="3">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C73" t="s" s="3">
         <v>14</v>
@@ -1948,7 +2021,7 @@
         <v>11</v>
       </c>
       <c r="F73" t="s" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" t="s" s="3">
@@ -1960,29 +2033,29 @@
     </row>
     <row r="74">
       <c r="B74" t="s" s="3">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="C74" t="s" s="3">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F74" t="s" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G74" s="3"/>
       <c r="H74" t="s" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I74" t="n" s="4">
-        <v>20.0</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" t="s" s="3">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C75" t="s" s="3">
         <v>14</v>
@@ -1992,7 +2065,7 @@
         <v>11</v>
       </c>
       <c r="F75" t="s" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" t="s" s="3">
@@ -2004,32 +2077,32 @@
     </row>
     <row r="76">
       <c r="B76" t="s" s="3">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C76" t="s" s="3">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F76" t="s" s="3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" t="s" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I76" t="n" s="4">
-        <v>-20.0</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="77">
       <c r="B77" t="s" s="3">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C77" t="s" s="3">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" t="s" s="3">
@@ -2048,10 +2121,10 @@
     </row>
     <row r="78">
       <c r="B78" t="s" s="3">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C78" t="s" s="3">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" t="s" s="3">
@@ -2062,40 +2135,40 @@
       </c>
       <c r="G78" s="3"/>
       <c r="H78" t="s" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I78" t="n" s="4">
-        <v>14.99</v>
+        <v>-14.99</v>
       </c>
     </row>
     <row r="79">
       <c r="B79" t="s" s="3">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="C79" t="s" s="3">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F79" t="s" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" t="s" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I79" t="n" s="4">
-        <v>-14.99</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="80">
       <c r="B80" t="s" s="3">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C80" t="s" s="3">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" t="s" s="3">
@@ -2106,40 +2179,40 @@
       </c>
       <c r="G80" s="3"/>
       <c r="H80" t="s" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I80" t="n" s="4">
-        <v>20.0</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="81">
       <c r="B81" t="s" s="3">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="C81" t="s" s="3">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F81" t="s" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G81" s="3"/>
       <c r="H81" t="s" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I81" t="n" s="4">
-        <v>-20.0</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="82">
       <c r="B82" t="s" s="3">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C82" t="s" s="3">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" t="s" s="3">
@@ -2158,7 +2231,7 @@
     </row>
     <row r="83">
       <c r="B83" t="s" s="3">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C83" t="s" s="3">
         <v>14</v>
@@ -2168,44 +2241,44 @@
         <v>11</v>
       </c>
       <c r="F83" t="s" s="3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G83" s="3"/>
       <c r="H83" t="s" s="3">
         <v>8</v>
       </c>
       <c r="I83" t="n" s="4">
-        <v>-20.0</v>
+        <v>-14.99</v>
       </c>
     </row>
     <row r="84">
       <c r="B84" t="s" s="3">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="C84" t="s" s="3">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F84" t="s" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G84" s="3"/>
       <c r="H84" t="s" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I84" t="n" s="4">
-        <v>20.0</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="85">
       <c r="B85" t="s" s="3">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="C85" t="s" s="3">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" t="s" s="3">
@@ -2216,37 +2289,37 @@
       </c>
       <c r="G85" s="3"/>
       <c r="H85" t="s" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I85" t="n" s="4">
-        <v>-20.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="86">
       <c r="B86" t="s" s="3">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C86" t="s" s="3">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F86" t="s" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G86" s="3"/>
       <c r="H86" t="s" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I86" t="n" s="4">
-        <v>20.0</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="87">
       <c r="B87" t="s" s="3">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C87" t="s" s="3">
         <v>14</v>
@@ -2268,17 +2341,17 @@
     </row>
     <row r="88">
       <c r="B88" t="s" s="3">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="C88" t="s" s="3">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F88" t="s" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G88" s="3"/>
       <c r="H88" t="s" s="3">
@@ -2290,39 +2363,39 @@
     </row>
     <row r="89">
       <c r="B89" t="s" s="3">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C89" t="s" s="3">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F89" t="s" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G89" s="3"/>
       <c r="H89" t="s" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I89" t="n" s="4">
-        <v>-20.0</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="90">
       <c r="B90" t="s" s="3">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C90" t="s" s="3">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F90" t="s" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" t="s" s="3">
@@ -2334,7 +2407,7 @@
     </row>
     <row r="91">
       <c r="B91" t="s" s="3">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C91" t="s" s="3">
         <v>14</v>
@@ -2344,22 +2417,22 @@
         <v>11</v>
       </c>
       <c r="F91" t="s" s="3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" t="s" s="3">
         <v>8</v>
       </c>
       <c r="I91" t="n" s="4">
-        <v>-20.0</v>
+        <v>-14.99</v>
       </c>
     </row>
     <row r="92">
       <c r="B92" t="s" s="3">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="C92" t="s" s="3">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" t="s" s="3">
@@ -2370,545 +2443,593 @@
       </c>
       <c r="G92" s="3"/>
       <c r="H92" t="s" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I92" t="n" s="4">
-        <v>20.0</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="93">
       <c r="B93" t="s" s="3">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="C93" t="s" s="3">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F93" t="s" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G93" s="3"/>
       <c r="H93" t="s" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I93" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" t="s" s="3">
+        <v>48</v>
+      </c>
+      <c r="C94" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D94" s="3"/>
+      <c r="E94" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F94" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G94" s="3"/>
+      <c r="H94" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I94" t="n" s="4">
         <v>-20.0</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I94" t="n" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
     <row r="95">
-      <c r="A95" t="s" s="2">
-        <v>81</v>
+      <c r="B95" t="s" s="3">
+        <v>88</v>
+      </c>
+      <c r="C95" t="s" s="3">
+        <v>82</v>
+      </c>
+      <c r="D95" s="3"/>
+      <c r="E95" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F95" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G95" s="3"/>
+      <c r="H95" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="I95" t="n" s="4">
+        <v>20.0</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="2">
-        <v>82</v>
+      <c r="B96" t="s" s="3">
+        <v>49</v>
+      </c>
+      <c r="C96" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D96" s="3"/>
+      <c r="E96" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F96" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G96" s="3"/>
+      <c r="H96" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I96" t="n" s="4">
+        <v>-20.0</v>
       </c>
     </row>
     <row r="97">
       <c r="B97" t="s" s="3">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C97" t="s" s="3">
-        <v>62</v>
-      </c>
-      <c r="D97" t="n" s="3">
-        <v>1180.0</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D97" s="3"/>
       <c r="E97" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F97" t="s" s="3">
-        <v>38</v>
-      </c>
-      <c r="G97" t="s" s="3">
-        <v>83</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G97" s="3"/>
       <c r="H97" t="s" s="3">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="I97" t="n" s="4">
-        <v>600.0</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="98">
       <c r="B98" t="s" s="3">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C98" t="s" s="3">
-        <v>62</v>
-      </c>
-      <c r="D98" t="n" s="3">
-        <v>1181.0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D98" s="3"/>
       <c r="E98" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F98" t="s" s="3">
-        <v>56</v>
-      </c>
-      <c r="G98" t="s" s="3">
-        <v>84</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G98" s="3"/>
       <c r="H98" t="s" s="3">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="I98" t="n" s="4">
-        <v>1500.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="99">
       <c r="B99" t="s" s="3">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C99" t="s" s="3">
-        <v>62</v>
-      </c>
-      <c r="D99" t="n" s="3">
-        <v>1182.0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D99" s="3"/>
       <c r="E99" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F99" t="s" s="3">
-        <v>66</v>
-      </c>
-      <c r="G99" t="s" s="3">
-        <v>84</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G99" s="3"/>
       <c r="H99" t="s" s="3">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="I99" t="n" s="4">
-        <v>1500.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I100" t="n" s="5">
-        <v>3600.0</v>
+      <c r="B100" t="s" s="3">
+        <v>54</v>
+      </c>
+      <c r="C100" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D100" s="3"/>
+      <c r="E100" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F100" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G100" s="3"/>
+      <c r="H100" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I100" t="n" s="4">
+        <v>-20.0</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="I101" t="n" s="5">
-        <v>3600.0</v>
+      <c r="B101" t="s" s="3">
+        <v>57</v>
+      </c>
+      <c r="C101" t="s" s="3">
+        <v>82</v>
+      </c>
+      <c r="D101" s="3"/>
+      <c r="E101" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F101" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G101" s="3"/>
+      <c r="H101" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="I101" t="n" s="4">
+        <v>20.0</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="2">
-        <v>87</v>
+      <c r="B102" t="s" s="3">
+        <v>57</v>
+      </c>
+      <c r="C102" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D102" s="3"/>
+      <c r="E102" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F102" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G102" s="3"/>
+      <c r="H102" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I102" t="n" s="4">
+        <v>-20.0</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s" s="2">
-        <v>88</v>
+      <c r="B103" t="s" s="3">
+        <v>90</v>
+      </c>
+      <c r="C103" t="s" s="3">
+        <v>82</v>
+      </c>
+      <c r="D103" s="3"/>
+      <c r="E103" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F103" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G103" s="3"/>
+      <c r="H103" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="I103" t="n" s="4">
+        <v>20.0</v>
       </c>
     </row>
     <row r="104">
       <c r="B104" t="s" s="3">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="C104" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="D104" t="n" s="3">
-        <v>2001.0</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D104" s="3"/>
       <c r="E104" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F104" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="G104" t="s" s="3">
-        <v>89</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G104" s="3"/>
       <c r="H104" t="s" s="3">
         <v>8</v>
       </c>
       <c r="I104" t="n" s="4">
-        <v>1148.0</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="I105" t="n" s="5">
-        <v>1148.0</v>
+      <c r="B105" t="s" s="3">
+        <v>91</v>
+      </c>
+      <c r="C105" t="s" s="3">
+        <v>82</v>
+      </c>
+      <c r="D105" s="3"/>
+      <c r="E105" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F105" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G105" s="3"/>
+      <c r="H105" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="I105" t="n" s="4">
+        <v>20.0</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="2">
-        <v>91</v>
+      <c r="B106" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="C106" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D106" s="3"/>
+      <c r="E106" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F106" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G106" s="3"/>
+      <c r="H106" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I106" t="n" s="4">
+        <v>-20.0</v>
       </c>
     </row>
     <row r="107">
       <c r="B107" t="s" s="3">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="C107" t="s" s="3">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F107" t="s" s="3">
-        <v>50</v>
-      </c>
-      <c r="G107" t="s" s="3">
-        <v>92</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G107" s="3"/>
       <c r="H107" t="s" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I107" t="n" s="4">
-        <v>71.45</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="108">
       <c r="B108" t="s" s="3">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C108" t="s" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F108" t="s" s="3">
-        <v>50</v>
-      </c>
-      <c r="G108" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G108" s="3"/>
+      <c r="H108" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I108" t="n" s="4">
+        <v>-20.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H108" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I108" t="n" s="4">
-        <v>73.99</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="B109" t="s" s="3">
-        <v>59</v>
-      </c>
-      <c r="C109" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="D109" s="3"/>
-      <c r="E109" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F109" t="s" s="3">
-        <v>50</v>
-      </c>
-      <c r="G109" t="s" s="3">
-        <v>94</v>
-      </c>
-      <c r="H109" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I109" t="n" s="4">
-        <v>122.78</v>
+      <c r="I109" t="n" s="5">
+        <v>0.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="I110" t="n" s="5">
-        <v>268.22</v>
+        <v>94</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="112">
       <c r="B112" t="s" s="3">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C112" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="D112" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="D112" t="n" s="3">
+        <v>1180.0</v>
+      </c>
       <c r="E112" t="s" s="3">
         <v>11</v>
       </c>
-      <c r="F112" s="3"/>
+      <c r="F112" t="s" s="3">
+        <v>38</v>
+      </c>
       <c r="G112" t="s" s="3">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H112" t="s" s="3">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="I112" t="n" s="4">
-        <v>17.98</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="113">
       <c r="B113" t="s" s="3">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="C113" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="D113" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="D113" t="n" s="3">
+        <v>1181.0</v>
+      </c>
       <c r="E113" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F113" t="s" s="3">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G113" t="s" s="3">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H113" t="s" s="3">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="I113" t="n" s="4">
-        <v>98.94</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="114">
       <c r="B114" t="s" s="3">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C114" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="D114" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="D114" t="n" s="3">
+        <v>1182.0</v>
+      </c>
       <c r="E114" t="s" s="3">
         <v>11</v>
       </c>
-      <c r="F114" s="3"/>
+      <c r="F114" t="s" s="3">
+        <v>74</v>
+      </c>
       <c r="G114" t="s" s="3">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H114" t="s" s="3">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="I114" t="n" s="4">
-        <v>39.96</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="I115" t="n" s="5">
-        <v>156.88</v>
+      <c r="B115" t="s" s="3">
+        <v>75</v>
+      </c>
+      <c r="C115" t="s" s="3">
+        <v>70</v>
+      </c>
+      <c r="D115" t="n" s="3">
+        <v>1183.0</v>
+      </c>
+      <c r="E115" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F115" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="G115" t="s" s="3">
+        <v>97</v>
+      </c>
+      <c r="H115" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="I115" t="n" s="4">
+        <v>1500.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>101</v>
+        <v>98</v>
+      </c>
+      <c r="I116" t="n" s="5">
+        <v>5100.0</v>
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="3">
-        <v>27</v>
-      </c>
-      <c r="C117" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="D117" s="3"/>
-      <c r="E117" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F117" t="s" s="3">
-        <v>28</v>
-      </c>
-      <c r="G117" t="s" s="3">
-        <v>29</v>
-      </c>
-      <c r="H117" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I117" t="n" s="4">
-        <v>6.0</v>
+      <c r="A117" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="I117" t="n" s="5">
+        <v>5100.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="B119" t="s" s="3">
+        <v>75</v>
+      </c>
+      <c r="C119" t="s" s="3">
+        <v>70</v>
+      </c>
+      <c r="D119" t="n" s="3">
+        <v>1183.0</v>
+      </c>
+      <c r="E119" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F119" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="G119" t="s" s="3">
+        <v>101</v>
+      </c>
+      <c r="H119" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="I119" t="n" s="4">
+        <v>-100.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="I118" t="n" s="5">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s" s="2">
+      <c r="I120" t="n" s="5">
+        <v>-100.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="2">
         <v>103</v>
       </c>
     </row>
-    <row r="120">
-      <c r="B120" t="s" s="3">
-        <v>70</v>
-      </c>
-      <c r="C120" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="D120" s="3"/>
-      <c r="E120" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F120" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="G120" t="s" s="3">
+    <row r="122">
+      <c r="A122" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="H120" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="I120" t="n" s="4">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="B121" t="s" s="3">
-        <v>70</v>
-      </c>
-      <c r="C121" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="D121" s="3"/>
-      <c r="E121" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F121" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="G121" t="s" s="3">
-        <v>105</v>
-      </c>
-      <c r="H121" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="I121" t="n" s="4">
-        <v>14.99</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="B122" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="C122" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="D122" t="n" s="3">
-        <v>6.36334269E8</v>
-      </c>
-      <c r="E122" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F122" t="s" s="3">
-        <v>12</v>
-      </c>
-      <c r="G122" s="3"/>
-      <c r="H122" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I122" t="n" s="4">
-        <v>10.29</v>
       </c>
     </row>
     <row r="123">
       <c r="B123" t="s" s="3">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="C123" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="D123" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="D123" t="n" s="3">
+        <v>2001.0</v>
+      </c>
       <c r="E123" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F123" t="s" s="3">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G123" t="s" s="3">
+        <v>105</v>
+      </c>
+      <c r="H123" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I123" t="n" s="4">
+        <v>1148.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="H123" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="I123" t="n" s="4">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="B124" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C124" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="D124" s="3"/>
-      <c r="E124" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F124" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="G124" t="s" s="3">
-        <v>105</v>
-      </c>
-      <c r="H124" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="I124" t="n" s="4">
-        <v>14.99</v>
+      <c r="I124" t="n" s="5">
+        <v>1148.0</v>
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C125" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="D125" s="3"/>
-      <c r="E125" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F125" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="G125" t="s" s="3">
-        <v>104</v>
-      </c>
-      <c r="H125" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="I125" t="n" s="4">
-        <v>20.0</v>
+      <c r="A125" t="s" s="2">
+        <v>107</v>
       </c>
     </row>
     <row r="126">
       <c r="B126" t="s" s="3">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C126" t="s" s="3">
         <v>10</v>
@@ -2918,45 +3039,45 @@
         <v>11</v>
       </c>
       <c r="F126" t="s" s="3">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G126" t="s" s="3">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H126" t="s" s="3">
         <v>8</v>
       </c>
       <c r="I126" t="n" s="4">
-        <v>10.22</v>
+        <v>71.45</v>
       </c>
     </row>
     <row r="127">
       <c r="B127" t="s" s="3">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C127" t="s" s="3">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F127" t="s" s="3">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="G127" t="s" s="3">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H127" t="s" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I127" t="n" s="4">
-        <v>20.0</v>
+        <v>73.99</v>
       </c>
     </row>
     <row r="128">
       <c r="B128" t="s" s="3">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C128" t="s" s="3">
         <v>10</v>
@@ -2965,236 +3086,164 @@
       <c r="E128" t="s" s="3">
         <v>11</v>
       </c>
-      <c r="F128" s="3"/>
+      <c r="F128" t="s" s="3">
+        <v>50</v>
+      </c>
       <c r="G128" t="s" s="3">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H128" t="s" s="3">
         <v>8</v>
       </c>
       <c r="I128" t="n" s="4">
-        <v>232.48</v>
+        <v>122.78</v>
       </c>
     </row>
     <row r="129">
       <c r="B129" t="s" s="3">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C129" t="s" s="3">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D129" s="3"/>
       <c r="E129" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F129" t="s" s="3">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="G129" t="s" s="3">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="H129" t="s" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I129" t="n" s="4">
-        <v>20.0</v>
+        <v>60.91</v>
       </c>
     </row>
     <row r="130">
-      <c r="B130" t="s" s="3">
-        <v>74</v>
-      </c>
-      <c r="C130" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="D130" s="3"/>
-      <c r="E130" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F130" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="G130" t="s" s="3">
-        <v>105</v>
-      </c>
-      <c r="H130" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="I130" t="n" s="4">
-        <v>14.99</v>
+      <c r="A130" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="I130" t="n" s="5">
+        <v>329.13</v>
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="3">
-        <v>36</v>
-      </c>
-      <c r="C131" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="D131" s="3"/>
-      <c r="E131" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F131" t="s" s="3">
-        <v>12</v>
-      </c>
-      <c r="G131" t="s" s="3">
-        <v>109</v>
-      </c>
-      <c r="H131" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I131" t="n" s="4">
-        <v>9.42</v>
+      <c r="A131" t="s" s="2">
+        <v>113</v>
       </c>
     </row>
     <row r="132">
       <c r="B132" t="s" s="3">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="C132" t="s" s="3">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D132" s="3"/>
       <c r="E132" t="s" s="3">
         <v>11</v>
       </c>
-      <c r="F132" t="s" s="3">
-        <v>18</v>
-      </c>
+      <c r="F132" s="3"/>
       <c r="G132" t="s" s="3">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="H132" t="s" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I132" t="n" s="4">
-        <v>20.0</v>
+        <v>17.98</v>
       </c>
     </row>
     <row r="133">
       <c r="B133" t="s" s="3">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C133" t="s" s="3">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D133" s="3"/>
       <c r="E133" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F133" t="s" s="3">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="G133" t="s" s="3">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="H133" t="s" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I133" t="n" s="4">
-        <v>14.99</v>
+        <v>98.94</v>
       </c>
     </row>
     <row r="134">
       <c r="B134" t="s" s="3">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C134" t="s" s="3">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D134" s="3"/>
       <c r="E134" t="s" s="3">
         <v>11</v>
       </c>
-      <c r="F134" t="s" s="3">
-        <v>19</v>
-      </c>
+      <c r="F134" s="3"/>
       <c r="G134" t="s" s="3">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="H134" t="s" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I134" t="n" s="4">
-        <v>20.0</v>
+        <v>39.96</v>
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="C135" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="D135" s="3"/>
-      <c r="E135" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F135" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="G135" t="s" s="3">
-        <v>106</v>
-      </c>
-      <c r="H135" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="I135" t="n" s="4">
-        <v>20.0</v>
+      <c r="A135" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="I135" t="n" s="5">
+        <v>156.88</v>
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="C136" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="D136" s="3"/>
-      <c r="E136" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F136" t="s" s="3">
-        <v>12</v>
-      </c>
-      <c r="G136" t="s" s="3">
-        <v>110</v>
-      </c>
-      <c r="H136" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I136" t="n" s="4">
-        <v>10.25</v>
+      <c r="A136" t="s" s="2">
+        <v>118</v>
       </c>
     </row>
     <row r="137">
       <c r="B137" t="s" s="3">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="C137" t="s" s="3">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D137" s="3"/>
       <c r="E137" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F137" t="s" s="3">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="G137" t="s" s="3">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="H137" t="s" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I137" t="n" s="4">
-        <v>20.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="138">
       <c r="B138" t="s" s="3">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C138" t="s" s="3">
         <v>10</v>
@@ -3204,144 +3253,109 @@
         <v>11</v>
       </c>
       <c r="F138" t="s" s="3">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G138" t="s" s="3">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="H138" t="s" s="3">
         <v>8</v>
       </c>
       <c r="I138" t="n" s="4">
-        <v>9.98</v>
+        <v>40.85</v>
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="3">
-        <v>77</v>
-      </c>
-      <c r="C139" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="D139" s="3"/>
-      <c r="E139" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F139" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="G139" t="s" s="3">
-        <v>106</v>
-      </c>
-      <c r="H139" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="I139" t="n" s="4">
-        <v>20.0</v>
+      <c r="A139" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="I139" t="n" s="5">
+        <v>46.85</v>
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="3">
-        <v>52</v>
-      </c>
-      <c r="C140" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="D140" s="3"/>
-      <c r="E140" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F140" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="G140" t="s" s="3">
-        <v>104</v>
-      </c>
-      <c r="H140" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="I140" t="n" s="4">
-        <v>20.0</v>
+      <c r="A140" t="s" s="2">
+        <v>120</v>
       </c>
     </row>
     <row r="141">
       <c r="B141" t="s" s="3">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="C141" t="s" s="3">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="D141" s="3"/>
       <c r="E141" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F141" t="s" s="3">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G141" t="s" s="3">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="H141" t="s" s="3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I141" t="n" s="4">
-        <v>10.22</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="142">
       <c r="B142" t="s" s="3">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C142" t="s" s="3">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D142" s="3"/>
       <c r="E142" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F142" t="s" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G142" t="s" s="3">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="H142" t="s" s="3">
         <v>16</v>
       </c>
       <c r="I142" t="n" s="4">
-        <v>20.0</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="143">
       <c r="B143" t="s" s="3">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="D143" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="D143" t="n" s="3">
+        <v>6.36334269E8</v>
+      </c>
       <c r="E143" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F143" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="G143" t="s" s="3">
-        <v>104</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G143" s="3"/>
       <c r="H143" t="s" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I143" t="n" s="4">
-        <v>20.0</v>
+        <v>10.29</v>
       </c>
     </row>
     <row r="144">
       <c r="B144" t="s" s="3">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C144" t="s" s="3">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D144" s="3"/>
       <c r="E144" t="s" s="3">
@@ -3351,7 +3365,7 @@
         <v>18</v>
       </c>
       <c r="G144" t="s" s="3">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="H144" t="s" s="3">
         <v>16</v>
@@ -3362,60 +3376,671 @@
     </row>
     <row r="145">
       <c r="B145" t="s" s="3">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="C145" t="s" s="3">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="D145" s="3"/>
       <c r="E145" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F145" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="G145" t="s" s="3">
+        <v>122</v>
+      </c>
+      <c r="H145" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I145" t="n" s="4">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="B146" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="C146" t="s" s="3">
+        <v>82</v>
+      </c>
+      <c r="D146" s="3"/>
+      <c r="E146" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F146" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G146" t="s" s="3">
+        <v>121</v>
+      </c>
+      <c r="H146" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I146" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="B147" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="C147" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D147" s="3"/>
+      <c r="E147" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F147" t="s" s="3">
         <v>12</v>
       </c>
-      <c r="G145" t="s" s="3">
-        <v>113</v>
-      </c>
-      <c r="H145" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I145" t="n" s="4">
+      <c r="G147" t="s" s="3">
+        <v>124</v>
+      </c>
+      <c r="H147" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I147" t="n" s="4">
+        <v>10.22</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="B148" t="s" s="3">
+        <v>84</v>
+      </c>
+      <c r="C148" t="s" s="3">
+        <v>82</v>
+      </c>
+      <c r="D148" s="3"/>
+      <c r="E148" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F148" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G148" t="s" s="3">
+        <v>123</v>
+      </c>
+      <c r="H148" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I148" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="B149" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="C149" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D149" s="3"/>
+      <c r="E149" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F149" s="3"/>
+      <c r="G149" t="s" s="3">
+        <v>125</v>
+      </c>
+      <c r="H149" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I149" t="n" s="4">
+        <v>232.48</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="B150" t="s" s="3">
+        <v>85</v>
+      </c>
+      <c r="C150" t="s" s="3">
+        <v>82</v>
+      </c>
+      <c r="D150" s="3"/>
+      <c r="E150" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F150" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G150" t="s" s="3">
+        <v>121</v>
+      </c>
+      <c r="H150" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I150" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="B151" t="s" s="3">
+        <v>85</v>
+      </c>
+      <c r="C151" t="s" s="3">
+        <v>82</v>
+      </c>
+      <c r="D151" s="3"/>
+      <c r="E151" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F151" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="G151" t="s" s="3">
+        <v>122</v>
+      </c>
+      <c r="H151" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I151" t="n" s="4">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="B152" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="C152" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D152" s="3"/>
+      <c r="E152" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F152" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="G152" t="s" s="3">
+        <v>126</v>
+      </c>
+      <c r="H152" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I152" t="n" s="4">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="B153" t="s" s="3">
+        <v>86</v>
+      </c>
+      <c r="C153" t="s" s="3">
+        <v>82</v>
+      </c>
+      <c r="D153" s="3"/>
+      <c r="E153" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F153" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G153" t="s" s="3">
+        <v>123</v>
+      </c>
+      <c r="H153" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I153" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="B154" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="C154" t="s" s="3">
+        <v>82</v>
+      </c>
+      <c r="D154" s="3"/>
+      <c r="E154" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F154" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="G154" t="s" s="3">
+        <v>122</v>
+      </c>
+      <c r="H154" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I154" t="n" s="4">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="B155" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="C155" t="s" s="3">
+        <v>82</v>
+      </c>
+      <c r="D155" s="3"/>
+      <c r="E155" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F155" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G155" t="s" s="3">
+        <v>121</v>
+      </c>
+      <c r="H155" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I155" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="B156" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="C156" t="s" s="3">
+        <v>82</v>
+      </c>
+      <c r="D156" s="3"/>
+      <c r="E156" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F156" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G156" t="s" s="3">
+        <v>123</v>
+      </c>
+      <c r="H156" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I156" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="B157" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="C157" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D157" s="3"/>
+      <c r="E157" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F157" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="G157" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="H157" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I157" t="n" s="4">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="B158" t="s" s="3">
+        <v>87</v>
+      </c>
+      <c r="C158" t="s" s="3">
+        <v>82</v>
+      </c>
+      <c r="D158" s="3"/>
+      <c r="E158" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F158" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G158" t="s" s="3">
+        <v>121</v>
+      </c>
+      <c r="H158" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I158" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="B159" t="s" s="3">
+        <v>48</v>
+      </c>
+      <c r="C159" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D159" s="3"/>
+      <c r="E159" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F159" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="G159" t="s" s="3">
+        <v>128</v>
+      </c>
+      <c r="H159" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I159" t="n" s="4">
+        <v>9.98</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="B160" t="s" s="3">
+        <v>88</v>
+      </c>
+      <c r="C160" t="s" s="3">
+        <v>82</v>
+      </c>
+      <c r="D160" s="3"/>
+      <c r="E160" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F160" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G160" t="s" s="3">
+        <v>123</v>
+      </c>
+      <c r="H160" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I160" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="B161" t="s" s="3">
+        <v>52</v>
+      </c>
+      <c r="C161" t="s" s="3">
+        <v>82</v>
+      </c>
+      <c r="D161" s="3"/>
+      <c r="E161" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F161" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G161" t="s" s="3">
+        <v>121</v>
+      </c>
+      <c r="H161" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I161" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="B162" t="s" s="3">
+        <v>53</v>
+      </c>
+      <c r="C162" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D162" s="3"/>
+      <c r="E162" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F162" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="G162" t="s" s="3">
+        <v>129</v>
+      </c>
+      <c r="H162" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I162" t="n" s="4">
+        <v>10.22</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="B163" t="s" s="3">
+        <v>89</v>
+      </c>
+      <c r="C163" t="s" s="3">
+        <v>82</v>
+      </c>
+      <c r="D163" s="3"/>
+      <c r="E163" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F163" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G163" t="s" s="3">
+        <v>123</v>
+      </c>
+      <c r="H163" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I163" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="B164" t="s" s="3">
+        <v>57</v>
+      </c>
+      <c r="C164" t="s" s="3">
+        <v>82</v>
+      </c>
+      <c r="D164" s="3"/>
+      <c r="E164" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F164" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G164" t="s" s="3">
+        <v>121</v>
+      </c>
+      <c r="H164" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I164" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="B165" t="s" s="3">
+        <v>90</v>
+      </c>
+      <c r="C165" t="s" s="3">
+        <v>82</v>
+      </c>
+      <c r="D165" s="3"/>
+      <c r="E165" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F165" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G165" t="s" s="3">
+        <v>123</v>
+      </c>
+      <c r="H165" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I165" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="B166" t="s" s="3">
+        <v>58</v>
+      </c>
+      <c r="C166" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D166" s="3"/>
+      <c r="E166" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F166" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="G166" t="s" s="3">
+        <v>130</v>
+      </c>
+      <c r="H166" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I166" t="n" s="4">
         <v>9.96</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="I146" t="n" s="5">
-        <v>642.78</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="I147" t="n" s="5">
-        <v>2221.88</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B150"/>
-      <c r="C150"/>
-      <c r="D150"/>
-      <c r="E150"/>
-      <c r="F150"/>
-      <c r="G150"/>
-      <c r="H150"/>
-      <c r="I150"/>
+    <row r="167">
+      <c r="B167" t="s" s="3">
+        <v>91</v>
+      </c>
+      <c r="C167" t="s" s="3">
+        <v>82</v>
+      </c>
+      <c r="D167" s="3"/>
+      <c r="E167" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F167" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G167" t="s" s="3">
+        <v>121</v>
+      </c>
+      <c r="H167" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I167" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="B168" t="s" s="3">
+        <v>62</v>
+      </c>
+      <c r="C168" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D168" s="3"/>
+      <c r="E168" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F168" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="G168" t="s" s="3">
+        <v>131</v>
+      </c>
+      <c r="H168" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I168" t="n" s="4">
+        <v>10.26</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="B169" t="s" s="3">
+        <v>92</v>
+      </c>
+      <c r="C169" t="s" s="3">
+        <v>82</v>
+      </c>
+      <c r="D169" s="3"/>
+      <c r="E169" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F169" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G169" t="s" s="3">
+        <v>123</v>
+      </c>
+      <c r="H169" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I169" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="I170" t="n" s="5">
+        <v>693.04</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="I171" t="n" s="5">
+        <v>2373.9</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="B173" t="s" s="3">
+        <v>66</v>
+      </c>
+      <c r="C173" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D173" s="3"/>
+      <c r="E173" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F173" t="s" s="3">
+        <v>67</v>
+      </c>
+      <c r="G173" t="s" s="3">
+        <v>134</v>
+      </c>
+      <c r="H173" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I173" t="n" s="4">
+        <v>17.99</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="I174" t="n" s="5">
+        <v>17.99</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B177"/>
+      <c r="C177"/>
+      <c r="D177"/>
+      <c r="E177"/>
+      <c r="F177"/>
+      <c r="G177"/>
+      <c r="H177"/>
+      <c r="I177"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A150:I150"/>
+    <mergeCell ref="A177:I177"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>

--- a/2021-sgfdevs-transaction-detail-by-account.xlsx
+++ b/2021-sgfdevs-transaction-detail-by-account.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Export Transaction Detail by Ac" r:id="rId3" sheetId="1"/>
+    <sheet name="Transaction Detail by Account" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="201">
   <si>
     <t>Date</t>
   </si>
@@ -44,36 +44,36 @@
     <t>01/04/2021</t>
   </si>
   <si>
+    <t>Expenditure</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Amazon Web Services</t>
+  </si>
+  <si>
+    <t>Devs:Devs Software &amp; Hosting</t>
+  </si>
+  <si>
     <t>Bill Payment (Check)</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Zoom Video</t>
   </si>
   <si>
     <t>Accounts Payable (A/P)</t>
   </si>
   <si>
-    <t>Expenditure</t>
-  </si>
-  <si>
-    <t>Amazon Web Services</t>
-  </si>
-  <si>
-    <t>Devs:Devs Software &amp; Hosting</t>
-  </si>
-  <si>
     <t>01/06/2021</t>
   </si>
   <si>
+    <t>Logic Forte (QuickBooks Subscription)</t>
+  </si>
+  <si>
     <t>Microsoft Corporation</t>
   </si>
   <si>
-    <t>Logic Forte (QuickBooks Subscription)</t>
-  </si>
-  <si>
     <t>02/01/2021</t>
   </si>
   <si>
@@ -290,6 +290,24 @@
     <t>11/30/2021</t>
   </si>
   <si>
+    <t>12/01/2021</t>
+  </si>
+  <si>
+    <t>12/03/2021</t>
+  </si>
+  <si>
+    <t>Andy B's Springfield</t>
+  </si>
+  <si>
+    <t>12/06/2021</t>
+  </si>
+  <si>
+    <t>12/17/2021</t>
+  </si>
+  <si>
+    <t>Mostly Serious</t>
+  </si>
+  <si>
     <t>Total for Devs Checking (7527)</t>
   </si>
   <si>
@@ -314,9 +332,6 @@
     <t>11/17/2021</t>
   </si>
   <si>
-    <t>Mostly Serious</t>
-  </si>
-  <si>
     <t>Total for Accounts Receivable (A/R)</t>
   </si>
   <si>
@@ -329,6 +344,9 @@
     <t>Paid via QuickBooks Payments: Payment ID 074219</t>
   </si>
   <si>
+    <t>Paid via QuickBooks Payments: Payment ID 0688CE</t>
+  </si>
+  <si>
     <t>Total for Undeposited Funds</t>
   </si>
   <si>
@@ -377,6 +395,9 @@
     <t>10/05/2021</t>
   </si>
   <si>
+    <t>12/05/2021</t>
+  </si>
+  <si>
     <t>Total for Accounts Payable (A/P)</t>
   </si>
   <si>
@@ -416,12 +437,12 @@
     <t>Total for Merchandise</t>
   </si>
   <si>
+    <t>DBT CRD 1555 DBCOZZ96 PRINTFUL, INC. CHARLOTTE NC C#4443</t>
+  </si>
+  <si>
     <t>DBT CRD 1029 DBYJVTCE PRINTFUL, INC. CHARLOTTE NC C#4443</t>
   </si>
   <si>
-    <t>DBT CRD 1555 DBCOZZ96 PRINTFUL, INC. CHARLOTTE NC C#4443</t>
-  </si>
-  <si>
     <t>Total for Cost of Goods Sold</t>
   </si>
   <si>
@@ -461,6 +482,15 @@
     <t>DBT CRD 1337 DBKSBS2N PIZZA HUT 004082 4178638722 MO C#4443</t>
   </si>
   <si>
+    <t>DBT CRD 1839 DBLG9620 ANDY B S SPRINGFIELD SPRINGFIELD MO C#4443</t>
+  </si>
+  <si>
+    <t>DBT CRD 1759 DBHTWK9F ANDY B S SPRINGFIELD SPRINGFIELD MO C#4443</t>
+  </si>
+  <si>
+    <t>DBT CRD 1903 DBUJB327 ANDY B S SPRINGFIELD SPRINGFIELD MO C#4443</t>
+  </si>
+  <si>
     <t xml:space="preserve">   Total for Devs Member Meals</t>
   </si>
   <si>
@@ -485,6 +515,9 @@
     <t>2012 39FLWQFG MICROSOFT WWW.MICROSOFT.COM REDMOND WA C#4443</t>
   </si>
   <si>
+    <t>DBT CRD 1949 DBTQ82B4 MSFT E0100GPXMG MSBILL.INFO WA C#4443</t>
+  </si>
+  <si>
     <t xml:space="preserve">   Total for Devs Office Supplies</t>
   </si>
   <si>
@@ -500,12 +533,12 @@
     <t xml:space="preserve">   Devs Software &amp; Hosting</t>
   </si>
   <si>
+    <t>Intuit QuickBooks Essentials ($40/month) - Reimburse Actual Cost</t>
+  </si>
+  <si>
     <t>Zoom Pro Monthly Subscription</t>
   </si>
   <si>
-    <t>Intuit QuickBooks Essentials ($40/month) - Reimburse Actual Cost</t>
-  </si>
-  <si>
     <t>Office 365 Business Essentials ($5/mo/user)</t>
   </si>
   <si>
@@ -533,12 +566,12 @@
     <t>DBT CRD 2013 DBV1DGK3 AMAZON WEB SERVICES AWS.AMAZON.CO WA C#4443</t>
   </si>
   <si>
+    <t>DBT CRD 2108 DBUFR6AX MSFT E0100FP4UY MSBILL.INFO WA C#4443</t>
+  </si>
+  <si>
     <t>DBT CRD 0439 DBL678QX AMAZON WEB SERVICES AWS.AMAZON.CO WA C#4443</t>
   </si>
   <si>
-    <t>DBT CRD 2108 DBUFR6AX MSFT E0100FP4UY MSBILL.INFO WA C#4443</t>
-  </si>
-  <si>
     <t>1Password Families Plan (Annual)</t>
   </si>
   <si>
@@ -557,6 +590,9 @@
     <t>DBT CRD 1148 DBBLNGIR NAME.COM, INC 7202492374 CO C#4443</t>
   </si>
   <si>
+    <t>DBT CRD 0609 DBYNKASC AMAZON WEB SERVICES AWS.AMAZON.CO WA C#4443</t>
+  </si>
+  <si>
     <t xml:space="preserve">   Total for Devs Software &amp; Hosting</t>
   </si>
   <si>
@@ -569,7 +605,7 @@
     <t>Total for Supplies &amp; Materials</t>
   </si>
   <si>
-    <t>Monday, Dec 13, 2021 07:13:25 PM GMT-8 - Accrual Basis</t>
+    <t>Sunday, Jan 16, 2022 06:46:20 PM GMT-8 - Accrual Basis</t>
   </si>
   <si>
     <t>Springfield Devs</t>
@@ -578,7 +614,7 @@
     <t>Transaction Detail by  Account</t>
   </si>
   <si>
-    <t>January - November, 2021</t>
+    <t>January - December 2021</t>
   </si>
 </sst>
 </file>
@@ -688,7 +724,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I247"/>
+  <dimension ref="A1:I269"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -707,7 +743,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -720,7 +756,7 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -733,7 +769,7 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -782,7 +818,9 @@
       <c r="C7" t="s" s="3">
         <v>10</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" t="n" s="3">
+        <v>6.36334269E8</v>
+      </c>
       <c r="E7" t="s" s="3">
         <v>11</v>
       </c>
@@ -794,7 +832,7 @@
         <v>13</v>
       </c>
       <c r="I7" t="n" s="4">
-        <v>-14.99</v>
+        <v>-10.29</v>
       </c>
     </row>
     <row r="8">
@@ -804,9 +842,7 @@
       <c r="C8" t="s" s="3">
         <v>14</v>
       </c>
-      <c r="D8" t="n" s="3">
-        <v>6.36334269E8</v>
-      </c>
+      <c r="D8" s="3"/>
       <c r="E8" t="s" s="3">
         <v>11</v>
       </c>
@@ -818,7 +854,7 @@
         <v>16</v>
       </c>
       <c r="I8" t="n" s="4">
-        <v>-10.29</v>
+        <v>-14.99</v>
       </c>
     </row>
     <row r="9">
@@ -826,7 +862,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" t="s" s="3">
@@ -837,7 +873,7 @@
       </c>
       <c r="G9" s="3"/>
       <c r="H9" t="s" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I9" t="n" s="4">
         <v>-20.0</v>
@@ -848,7 +884,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" t="s" s="3">
@@ -859,7 +895,7 @@
       </c>
       <c r="G10" s="3"/>
       <c r="H10" t="s" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I10" t="n" s="4">
         <v>-20.0</v>
@@ -870,21 +906,23 @@
         <v>20</v>
       </c>
       <c r="C11" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="D11" t="n" s="3">
+        <v>2001.0</v>
+      </c>
       <c r="E11" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F11" t="s" s="3">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" t="s" s="3">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I11" t="n" s="4">
-        <v>-20.0</v>
+        <v>-1148.0</v>
       </c>
     </row>
     <row r="12">
@@ -892,23 +930,21 @@
         <v>20</v>
       </c>
       <c r="C12" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="D12" t="n" s="3">
-        <v>2001.0</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D12" s="3"/>
       <c r="E12" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F12" t="s" s="3">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" t="s" s="3">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I12" t="n" s="4">
-        <v>-1148.0</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="13">
@@ -916,18 +952,18 @@
         <v>24</v>
       </c>
       <c r="C13" t="s" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F13" t="s" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" t="s" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I13" t="n" s="4">
         <v>-14.99</v>
@@ -938,18 +974,18 @@
         <v>25</v>
       </c>
       <c r="C14" t="s" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F14" t="s" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" t="s" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I14" t="n" s="4">
         <v>-10.22</v>
@@ -960,7 +996,7 @@
         <v>26</v>
       </c>
       <c r="C15" t="s" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" t="s" s="3">
@@ -969,7 +1005,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" t="s" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I15" t="n" s="4">
         <v>-232.48</v>
@@ -980,18 +1016,18 @@
         <v>26</v>
       </c>
       <c r="C16" t="s" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F16" t="s" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" t="s" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I16" t="n" s="4">
         <v>-20.0</v>
@@ -1002,7 +1038,7 @@
         <v>27</v>
       </c>
       <c r="C17" t="s" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" t="s" s="3">
@@ -1050,18 +1086,18 @@
         <v>35</v>
       </c>
       <c r="C19" t="s" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F19" t="s" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" t="s" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I19" t="n" s="4">
         <v>-14.99</v>
@@ -1072,21 +1108,21 @@
         <v>36</v>
       </c>
       <c r="C20" t="s" s="3">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F20" t="s" s="3">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" t="s" s="3">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="I20" t="n" s="4">
-        <v>600.0</v>
+        <v>-9.42</v>
       </c>
     </row>
     <row r="21">
@@ -1094,18 +1130,18 @@
         <v>36</v>
       </c>
       <c r="C21" t="s" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F21" t="s" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" t="s" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I21" t="n" s="4">
         <v>-20.0</v>
@@ -1116,21 +1152,21 @@
         <v>36</v>
       </c>
       <c r="C22" t="s" s="3">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F22" t="s" s="3">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" t="s" s="3">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I22" t="n" s="4">
-        <v>-9.42</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="23">
@@ -1138,18 +1174,18 @@
         <v>40</v>
       </c>
       <c r="C23" t="s" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F23" t="s" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" t="s" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I23" t="n" s="4">
         <v>-20.0</v>
@@ -1160,18 +1196,18 @@
         <v>41</v>
       </c>
       <c r="C24" t="s" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F24" t="s" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" t="s" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I24" t="n" s="4">
         <v>-20.0</v>
@@ -1182,18 +1218,18 @@
         <v>42</v>
       </c>
       <c r="C25" t="s" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F25" t="s" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" t="s" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I25" t="n" s="4">
         <v>-10.25</v>
@@ -1204,18 +1240,18 @@
         <v>42</v>
       </c>
       <c r="C26" t="s" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F26" t="s" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" t="s" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I26" t="n" s="4">
         <v>-14.99</v>
@@ -1226,18 +1262,18 @@
         <v>43</v>
       </c>
       <c r="C27" t="s" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F27" t="s" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" t="s" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I27" t="n" s="4">
         <v>-20.0</v>
@@ -1248,7 +1284,7 @@
         <v>44</v>
       </c>
       <c r="C28" t="s" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" t="s" s="3">
@@ -1268,7 +1304,7 @@
         <v>46</v>
       </c>
       <c r="C29" t="s" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" t="s" s="3">
@@ -1297,14 +1333,14 @@
         <v>11</v>
       </c>
       <c r="F30" t="s" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" t="s" s="3">
         <v>16</v>
       </c>
       <c r="I30" t="n" s="4">
-        <v>-9.98</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="31">
@@ -1319,14 +1355,14 @@
         <v>11</v>
       </c>
       <c r="F31" t="s" s="3">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" t="s" s="3">
         <v>13</v>
       </c>
       <c r="I31" t="n" s="4">
-        <v>-20.0</v>
+        <v>-9.98</v>
       </c>
     </row>
     <row r="32">
@@ -1341,14 +1377,14 @@
         <v>11</v>
       </c>
       <c r="F32" t="s" s="3">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" t="s" s="3">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="I32" t="n" s="4">
-        <v>-20.0</v>
+        <v>-71.45</v>
       </c>
     </row>
     <row r="33">
@@ -1363,14 +1399,14 @@
         <v>11</v>
       </c>
       <c r="F33" t="s" s="3">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" t="s" s="3">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I33" t="n" s="4">
-        <v>-71.45</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="34">
@@ -1378,18 +1414,18 @@
         <v>52</v>
       </c>
       <c r="C34" t="s" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F34" t="s" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" t="s" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I34" t="n" s="4">
         <v>-20.0</v>
@@ -1400,21 +1436,21 @@
         <v>53</v>
       </c>
       <c r="C35" t="s" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F35" t="s" s="3">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" t="s" s="3">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="I35" t="n" s="4">
-        <v>-73.99</v>
+        <v>-10.22</v>
       </c>
     </row>
     <row r="36">
@@ -1422,21 +1458,21 @@
         <v>53</v>
       </c>
       <c r="C36" t="s" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F36" t="s" s="3">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" t="s" s="3">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I36" t="n" s="4">
-        <v>-10.22</v>
+        <v>-73.99</v>
       </c>
     </row>
     <row r="37">
@@ -1444,18 +1480,18 @@
         <v>54</v>
       </c>
       <c r="C37" t="s" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F37" t="s" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" t="s" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I37" t="n" s="4">
         <v>-20.0</v>
@@ -1488,18 +1524,18 @@
         <v>57</v>
       </c>
       <c r="C39" t="s" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F39" t="s" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" t="s" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I39" t="n" s="4">
         <v>-20.0</v>
@@ -1510,18 +1546,18 @@
         <v>58</v>
       </c>
       <c r="C40" t="s" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F40" t="s" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" t="s" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I40" t="n" s="4">
         <v>-9.96</v>
@@ -1532,18 +1568,18 @@
         <v>58</v>
       </c>
       <c r="C41" t="s" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F41" t="s" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" t="s" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I41" t="n" s="4">
         <v>-20.0</v>
@@ -1554,7 +1590,7 @@
         <v>59</v>
       </c>
       <c r="C42" t="s" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" t="s" s="3">
@@ -1576,7 +1612,7 @@
         <v>60</v>
       </c>
       <c r="C43" t="s" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" t="s" s="3">
@@ -1596,18 +1632,18 @@
         <v>61</v>
       </c>
       <c r="C44" t="s" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F44" t="s" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" t="s" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I44" t="n" s="4">
         <v>-20.0</v>
@@ -1618,18 +1654,18 @@
         <v>62</v>
       </c>
       <c r="C45" t="s" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F45" t="s" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" t="s" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I45" t="n" s="4">
         <v>-10.26</v>
@@ -1647,14 +1683,14 @@
         <v>11</v>
       </c>
       <c r="F46" t="s" s="3">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" t="s" s="3">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="I46" t="n" s="4">
-        <v>-20.0</v>
+        <v>-60.91</v>
       </c>
     </row>
     <row r="47">
@@ -1669,14 +1705,14 @@
         <v>11</v>
       </c>
       <c r="F47" t="s" s="3">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" t="s" s="3">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I47" t="n" s="4">
-        <v>-60.91</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="48">
@@ -1684,23 +1720,23 @@
         <v>64</v>
       </c>
       <c r="C48" t="s" s="3">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F48" t="s" s="3">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="G48" t="s" s="3">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H48" t="s" s="3">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I48" t="n" s="4">
-        <v>1400.0</v>
+        <v>-40.85</v>
       </c>
     </row>
     <row r="49">
@@ -1708,23 +1744,23 @@
         <v>64</v>
       </c>
       <c r="C49" t="s" s="3">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F49" t="s" s="3">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="G49" t="s" s="3">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H49" t="s" s="3">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I49" t="n" s="4">
-        <v>-40.85</v>
+        <v>1400.0</v>
       </c>
     </row>
     <row r="50">
@@ -1732,7 +1768,7 @@
         <v>66</v>
       </c>
       <c r="C50" t="s" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" t="s" s="3">
@@ -1754,18 +1790,18 @@
         <v>69</v>
       </c>
       <c r="C51" t="s" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F51" t="s" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" t="s" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I51" t="n" s="4">
         <v>-20.0</v>
@@ -1798,7 +1834,7 @@
         <v>73</v>
       </c>
       <c r="C53" t="s" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" t="s" s="3">
@@ -1820,7 +1856,7 @@
         <v>73</v>
       </c>
       <c r="C54" t="s" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" t="s" s="3">
@@ -1842,7 +1878,7 @@
         <v>73</v>
       </c>
       <c r="C55" t="s" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" t="s" s="3">
@@ -1864,18 +1900,18 @@
         <v>75</v>
       </c>
       <c r="C56" t="s" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F56" t="s" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" t="s" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I56" t="n" s="4">
         <v>-27.58</v>
@@ -1886,21 +1922,21 @@
         <v>75</v>
       </c>
       <c r="C57" t="s" s="3">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F57" t="s" s="3">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" t="s" s="3">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I57" t="n" s="4">
-        <v>-10.25</v>
+        <v>92.09</v>
       </c>
     </row>
     <row r="58">
@@ -1908,21 +1944,21 @@
         <v>75</v>
       </c>
       <c r="C58" t="s" s="3">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F58" t="s" s="3">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" t="s" s="3">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="I58" t="n" s="4">
-        <v>92.09</v>
+        <v>-10.25</v>
       </c>
     </row>
     <row r="59">
@@ -1930,7 +1966,7 @@
         <v>76</v>
       </c>
       <c r="C59" t="s" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" t="s" s="3">
@@ -1952,18 +1988,18 @@
         <v>78</v>
       </c>
       <c r="C60" t="s" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F60" t="s" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" t="s" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I60" t="n" s="4">
         <v>-20.0</v>
@@ -1974,18 +2010,18 @@
         <v>79</v>
       </c>
       <c r="C61" t="s" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F61" t="s" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" t="s" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I61" t="n" s="4">
         <v>-9.94</v>
@@ -1996,7 +2032,7 @@
         <v>79</v>
       </c>
       <c r="C62" t="s" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" t="s" s="3">
@@ -2007,7 +2043,7 @@
       </c>
       <c r="G62" s="3"/>
       <c r="H62" t="s" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I62" t="n" s="4">
         <v>-59.85</v>
@@ -2018,14 +2054,14 @@
         <v>81</v>
       </c>
       <c r="C63" t="s" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F63" t="s" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" t="s" s="3">
@@ -2040,7 +2076,7 @@
         <v>82</v>
       </c>
       <c r="C64" t="s" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" t="s" s="3">
@@ -2062,7 +2098,7 @@
         <v>83</v>
       </c>
       <c r="C65" t="s" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" t="s" s="3">
@@ -2073,7 +2109,7 @@
       </c>
       <c r="G65" s="3"/>
       <c r="H65" t="s" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I65" t="n" s="4">
         <v>-98.94</v>
@@ -2084,7 +2120,7 @@
         <v>84</v>
       </c>
       <c r="C66" t="s" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" t="s" s="3">
@@ -2095,7 +2131,7 @@
       </c>
       <c r="G66" s="3"/>
       <c r="H66" t="s" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I66" t="n" s="4">
         <v>-19.98</v>
@@ -2106,18 +2142,18 @@
         <v>85</v>
       </c>
       <c r="C67" t="s" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F67" t="s" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" t="s" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I67" t="n" s="4">
         <v>-20.0</v>
@@ -2128,18 +2164,18 @@
         <v>86</v>
       </c>
       <c r="C68" t="s" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F68" t="s" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" t="s" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I68" t="n" s="4">
         <v>-10.25</v>
@@ -2150,7 +2186,7 @@
         <v>87</v>
       </c>
       <c r="C69" t="s" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" t="s" s="3">
@@ -2172,7 +2208,7 @@
         <v>88</v>
       </c>
       <c r="C70" t="s" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" t="s" s="3">
@@ -2181,7 +2217,7 @@
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" t="s" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I70" t="n" s="4">
         <v>-19.98</v>
@@ -2192,14 +2228,14 @@
         <v>88</v>
       </c>
       <c r="C71" t="s" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F71" t="s" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G71" s="3"/>
       <c r="H71" t="s" s="3">
@@ -2214,23 +2250,23 @@
         <v>89</v>
       </c>
       <c r="C72" t="s" s="3">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F72" t="s" s="3">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="G72" t="s" s="3">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H72" t="s" s="3">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I72" t="n" s="4">
-        <v>-43.75</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="73">
@@ -2238,23 +2274,23 @@
         <v>89</v>
       </c>
       <c r="C73" t="s" s="3">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F73" t="s" s="3">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="G73" t="s" s="3">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H73" t="s" s="3">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I73" t="n" s="4">
-        <v>1500.0</v>
+        <v>-43.75</v>
       </c>
     </row>
     <row r="74">
@@ -2262,7 +2298,7 @@
         <v>91</v>
       </c>
       <c r="C74" t="s" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" t="s" s="3">
@@ -2280,84 +2316,113 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="2">
+      <c r="B75" t="s" s="3">
         <v>92</v>
       </c>
-      <c r="I75" t="n" s="5">
-        <v>2558.8</v>
+      <c r="C75" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="E75" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F75" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G75" s="3"/>
+      <c r="H75" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I75" t="n" s="4">
+        <v>-20.0</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>39</v>
+      <c r="B76" t="s" s="3">
+        <v>93</v>
+      </c>
+      <c r="C76" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D76" s="3"/>
+      <c r="E76" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F76" t="s" s="3">
+        <v>94</v>
+      </c>
+      <c r="G76" s="3"/>
+      <c r="H76" t="s" s="3">
+        <v>51</v>
+      </c>
+      <c r="I76" t="n" s="4">
+        <v>-186.75</v>
       </c>
     </row>
     <row r="77">
       <c r="B77" t="s" s="3">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="C77" t="s" s="3">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F77" t="s" s="3">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" t="s" s="3">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="I77" t="n" s="4">
-        <v>-600.0</v>
+        <v>-58.37</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" t="s" s="3">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="C78" t="s" s="3">
-        <v>93</v>
-      </c>
-      <c r="D78" t="n" s="3">
-        <v>1180.0</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D78" s="3"/>
       <c r="E78" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F78" t="s" s="3">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" t="s" s="3">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="I78" t="n" s="4">
-        <v>600.0</v>
+        <v>-9.96</v>
       </c>
     </row>
     <row r="79">
       <c r="B79" t="s" s="3">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="C79" t="s" s="3">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F79" t="s" s="3">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" t="s" s="3">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="I79" t="n" s="4">
-        <v>-600.0</v>
+        <v>-58.37</v>
       </c>
     </row>
     <row r="80">
@@ -2365,45 +2430,45 @@
         <v>95</v>
       </c>
       <c r="C80" t="s" s="3">
-        <v>93</v>
-      </c>
-      <c r="D80" t="n" s="3">
-        <v>1181.0</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D80" s="3"/>
       <c r="E80" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F80" t="s" s="3">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" t="s" s="3">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="I80" t="n" s="4">
-        <v>1500.0</v>
+        <v>-25.0</v>
       </c>
     </row>
     <row r="81">
       <c r="B81" t="s" s="3">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="C81" t="s" s="3">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F81" t="s" s="3">
-        <v>56</v>
-      </c>
-      <c r="G81" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="G81" t="s" s="3">
+        <v>29</v>
+      </c>
       <c r="H81" t="s" s="3">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="I81" t="n" s="4">
-        <v>-1500.0</v>
+        <v>-43.75</v>
       </c>
     </row>
     <row r="82">
@@ -2411,133 +2476,133 @@
         <v>96</v>
       </c>
       <c r="C82" t="s" s="3">
-        <v>93</v>
-      </c>
-      <c r="D82" t="n" s="3">
-        <v>1182.0</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D82" s="3"/>
       <c r="E82" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F82" t="s" s="3">
-        <v>90</v>
-      </c>
-      <c r="G82" s="3"/>
+        <v>97</v>
+      </c>
+      <c r="G82" t="s" s="3">
+        <v>33</v>
+      </c>
       <c r="H82" t="s" s="3">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="I82" t="n" s="4">
         <v>1500.0</v>
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="3">
-        <v>97</v>
-      </c>
-      <c r="C83" t="s" s="3">
-        <v>93</v>
-      </c>
-      <c r="D83" t="n" s="3">
-        <v>1183.0</v>
-      </c>
-      <c r="E83" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F83" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="G83" s="3"/>
-      <c r="H83" t="s" s="6">
+      <c r="A83" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="I83" t="n" s="4">
-        <v>1400.0</v>
+      <c r="I83" t="n" s="5">
+        <v>3656.6</v>
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="s" s="3">
-        <v>64</v>
-      </c>
-      <c r="C84" t="s" s="3">
-        <v>37</v>
-      </c>
-      <c r="D84" s="3"/>
-      <c r="E84" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F84" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="G84" s="3"/>
-      <c r="H84" t="s" s="3">
-        <v>34</v>
-      </c>
-      <c r="I84" t="n" s="4">
-        <v>-1400.0</v>
+      <c r="A84" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
     <row r="85">
       <c r="B85" t="s" s="3">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="C85" t="s" s="3">
-        <v>93</v>
-      </c>
-      <c r="D85" t="n" s="3">
-        <v>1184.0</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D85" s="3"/>
       <c r="E85" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F85" t="s" s="3">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="G85" s="3"/>
       <c r="H85" t="s" s="3">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="I85" t="n" s="4">
-        <v>1500.0</v>
+        <v>-600.0</v>
       </c>
     </row>
     <row r="86">
       <c r="B86" t="s" s="3">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="C86" t="s" s="3">
-        <v>37</v>
-      </c>
-      <c r="D86" s="3"/>
+        <v>99</v>
+      </c>
+      <c r="D86" t="n" s="3">
+        <v>1180.0</v>
+      </c>
       <c r="E86" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F86" t="s" s="3">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="G86" s="3"/>
       <c r="H86" t="s" s="3">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="I86" t="n" s="4">
-        <v>-1500.0</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="2">
+      <c r="B87" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="C87" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="D87" s="3"/>
+      <c r="E87" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F87" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="G87" s="3"/>
+      <c r="H87" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I87" t="n" s="4">
+        <v>-600.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" t="s" s="3">
         <v>101</v>
       </c>
-      <c r="I87" t="n" s="5">
-        <v>900.0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="2">
-        <v>34</v>
+      <c r="C88" t="s" s="3">
+        <v>99</v>
+      </c>
+      <c r="D88" t="n" s="3">
+        <v>1181.0</v>
+      </c>
+      <c r="E88" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F88" t="s" s="3">
+        <v>56</v>
+      </c>
+      <c r="G88" s="3"/>
+      <c r="H88" t="s" s="3">
+        <v>100</v>
+      </c>
+      <c r="I88" t="n" s="4">
+        <v>1500.0</v>
       </c>
     </row>
     <row r="89">
       <c r="B89" t="s" s="3">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C89" t="s" s="3">
         <v>37</v>
@@ -2547,64 +2612,62 @@
         <v>11</v>
       </c>
       <c r="F89" t="s" s="3">
-        <v>32</v>
-      </c>
-      <c r="G89" t="s" s="3">
-        <v>102</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G89" s="3"/>
       <c r="H89" t="s" s="3">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="I89" t="n" s="4">
-        <v>600.0</v>
+        <v>-1500.0</v>
       </c>
     </row>
     <row r="90">
       <c r="B90" t="s" s="3">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="C90" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="D90" s="3"/>
+        <v>99</v>
+      </c>
+      <c r="D90" t="n" s="3">
+        <v>1182.0</v>
+      </c>
       <c r="E90" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F90" t="s" s="3">
-        <v>32</v>
-      </c>
-      <c r="G90" t="s" s="3">
-        <v>102</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G90" s="3"/>
       <c r="H90" t="s" s="3">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="I90" t="n" s="4">
-        <v>-600.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="91">
       <c r="B91" t="s" s="3">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C91" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="D91" s="3"/>
+        <v>99</v>
+      </c>
+      <c r="D91" t="n" s="3">
+        <v>1183.0</v>
+      </c>
       <c r="E91" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F91" t="s" s="3">
         <v>65</v>
       </c>
-      <c r="G91" t="s" s="3">
-        <v>103</v>
-      </c>
-      <c r="H91" t="s" s="3">
-        <v>8</v>
+      <c r="G91" s="3"/>
+      <c r="H91" t="s" s="6">
+        <v>104</v>
       </c>
       <c r="I91" t="n" s="4">
-        <v>-1400.0</v>
+        <v>1400.0</v>
       </c>
     </row>
     <row r="92">
@@ -2621,38 +2684,36 @@
       <c r="F92" t="s" s="3">
         <v>65</v>
       </c>
-      <c r="G92" t="s" s="3">
-        <v>103</v>
-      </c>
+      <c r="G92" s="3"/>
       <c r="H92" t="s" s="3">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I92" t="n" s="4">
-        <v>1400.0</v>
+        <v>-1400.0</v>
       </c>
     </row>
     <row r="93">
       <c r="B93" t="s" s="3">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="C93" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="D93" s="3"/>
+        <v>99</v>
+      </c>
+      <c r="D93" t="n" s="3">
+        <v>1184.0</v>
+      </c>
       <c r="E93" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F93" t="s" s="3">
-        <v>90</v>
-      </c>
-      <c r="G93" t="s" s="3">
-        <v>104</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G93" s="3"/>
       <c r="H93" t="s" s="3">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="I93" t="n" s="4">
-        <v>-1500.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="94">
@@ -2669,277 +2730,260 @@
       <c r="F94" t="s" s="3">
         <v>90</v>
       </c>
-      <c r="G94" t="s" s="3">
-        <v>104</v>
-      </c>
+      <c r="G94" s="3"/>
       <c r="H94" t="s" s="3">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I94" t="n" s="4">
-        <v>1500.0</v>
+        <v>-1500.0</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="I95" t="n" s="5">
-        <v>0.0</v>
+      <c r="B95" t="s" s="3">
+        <v>96</v>
+      </c>
+      <c r="C95" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="D95" s="3"/>
+      <c r="E95" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F95" t="s" s="3">
+        <v>97</v>
+      </c>
+      <c r="G95" s="3"/>
+      <c r="H95" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="I95" t="n" s="4">
+        <v>-1500.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>13</v>
+        <v>106</v>
+      </c>
+      <c r="I96" t="n" s="5">
+        <v>-600.0</v>
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="3">
-        <v>106</v>
-      </c>
-      <c r="C97" t="s" s="3">
-        <v>107</v>
-      </c>
-      <c r="D97" s="3"/>
-      <c r="E97" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F97" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="G97" s="3"/>
-      <c r="H97" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="I97" t="n" s="4">
-        <v>20.0</v>
+      <c r="A97" t="s" s="2">
+        <v>34</v>
       </c>
     </row>
     <row r="98">
       <c r="B98" t="s" s="3">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="C98" t="s" s="3">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F98" t="s" s="3">
-        <v>12</v>
-      </c>
-      <c r="G98" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="G98" t="s" s="3">
+        <v>107</v>
+      </c>
       <c r="H98" t="s" s="3">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I98" t="n" s="4">
-        <v>14.99</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="99">
       <c r="B99" t="s" s="3">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C99" t="s" s="3">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F99" t="s" s="3">
-        <v>12</v>
-      </c>
-      <c r="G99" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="G99" t="s" s="3">
+        <v>107</v>
+      </c>
       <c r="H99" t="s" s="3">
         <v>8</v>
       </c>
       <c r="I99" t="n" s="4">
-        <v>-14.99</v>
+        <v>-600.0</v>
       </c>
     </row>
     <row r="100">
       <c r="B100" t="s" s="3">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="C100" t="s" s="3">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F100" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="G100" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="G100" t="s" s="3">
+        <v>108</v>
+      </c>
       <c r="H100" t="s" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I100" t="n" s="4">
-        <v>20.0</v>
+        <v>-1400.0</v>
       </c>
     </row>
     <row r="101">
       <c r="B101" t="s" s="3">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C101" t="s" s="3">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F101" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="G101" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="G101" t="s" s="3">
+        <v>108</v>
+      </c>
       <c r="H101" t="s" s="3">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="I101" t="n" s="4">
-        <v>-20.0</v>
+        <v>1400.0</v>
       </c>
     </row>
     <row r="102">
       <c r="B102" t="s" s="3">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="C102" t="s" s="3">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F102" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="G102" s="3"/>
+        <v>90</v>
+      </c>
+      <c r="G102" t="s" s="3">
+        <v>109</v>
+      </c>
       <c r="H102" t="s" s="3">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="I102" t="n" s="4">
-        <v>-20.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="103">
       <c r="B103" t="s" s="3">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="C103" t="s" s="3">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F103" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="G103" s="3"/>
+        <v>90</v>
+      </c>
+      <c r="G103" t="s" s="3">
+        <v>109</v>
+      </c>
       <c r="H103" t="s" s="3">
         <v>8</v>
       </c>
       <c r="I103" t="n" s="4">
-        <v>-20.0</v>
+        <v>-1500.0</v>
       </c>
     </row>
     <row r="104">
       <c r="B104" t="s" s="3">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="C104" t="s" s="3">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F104" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="G104" s="3"/>
+        <v>97</v>
+      </c>
+      <c r="G104" t="s" s="3">
+        <v>110</v>
+      </c>
       <c r="H104" t="s" s="3">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I104" t="n" s="4">
-        <v>20.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="105">
       <c r="B105" t="s" s="3">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="C105" t="s" s="3">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="D105" s="3"/>
       <c r="E105" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F105" t="s" s="3">
-        <v>12</v>
-      </c>
-      <c r="G105" s="3"/>
+        <v>97</v>
+      </c>
+      <c r="G105" t="s" s="3">
+        <v>110</v>
+      </c>
       <c r="H105" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I105" t="n" s="4">
+        <v>-1500.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="I106" t="n" s="5">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
         <v>16</v>
-      </c>
-      <c r="I105" t="n" s="4">
-        <v>14.99</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="B106" t="s" s="3">
-        <v>24</v>
-      </c>
-      <c r="C106" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="D106" s="3"/>
-      <c r="E106" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F106" t="s" s="3">
-        <v>12</v>
-      </c>
-      <c r="G106" s="3"/>
-      <c r="H106" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I106" t="n" s="4">
-        <v>-14.99</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="B107" t="s" s="3">
-        <v>109</v>
-      </c>
-      <c r="C107" t="s" s="3">
-        <v>107</v>
-      </c>
-      <c r="D107" s="3"/>
-      <c r="E107" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F107" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="G107" s="3"/>
-      <c r="H107" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="I107" t="n" s="4">
-        <v>20.0</v>
       </c>
     </row>
     <row r="108">
       <c r="B108" t="s" s="3">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="C108" t="s" s="3">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" t="s" s="3">
@@ -2950,91 +2994,91 @@
       </c>
       <c r="G108" s="3"/>
       <c r="H108" t="s" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I108" t="n" s="4">
-        <v>-20.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="109">
       <c r="B109" t="s" s="3">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C109" t="s" s="3">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D109" s="3"/>
       <c r="E109" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F109" t="s" s="3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G109" s="3"/>
       <c r="H109" t="s" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I109" t="n" s="4">
-        <v>20.0</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="110">
       <c r="B110" t="s" s="3">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s" s="3">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="D110" s="3"/>
       <c r="E110" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F110" t="s" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G110" s="3"/>
       <c r="H110" t="s" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I110" t="n" s="4">
-        <v>14.99</v>
+        <v>-14.99</v>
       </c>
     </row>
     <row r="111">
       <c r="B111" t="s" s="3">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="C111" t="s" s="3">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="D111" s="3"/>
       <c r="E111" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F111" t="s" s="3">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G111" s="3"/>
       <c r="H111" t="s" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I111" t="n" s="4">
-        <v>-14.99</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="112">
       <c r="B112" t="s" s="3">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C112" t="s" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D112" s="3"/>
       <c r="E112" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F112" t="s" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G112" s="3"/>
       <c r="H112" t="s" s="3">
@@ -3046,32 +3090,32 @@
     </row>
     <row r="113">
       <c r="B113" t="s" s="3">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="C113" t="s" s="3">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="D113" s="3"/>
       <c r="E113" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F113" t="s" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G113" s="3"/>
       <c r="H113" t="s" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I113" t="n" s="4">
-        <v>20.0</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="114">
       <c r="B114" t="s" s="3">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C114" t="s" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" t="s" s="3">
@@ -3090,120 +3134,120 @@
     </row>
     <row r="115">
       <c r="B115" t="s" s="3">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C115" t="s" s="3">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D115" s="3"/>
       <c r="E115" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F115" t="s" s="3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G115" s="3"/>
       <c r="H115" t="s" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I115" t="n" s="4">
-        <v>20.0</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="116">
       <c r="B116" t="s" s="3">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C116" t="s" s="3">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D116" s="3"/>
       <c r="E116" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F116" t="s" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G116" s="3"/>
       <c r="H116" t="s" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I116" t="n" s="4">
-        <v>14.99</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="117">
       <c r="B117" t="s" s="3">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C117" t="s" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D117" s="3"/>
       <c r="E117" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F117" t="s" s="3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G117" s="3"/>
       <c r="H117" t="s" s="3">
         <v>8</v>
       </c>
       <c r="I117" t="n" s="4">
-        <v>-20.0</v>
+        <v>-14.99</v>
       </c>
     </row>
     <row r="118">
       <c r="B118" t="s" s="3">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="C118" t="s" s="3">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F118" t="s" s="3">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G118" s="3"/>
       <c r="H118" t="s" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I118" t="n" s="4">
-        <v>-14.99</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="119">
       <c r="B119" t="s" s="3">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C119" t="s" s="3">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="D119" s="3"/>
       <c r="E119" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F119" t="s" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G119" s="3"/>
       <c r="H119" t="s" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I119" t="n" s="4">
-        <v>20.0</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="120">
       <c r="B120" t="s" s="3">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="C120" t="s" s="3">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" t="s" s="3">
@@ -3214,62 +3258,62 @@
       </c>
       <c r="G120" s="3"/>
       <c r="H120" t="s" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I120" t="n" s="4">
-        <v>-20.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="121">
       <c r="B121" t="s" s="3">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C121" t="s" s="3">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F121" t="s" s="3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G121" s="3"/>
       <c r="H121" t="s" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I121" t="n" s="4">
-        <v>20.0</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="122">
       <c r="B122" t="s" s="3">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C122" t="s" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D122" s="3"/>
       <c r="E122" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F122" t="s" s="3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G122" s="3"/>
       <c r="H122" t="s" s="3">
         <v>8</v>
       </c>
       <c r="I122" t="n" s="4">
-        <v>-20.0</v>
+        <v>-14.99</v>
       </c>
     </row>
     <row r="123">
       <c r="B123" t="s" s="3">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="C123" t="s" s="3">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="D123" s="3"/>
       <c r="E123" t="s" s="3">
@@ -3280,40 +3324,40 @@
       </c>
       <c r="G123" s="3"/>
       <c r="H123" t="s" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I123" t="n" s="4">
-        <v>20.0</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="124">
       <c r="B124" t="s" s="3">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="C124" t="s" s="3">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="D124" s="3"/>
       <c r="E124" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F124" t="s" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G124" s="3"/>
       <c r="H124" t="s" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I124" t="n" s="4">
-        <v>-20.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="125">
       <c r="B125" t="s" s="3">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C125" t="s" s="3">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="D125" s="3"/>
       <c r="E125" t="s" s="3">
@@ -3324,62 +3368,62 @@
       </c>
       <c r="G125" s="3"/>
       <c r="H125" t="s" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I125" t="n" s="4">
-        <v>20.0</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="126">
       <c r="B126" t="s" s="3">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C126" t="s" s="3">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F126" t="s" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G126" s="3"/>
       <c r="H126" t="s" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I126" t="n" s="4">
-        <v>-20.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="127">
       <c r="B127" t="s" s="3">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="C127" t="s" s="3">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F127" t="s" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G127" s="3"/>
       <c r="H127" t="s" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I127" t="n" s="4">
-        <v>20.0</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="128">
       <c r="B128" t="s" s="3">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C128" t="s" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D128" s="3"/>
       <c r="E128" t="s" s="3">
@@ -3398,10 +3442,10 @@
     </row>
     <row r="129">
       <c r="B129" t="s" s="3">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C129" t="s" s="3">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D129" s="3"/>
       <c r="E129" t="s" s="3">
@@ -3412,7 +3456,7 @@
       </c>
       <c r="G129" s="3"/>
       <c r="H129" t="s" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I129" t="n" s="4">
         <v>20.0</v>
@@ -3420,54 +3464,54 @@
     </row>
     <row r="130">
       <c r="B130" t="s" s="3">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C130" t="s" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D130" s="3"/>
       <c r="E130" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F130" t="s" s="3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G130" s="3"/>
       <c r="H130" t="s" s="3">
         <v>8</v>
       </c>
       <c r="I130" t="n" s="4">
-        <v>-20.0</v>
+        <v>-14.99</v>
       </c>
     </row>
     <row r="131">
       <c r="B131" t="s" s="3">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="C131" t="s" s="3">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="D131" s="3"/>
       <c r="E131" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F131" t="s" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G131" s="3"/>
       <c r="H131" t="s" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I131" t="n" s="4">
-        <v>20.0</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="132">
       <c r="B132" t="s" s="3">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="C132" t="s" s="3">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="D132" s="3"/>
       <c r="E132" t="s" s="3">
@@ -3478,40 +3522,40 @@
       </c>
       <c r="G132" s="3"/>
       <c r="H132" t="s" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I132" t="n" s="4">
-        <v>-20.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="133">
       <c r="B133" t="s" s="3">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="C133" t="s" s="3">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="D133" s="3"/>
       <c r="E133" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F133" t="s" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G133" s="3"/>
       <c r="H133" t="s" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I133" t="n" s="4">
-        <v>20.0</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="134">
       <c r="B134" t="s" s="3">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="C134" t="s" s="3">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="D134" s="3"/>
       <c r="E134" t="s" s="3">
@@ -3522,40 +3566,40 @@
       </c>
       <c r="G134" s="3"/>
       <c r="H134" t="s" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I134" t="n" s="4">
-        <v>-20.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="135">
       <c r="B135" t="s" s="3">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="C135" t="s" s="3">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="D135" s="3"/>
       <c r="E135" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F135" t="s" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G135" s="3"/>
       <c r="H135" t="s" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I135" t="n" s="4">
-        <v>20.0</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="136">
       <c r="B136" t="s" s="3">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C136" t="s" s="3">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="D136" s="3"/>
       <c r="E136" t="s" s="3">
@@ -3566,40 +3610,40 @@
       </c>
       <c r="G136" s="3"/>
       <c r="H136" t="s" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I136" t="n" s="4">
-        <v>-20.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="137">
       <c r="B137" t="s" s="3">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C137" t="s" s="3">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="D137" s="3"/>
       <c r="E137" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F137" t="s" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G137" s="3"/>
       <c r="H137" t="s" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I137" t="n" s="4">
-        <v>20.0</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="138">
       <c r="B138" t="s" s="3">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="C138" t="s" s="3">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="D138" s="3"/>
       <c r="E138" t="s" s="3">
@@ -3610,128 +3654,128 @@
       </c>
       <c r="G138" s="3"/>
       <c r="H138" t="s" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I138" t="n" s="4">
-        <v>-20.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="139">
       <c r="B139" t="s" s="3">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="C139" t="s" s="3">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="D139" s="3"/>
       <c r="E139" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F139" t="s" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G139" s="3"/>
       <c r="H139" t="s" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I139" t="n" s="4">
-        <v>20.0</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="140">
       <c r="B140" t="s" s="3">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="C140" t="s" s="3">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="D140" s="3"/>
       <c r="E140" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F140" t="s" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G140" s="3"/>
       <c r="H140" t="s" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I140" t="n" s="4">
-        <v>20.0</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="141">
       <c r="B141" t="s" s="3">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="C141" t="s" s="3">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="D141" s="3"/>
       <c r="E141" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F141" t="s" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G141" s="3"/>
       <c r="H141" t="s" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I141" t="n" s="4">
-        <v>-20.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="142">
       <c r="B142" t="s" s="3">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C142" t="s" s="3">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D142" s="3"/>
       <c r="E142" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F142" t="s" s="3">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="G142" s="3"/>
       <c r="H142" t="s" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I142" t="n" s="4">
-        <v>59.85</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="143">
       <c r="B143" t="s" s="3">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C143" t="s" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D143" s="3"/>
       <c r="E143" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F143" t="s" s="3">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="G143" s="3"/>
       <c r="H143" t="s" s="3">
         <v>8</v>
       </c>
       <c r="I143" t="n" s="4">
-        <v>-59.85</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="144">
       <c r="B144" t="s" s="3">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C144" t="s" s="3">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D144" s="3"/>
       <c r="E144" t="s" s="3">
@@ -3742,7 +3786,7 @@
       </c>
       <c r="G144" s="3"/>
       <c r="H144" t="s" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I144" t="n" s="4">
         <v>20.0</v>
@@ -3750,32 +3794,32 @@
     </row>
     <row r="145">
       <c r="B145" t="s" s="3">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="C145" t="s" s="3">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="D145" s="3"/>
       <c r="E145" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F145" t="s" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G145" s="3"/>
       <c r="H145" t="s" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I145" t="n" s="4">
-        <v>20.0</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="146">
       <c r="B146" t="s" s="3">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="C146" t="s" s="3">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="D146" s="3"/>
       <c r="E146" t="s" s="3">
@@ -3786,1055 +3830,1099 @@
       </c>
       <c r="G146" s="3"/>
       <c r="H146" t="s" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I146" t="n" s="4">
-        <v>-20.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="147">
       <c r="B147" t="s" s="3">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C147" t="s" s="3">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="D147" s="3"/>
       <c r="E147" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F147" t="s" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G147" s="3"/>
       <c r="H147" t="s" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I147" t="n" s="4">
+        <v>-20.0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="B148" t="s" s="3">
+        <v>69</v>
+      </c>
+      <c r="C148" t="s" s="3">
+        <v>113</v>
+      </c>
+      <c r="D148" s="3"/>
+      <c r="E148" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F148" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G148" s="3"/>
+      <c r="H148" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="I148" t="n" s="4">
         <v>20.0</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="I148" t="n" s="5">
-        <v>60.0</v>
-      </c>
-    </row>
     <row r="149">
-      <c r="A149" t="s" s="2">
-        <v>122</v>
+      <c r="B149" t="s" s="3">
+        <v>69</v>
+      </c>
+      <c r="C149" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D149" s="3"/>
+      <c r="E149" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F149" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G149" s="3"/>
+      <c r="H149" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I149" t="n" s="4">
+        <v>-20.0</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="2">
-        <v>123</v>
+      <c r="B150" t="s" s="3">
+        <v>124</v>
+      </c>
+      <c r="C150" t="s" s="3">
+        <v>113</v>
+      </c>
+      <c r="D150" s="3"/>
+      <c r="E150" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F150" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G150" s="3"/>
+      <c r="H150" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="I150" t="n" s="4">
+        <v>20.0</v>
       </c>
     </row>
     <row r="151">
       <c r="B151" t="s" s="3">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="C151" t="s" s="3">
-        <v>93</v>
-      </c>
-      <c r="D151" t="n" s="3">
-        <v>1180.0</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D151" s="3"/>
       <c r="E151" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F151" t="s" s="3">
-        <v>38</v>
-      </c>
-      <c r="G151" t="s" s="3">
-        <v>124</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G151" s="3"/>
       <c r="H151" t="s" s="3">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="I151" t="n" s="4">
-        <v>600.0</v>
+        <v>-20.0</v>
       </c>
     </row>
     <row r="152">
       <c r="B152" t="s" s="3">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C152" t="s" s="3">
-        <v>93</v>
-      </c>
-      <c r="D152" t="n" s="3">
-        <v>1181.0</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="D152" s="3"/>
       <c r="E152" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F152" t="s" s="3">
-        <v>56</v>
-      </c>
-      <c r="G152" t="s" s="3">
-        <v>125</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G152" s="3"/>
       <c r="H152" t="s" s="3">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="I152" t="n" s="4">
-        <v>1500.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="153">
       <c r="B153" t="s" s="3">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="C153" t="s" s="3">
-        <v>93</v>
-      </c>
-      <c r="D153" t="n" s="3">
-        <v>1182.0</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="D153" s="3"/>
       <c r="E153" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F153" t="s" s="3">
-        <v>90</v>
-      </c>
-      <c r="G153" t="s" s="3">
-        <v>125</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G153" s="3"/>
       <c r="H153" t="s" s="3">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="I153" t="n" s="4">
-        <v>1500.0</v>
+        <v>59.85</v>
       </c>
     </row>
     <row r="154">
       <c r="B154" t="s" s="3">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C154" t="s" s="3">
-        <v>93</v>
-      </c>
-      <c r="D154" t="n" s="3">
-        <v>1183.0</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D154" s="3"/>
       <c r="E154" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F154" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="G154" t="s" s="3">
-        <v>125</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G154" s="3"/>
       <c r="H154" t="s" s="3">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="I154" t="n" s="4">
-        <v>1500.0</v>
+        <v>-59.85</v>
       </c>
     </row>
     <row r="155">
       <c r="B155" t="s" s="3">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="C155" t="s" s="3">
-        <v>93</v>
-      </c>
-      <c r="D155" t="n" s="3">
-        <v>1184.0</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="D155" s="3"/>
       <c r="E155" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F155" t="s" s="3">
-        <v>100</v>
-      </c>
-      <c r="G155" t="s" s="3">
-        <v>125</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G155" s="3"/>
       <c r="H155" t="s" s="3">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="I155" t="n" s="4">
-        <v>1500.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="I156" t="n" s="5">
-        <v>6600.0</v>
+      <c r="B156" t="s" s="3">
+        <v>85</v>
+      </c>
+      <c r="C156" t="s" s="3">
+        <v>113</v>
+      </c>
+      <c r="D156" s="3"/>
+      <c r="E156" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F156" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G156" s="3"/>
+      <c r="H156" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="I156" t="n" s="4">
+        <v>20.0</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="I157" t="n" s="5">
-        <v>6600.0</v>
+      <c r="B157" t="s" s="3">
+        <v>85</v>
+      </c>
+      <c r="C157" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D157" s="3"/>
+      <c r="E157" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F157" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G157" s="3"/>
+      <c r="H157" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I157" t="n" s="4">
+        <v>-20.0</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="2">
-        <v>128</v>
+      <c r="B158" t="s" s="3">
+        <v>87</v>
+      </c>
+      <c r="C158" t="s" s="3">
+        <v>113</v>
+      </c>
+      <c r="D158" s="3"/>
+      <c r="E158" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F158" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G158" s="3"/>
+      <c r="H158" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="I158" t="n" s="4">
+        <v>20.0</v>
       </c>
     </row>
     <row r="159">
       <c r="B159" t="s" s="3">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C159" t="s" s="3">
-        <v>93</v>
-      </c>
-      <c r="D159" t="n" s="3">
-        <v>1183.0</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="D159" s="3"/>
       <c r="E159" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F159" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="G159" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G159" s="3"/>
+      <c r="H159" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="I159" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="B160" t="s" s="3">
+        <v>92</v>
+      </c>
+      <c r="C160" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D160" s="3"/>
+      <c r="E160" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F160" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G160" s="3"/>
+      <c r="H160" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I160" t="n" s="4">
+        <v>-20.0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="B161" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="C161" t="s" s="3">
+        <v>113</v>
+      </c>
+      <c r="D161" s="3"/>
+      <c r="E161" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F161" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G161" s="3"/>
+      <c r="H161" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="I161" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="I162" t="n" s="5">
+        <v>80.0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="H159" t="s" s="3">
-        <v>39</v>
-      </c>
-      <c r="I159" t="n" s="4">
-        <v>-100.0</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="I160" t="n" s="5">
-        <v>-100.0</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="B162" t="s" s="3">
-        <v>70</v>
-      </c>
-      <c r="C162" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="D162" s="3"/>
-      <c r="E162" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F162" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="G162" t="s" s="3">
-        <v>131</v>
-      </c>
-      <c r="H162" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I162" t="n" s="4">
-        <v>22.02</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="B163" t="s" s="3">
-        <v>75</v>
-      </c>
-      <c r="C163" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="D163" s="3"/>
-      <c r="E163" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F163" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="G163" t="s" s="3">
-        <v>132</v>
-      </c>
-      <c r="H163" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I163" t="n" s="4">
-        <v>92.09</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="I164" t="n" s="5">
-        <v>114.11</v>
+        <v>130</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="2">
-        <v>74</v>
+      <c r="B165" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="C165" t="s" s="3">
+        <v>99</v>
+      </c>
+      <c r="D165" t="n" s="3">
+        <v>1180.0</v>
+      </c>
+      <c r="E165" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F165" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="G165" t="s" s="3">
+        <v>131</v>
+      </c>
+      <c r="H165" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="I165" t="n" s="4">
+        <v>600.0</v>
       </c>
     </row>
     <row r="166">
       <c r="B166" t="s" s="3">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="C166" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D166" s="3"/>
+        <v>99</v>
+      </c>
+      <c r="D166" t="n" s="3">
+        <v>1181.0</v>
+      </c>
       <c r="E166" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F166" t="s" s="3">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="G166" t="s" s="3">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H166" t="s" s="3">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="I166" t="n" s="4">
-        <v>35.88</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="167">
       <c r="B167" t="s" s="3">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C167" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D167" s="3"/>
+        <v>99</v>
+      </c>
+      <c r="D167" t="n" s="3">
+        <v>1182.0</v>
+      </c>
       <c r="E167" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F167" t="s" s="3">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="G167" t="s" s="3">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H167" t="s" s="3">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="I167" t="n" s="4">
-        <v>35.53</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="I168" t="n" s="5">
-        <v>71.41</v>
+      <c r="B168" t="s" s="3">
+        <v>103</v>
+      </c>
+      <c r="C168" t="s" s="3">
+        <v>99</v>
+      </c>
+      <c r="D168" t="n" s="3">
+        <v>1183.0</v>
+      </c>
+      <c r="E168" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F168" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="G168" t="s" s="3">
+        <v>132</v>
+      </c>
+      <c r="H168" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="I168" t="n" s="4">
+        <v>1500.0</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="s" s="2">
-        <v>137</v>
+      <c r="B169" t="s" s="3">
+        <v>105</v>
+      </c>
+      <c r="C169" t="s" s="3">
+        <v>99</v>
+      </c>
+      <c r="D169" t="n" s="3">
+        <v>1184.0</v>
+      </c>
+      <c r="E169" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F169" t="s" s="3">
+        <v>97</v>
+      </c>
+      <c r="G169" t="s" s="3">
+        <v>132</v>
+      </c>
+      <c r="H169" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="I169" t="n" s="4">
+        <v>1500.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>138</v>
+        <v>133</v>
+      </c>
+      <c r="I170" t="n" s="5">
+        <v>6600.0</v>
       </c>
     </row>
     <row r="171">
-      <c r="B171" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C171" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="D171" t="n" s="3">
-        <v>2001.0</v>
-      </c>
-      <c r="E171" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F171" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="G171" t="s" s="3">
-        <v>139</v>
-      </c>
-      <c r="H171" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I171" t="n" s="4">
-        <v>1148.0</v>
+      <c r="A171" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="I171" t="n" s="5">
+        <v>6600.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="I172" t="n" s="5">
-        <v>1148.0</v>
+        <v>135</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s" s="2">
-        <v>141</v>
+      <c r="B173" t="s" s="3">
+        <v>103</v>
+      </c>
+      <c r="C173" t="s" s="3">
+        <v>99</v>
+      </c>
+      <c r="D173" t="n" s="3">
+        <v>1183.0</v>
+      </c>
+      <c r="E173" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F173" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="G173" t="s" s="3">
+        <v>136</v>
+      </c>
+      <c r="H173" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="I173" t="n" s="4">
+        <v>-100.0</v>
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="3">
-        <v>49</v>
-      </c>
-      <c r="C174" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D174" s="3"/>
-      <c r="E174" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F174" t="s" s="3">
-        <v>50</v>
-      </c>
-      <c r="G174" t="s" s="3">
-        <v>142</v>
-      </c>
-      <c r="H174" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I174" t="n" s="4">
-        <v>71.45</v>
+      <c r="A174" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="I174" t="n" s="5">
+        <v>-100.0</v>
       </c>
     </row>
     <row r="175">
-      <c r="B175" t="s" s="3">
-        <v>53</v>
-      </c>
-      <c r="C175" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D175" s="3"/>
-      <c r="E175" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F175" t="s" s="3">
-        <v>50</v>
-      </c>
-      <c r="G175" t="s" s="3">
-        <v>143</v>
-      </c>
-      <c r="H175" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I175" t="n" s="4">
-        <v>73.99</v>
+      <c r="A175" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="176">
       <c r="B176" t="s" s="3">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C176" t="s" s="3">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D176" s="3"/>
       <c r="E176" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F176" t="s" s="3">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="G176" t="s" s="3">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H176" t="s" s="3">
         <v>8</v>
       </c>
       <c r="I176" t="n" s="4">
-        <v>122.78</v>
+        <v>22.02</v>
       </c>
     </row>
     <row r="177">
       <c r="B177" t="s" s="3">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C177" t="s" s="3">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D177" s="3"/>
       <c r="E177" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F177" t="s" s="3">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="G177" t="s" s="3">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H177" t="s" s="3">
         <v>8</v>
       </c>
       <c r="I177" t="n" s="4">
-        <v>60.91</v>
+        <v>92.09</v>
       </c>
     </row>
     <row r="178">
-      <c r="B178" t="s" s="3">
-        <v>73</v>
-      </c>
-      <c r="C178" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D178" s="3"/>
-      <c r="E178" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F178" t="s" s="3">
-        <v>50</v>
-      </c>
-      <c r="G178" t="s" s="3">
-        <v>146</v>
-      </c>
-      <c r="H178" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I178" t="n" s="4">
-        <v>86.37</v>
+      <c r="A178" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="I178" t="n" s="5">
+        <v>114.11</v>
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="3">
-        <v>82</v>
-      </c>
-      <c r="C179" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D179" s="3"/>
-      <c r="E179" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F179" t="s" s="3">
-        <v>50</v>
-      </c>
-      <c r="G179" t="s" s="3">
-        <v>147</v>
-      </c>
-      <c r="H179" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I179" t="n" s="4">
-        <v>62.03</v>
+      <c r="A179" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="180">
       <c r="B180" t="s" s="3">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C180" t="s" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D180" s="3"/>
       <c r="E180" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F180" t="s" s="3">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="G180" t="s" s="3">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="H180" t="s" s="3">
         <v>8</v>
       </c>
       <c r="I180" t="n" s="4">
-        <v>69.36</v>
+        <v>35.53</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="I181" t="n" s="5">
-        <v>546.89</v>
+      <c r="B181" t="s" s="3">
+        <v>73</v>
+      </c>
+      <c r="C181" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D181" s="3"/>
+      <c r="E181" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F181" t="s" s="3">
+        <v>67</v>
+      </c>
+      <c r="G181" t="s" s="3">
+        <v>142</v>
+      </c>
+      <c r="H181" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I181" t="n" s="4">
+        <v>35.88</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>150</v>
+        <v>143</v>
+      </c>
+      <c r="I182" t="n" s="5">
+        <v>71.41</v>
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="3">
-        <v>44</v>
-      </c>
-      <c r="C183" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D183" s="3"/>
-      <c r="E183" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F183" s="3"/>
-      <c r="G183" t="s" s="3">
-        <v>151</v>
-      </c>
-      <c r="H183" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I183" t="n" s="4">
-        <v>17.98</v>
+      <c r="A183" t="s" s="2">
+        <v>144</v>
       </c>
     </row>
     <row r="184">
-      <c r="B184" t="s" s="3">
-        <v>46</v>
-      </c>
-      <c r="C184" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D184" s="3"/>
-      <c r="E184" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F184" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="G184" t="s" s="3">
-        <v>152</v>
-      </c>
-      <c r="H184" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I184" t="n" s="4">
-        <v>98.94</v>
+      <c r="A184" t="s" s="2">
+        <v>145</v>
       </c>
     </row>
     <row r="185">
       <c r="B185" t="s" s="3">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C185" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D185" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="D185" t="n" s="3">
+        <v>2001.0</v>
+      </c>
       <c r="E185" t="s" s="3">
         <v>11</v>
       </c>
-      <c r="F185" s="3"/>
+      <c r="F185" t="s" s="3">
+        <v>22</v>
+      </c>
       <c r="G185" t="s" s="3">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="H185" t="s" s="3">
         <v>8</v>
       </c>
       <c r="I185" t="n" s="4">
-        <v>39.96</v>
+        <v>1148.0</v>
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="3">
-        <v>76</v>
-      </c>
-      <c r="C186" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D186" s="3"/>
-      <c r="E186" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F186" t="s" s="3">
-        <v>77</v>
-      </c>
-      <c r="G186" t="s" s="3">
-        <v>154</v>
-      </c>
-      <c r="H186" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I186" t="n" s="4">
-        <v>19.98</v>
+      <c r="A186" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="I186" t="n" s="5">
+        <v>1148.0</v>
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="3">
-        <v>81</v>
-      </c>
-      <c r="C187" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D187" s="3"/>
-      <c r="E187" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F187" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="G187" t="s" s="3">
-        <v>155</v>
-      </c>
-      <c r="H187" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I187" t="n" s="4">
-        <v>25.0</v>
+      <c r="A187" t="s" s="2">
+        <v>148</v>
       </c>
     </row>
     <row r="188">
       <c r="B188" t="s" s="3">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="C188" t="s" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D188" s="3"/>
       <c r="E188" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F188" t="s" s="3">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="G188" t="s" s="3">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="H188" t="s" s="3">
         <v>8</v>
       </c>
       <c r="I188" t="n" s="4">
-        <v>25.0</v>
+        <v>71.45</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="I189" t="n" s="5">
-        <v>226.86</v>
+      <c r="B189" t="s" s="3">
+        <v>53</v>
+      </c>
+      <c r="C189" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D189" s="3"/>
+      <c r="E189" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F189" t="s" s="3">
+        <v>50</v>
+      </c>
+      <c r="G189" t="s" s="3">
+        <v>150</v>
+      </c>
+      <c r="H189" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I189" t="n" s="4">
+        <v>73.99</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="2">
-        <v>158</v>
+      <c r="B190" t="s" s="3">
+        <v>59</v>
+      </c>
+      <c r="C190" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D190" s="3"/>
+      <c r="E190" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F190" t="s" s="3">
+        <v>50</v>
+      </c>
+      <c r="G190" t="s" s="3">
+        <v>151</v>
+      </c>
+      <c r="H190" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I190" t="n" s="4">
+        <v>122.78</v>
       </c>
     </row>
     <row r="191">
       <c r="B191" t="s" s="3">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="C191" t="s" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D191" s="3"/>
       <c r="E191" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F191" t="s" s="3">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="G191" t="s" s="3">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c r="H191" t="s" s="3">
         <v>8</v>
       </c>
       <c r="I191" t="n" s="4">
-        <v>6.0</v>
+        <v>60.91</v>
       </c>
     </row>
     <row r="192">
       <c r="B192" t="s" s="3">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C192" t="s" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D192" s="3"/>
       <c r="E192" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F192" t="s" s="3">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="G192" t="s" s="3">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="H192" t="s" s="3">
         <v>8</v>
       </c>
       <c r="I192" t="n" s="4">
-        <v>40.85</v>
+        <v>86.37</v>
       </c>
     </row>
     <row r="193">
       <c r="B193" t="s" s="3">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C193" t="s" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D193" s="3"/>
       <c r="E193" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F193" t="s" s="3">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="G193" t="s" s="3">
-        <v>29</v>
+        <v>154</v>
       </c>
       <c r="H193" t="s" s="3">
         <v>8</v>
       </c>
       <c r="I193" t="n" s="4">
-        <v>43.75</v>
+        <v>62.03</v>
       </c>
     </row>
     <row r="194">
       <c r="B194" t="s" s="3">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C194" t="s" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D194" s="3"/>
       <c r="E194" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F194" t="s" s="3">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="G194" t="s" s="3">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H194" t="s" s="3">
         <v>8</v>
       </c>
       <c r="I194" t="n" s="4">
-        <v>43.75</v>
+        <v>69.36</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="I195" t="n" s="5">
-        <v>134.35</v>
+      <c r="B195" t="s" s="3">
+        <v>93</v>
+      </c>
+      <c r="C195" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D195" s="3"/>
+      <c r="E195" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F195" t="s" s="3">
+        <v>94</v>
+      </c>
+      <c r="G195" t="s" s="3">
+        <v>156</v>
+      </c>
+      <c r="H195" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I195" t="n" s="4">
+        <v>186.75</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="s" s="2">
-        <v>161</v>
+      <c r="B196" t="s" s="3">
+        <v>93</v>
+      </c>
+      <c r="C196" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D196" s="3"/>
+      <c r="E196" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F196" t="s" s="3">
+        <v>94</v>
+      </c>
+      <c r="G196" t="s" s="3">
+        <v>157</v>
+      </c>
+      <c r="H196" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I196" t="n" s="4">
+        <v>58.37</v>
       </c>
     </row>
     <row r="197">
       <c r="B197" t="s" s="3">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C197" t="s" s="3">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="D197" s="3"/>
       <c r="E197" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F197" t="s" s="3">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="G197" t="s" s="3">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H197" t="s" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I197" t="n" s="4">
-        <v>14.99</v>
+        <v>58.37</v>
       </c>
     </row>
     <row r="198">
-      <c r="B198" t="s" s="3">
-        <v>106</v>
-      </c>
-      <c r="C198" t="s" s="3">
-        <v>107</v>
-      </c>
-      <c r="D198" s="3"/>
-      <c r="E198" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F198" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="G198" t="s" s="3">
-        <v>163</v>
-      </c>
-      <c r="H198" t="s" s="3">
-        <v>13</v>
-      </c>
-      <c r="I198" t="n" s="4">
-        <v>20.0</v>
+      <c r="A198" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="I198" t="n" s="5">
+        <v>850.38</v>
       </c>
     </row>
     <row r="199">
-      <c r="B199" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="C199" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D199" t="n" s="3">
-        <v>6.36334269E8</v>
-      </c>
-      <c r="E199" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F199" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="G199" s="3"/>
-      <c r="H199" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I199" t="n" s="4">
-        <v>10.29</v>
+      <c r="A199" t="s" s="2">
+        <v>160</v>
       </c>
     </row>
     <row r="200">
       <c r="B200" t="s" s="3">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="C200" t="s" s="3">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="D200" s="3"/>
       <c r="E200" t="s" s="3">
         <v>11</v>
       </c>
-      <c r="F200" t="s" s="3">
-        <v>18</v>
-      </c>
+      <c r="F200" s="3"/>
       <c r="G200" t="s" s="3">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H200" t="s" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I200" t="n" s="4">
-        <v>20.0</v>
+        <v>17.98</v>
       </c>
     </row>
     <row r="201">
       <c r="B201" t="s" s="3">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C201" t="s" s="3">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="D201" s="3"/>
       <c r="E201" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F201" t="s" s="3">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="G201" t="s" s="3">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H201" t="s" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I201" t="n" s="4">
-        <v>20.0</v>
+        <v>98.94</v>
       </c>
     </row>
     <row r="202">
       <c r="B202" t="s" s="3">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C202" t="s" s="3">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="D202" s="3"/>
       <c r="E202" t="s" s="3">
         <v>11</v>
       </c>
-      <c r="F202" t="s" s="3">
-        <v>12</v>
-      </c>
+      <c r="F202" s="3"/>
       <c r="G202" t="s" s="3">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H202" t="s" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I202" t="n" s="4">
-        <v>14.99</v>
+        <v>39.96</v>
       </c>
     </row>
     <row r="203">
       <c r="B203" t="s" s="3">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="C203" t="s" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D203" s="3"/>
       <c r="E203" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F203" t="s" s="3">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="G203" t="s" s="3">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H203" t="s" s="3">
         <v>8</v>
       </c>
       <c r="I203" t="n" s="4">
-        <v>10.22</v>
+        <v>19.98</v>
       </c>
     </row>
     <row r="204">
       <c r="B204" t="s" s="3">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="C204" t="s" s="3">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="D204" s="3"/>
       <c r="E204" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F204" t="s" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G204" t="s" s="3">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H204" t="s" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I204" t="n" s="4">
-        <v>20.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="205">
       <c r="B205" t="s" s="3">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="C205" t="s" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D205" s="3"/>
       <c r="E205" t="s" s="3">
         <v>11</v>
       </c>
-      <c r="F205" s="3"/>
+      <c r="F205" t="s" s="3">
+        <v>19</v>
+      </c>
       <c r="G205" t="s" s="3">
         <v>166</v>
       </c>
@@ -4842,255 +4930,185 @@
         <v>8</v>
       </c>
       <c r="I205" t="n" s="4">
-        <v>232.48</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="206">
       <c r="B206" t="s" s="3">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C206" t="s" s="3">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="D206" s="3"/>
       <c r="E206" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F206" t="s" s="3">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G206" t="s" s="3">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H206" t="s" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I206" t="n" s="4">
-        <v>14.99</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="207">
-      <c r="B207" t="s" s="3">
-        <v>110</v>
-      </c>
-      <c r="C207" t="s" s="3">
-        <v>107</v>
-      </c>
-      <c r="D207" s="3"/>
-      <c r="E207" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F207" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="G207" t="s" s="3">
-        <v>163</v>
-      </c>
-      <c r="H207" t="s" s="3">
-        <v>13</v>
-      </c>
-      <c r="I207" t="n" s="4">
-        <v>20.0</v>
+      <c r="A207" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="I207" t="n" s="5">
+        <v>251.86</v>
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="s" s="3">
-        <v>36</v>
-      </c>
-      <c r="C208" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D208" s="3"/>
-      <c r="E208" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F208" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="G208" t="s" s="3">
-        <v>167</v>
-      </c>
-      <c r="H208" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I208" t="n" s="4">
-        <v>9.42</v>
+      <c r="A208" t="s" s="2">
+        <v>169</v>
       </c>
     </row>
     <row r="209">
       <c r="B209" t="s" s="3">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="C209" t="s" s="3">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="D209" s="3"/>
       <c r="E209" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F209" t="s" s="3">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G209" t="s" s="3">
-        <v>164</v>
+        <v>29</v>
       </c>
       <c r="H209" t="s" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I209" t="n" s="4">
-        <v>20.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="210">
       <c r="B210" t="s" s="3">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="C210" t="s" s="3">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="D210" s="3"/>
       <c r="E210" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F210" t="s" s="3">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G210" t="s" s="3">
-        <v>162</v>
+        <v>29</v>
       </c>
       <c r="H210" t="s" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I210" t="n" s="4">
-        <v>14.99</v>
+        <v>40.85</v>
       </c>
     </row>
     <row r="211">
       <c r="B211" t="s" s="3">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="C211" t="s" s="3">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="D211" s="3"/>
       <c r="E211" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F211" t="s" s="3">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G211" t="s" s="3">
-        <v>163</v>
+        <v>29</v>
       </c>
       <c r="H211" t="s" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I211" t="n" s="4">
-        <v>20.0</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="212">
       <c r="B212" t="s" s="3">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="C212" t="s" s="3">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="D212" s="3"/>
       <c r="E212" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F212" t="s" s="3">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G212" t="s" s="3">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H212" t="s" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I212" t="n" s="4">
-        <v>20.0</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="213">
       <c r="B213" t="s" s="3">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="C213" t="s" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D213" s="3"/>
       <c r="E213" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F213" t="s" s="3">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G213" t="s" s="3">
-        <v>168</v>
+        <v>29</v>
       </c>
       <c r="H213" t="s" s="3">
         <v>8</v>
       </c>
       <c r="I213" t="n" s="4">
-        <v>10.25</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="3">
-        <v>112</v>
-      </c>
-      <c r="C214" t="s" s="3">
-        <v>107</v>
-      </c>
-      <c r="D214" s="3"/>
-      <c r="E214" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F214" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="G214" t="s" s="3">
-        <v>163</v>
-      </c>
-      <c r="H214" t="s" s="3">
-        <v>13</v>
-      </c>
-      <c r="I214" t="n" s="4">
-        <v>20.0</v>
+      <c r="A214" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="I214" t="n" s="5">
+        <v>178.1</v>
       </c>
     </row>
     <row r="215">
-      <c r="B215" t="s" s="3">
-        <v>48</v>
-      </c>
-      <c r="C215" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D215" s="3"/>
-      <c r="E215" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F215" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="G215" t="s" s="3">
-        <v>169</v>
-      </c>
-      <c r="H215" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I215" t="n" s="4">
-        <v>9.98</v>
+      <c r="A215" t="s" s="2">
+        <v>172</v>
       </c>
     </row>
     <row r="216">
       <c r="B216" t="s" s="3">
+        <v>112</v>
+      </c>
+      <c r="C216" t="s" s="3">
         <v>113</v>
-      </c>
-      <c r="C216" t="s" s="3">
-        <v>107</v>
       </c>
       <c r="D216" s="3"/>
       <c r="E216" t="s" s="3">
@@ -5100,10 +5118,10 @@
         <v>18</v>
       </c>
       <c r="G216" t="s" s="3">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="H216" t="s" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I216" t="n" s="4">
         <v>20.0</v>
@@ -5111,50 +5129,50 @@
     </row>
     <row r="217">
       <c r="B217" t="s" s="3">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="C217" t="s" s="3">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D217" s="3"/>
       <c r="E217" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F217" t="s" s="3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G217" t="s" s="3">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="H217" t="s" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I217" t="n" s="4">
-        <v>20.0</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="218">
       <c r="B218" t="s" s="3">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="C218" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D218" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="D218" t="n" s="3">
+        <v>6.36334269E8</v>
+      </c>
       <c r="E218" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F218" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="G218" t="s" s="3">
-        <v>170</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G218" s="3"/>
       <c r="H218" t="s" s="3">
         <v>8</v>
       </c>
       <c r="I218" t="n" s="4">
-        <v>10.22</v>
+        <v>10.29</v>
       </c>
     </row>
     <row r="219">
@@ -5162,20 +5180,20 @@
         <v>114</v>
       </c>
       <c r="C219" t="s" s="3">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D219" s="3"/>
       <c r="E219" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F219" t="s" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G219" t="s" s="3">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="H219" t="s" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I219" t="n" s="4">
         <v>20.0</v>
@@ -5183,23 +5201,23 @@
     </row>
     <row r="220">
       <c r="B220" t="s" s="3">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="C220" t="s" s="3">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D220" s="3"/>
       <c r="E220" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F220" t="s" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G220" t="s" s="3">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="H220" t="s" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I220" t="n" s="4">
         <v>20.0</v>
@@ -5207,58 +5225,58 @@
     </row>
     <row r="221">
       <c r="B221" t="s" s="3">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="C221" t="s" s="3">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D221" s="3"/>
       <c r="E221" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F221" t="s" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G221" t="s" s="3">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="H221" t="s" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I221" t="n" s="4">
-        <v>20.0</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="222">
       <c r="B222" t="s" s="3">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="C222" t="s" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D222" s="3"/>
       <c r="E222" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F222" t="s" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G222" t="s" s="3">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="H222" t="s" s="3">
         <v>8</v>
       </c>
       <c r="I222" t="n" s="4">
-        <v>9.96</v>
+        <v>10.22</v>
       </c>
     </row>
     <row r="223">
       <c r="B223" t="s" s="3">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C223" t="s" s="3">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D223" s="3"/>
       <c r="E223" t="s" s="3">
@@ -5268,10 +5286,10 @@
         <v>19</v>
       </c>
       <c r="G223" t="s" s="3">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="H223" t="s" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I223" t="n" s="4">
         <v>20.0</v>
@@ -5279,34 +5297,32 @@
     </row>
     <row r="224">
       <c r="B224" t="s" s="3">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="C224" t="s" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D224" s="3"/>
       <c r="E224" t="s" s="3">
         <v>11</v>
       </c>
-      <c r="F224" t="s" s="3">
-        <v>15</v>
-      </c>
+      <c r="F224" s="3"/>
       <c r="G224" t="s" s="3">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="H224" t="s" s="3">
         <v>8</v>
       </c>
       <c r="I224" t="n" s="4">
-        <v>10.26</v>
+        <v>232.48</v>
       </c>
     </row>
     <row r="225">
       <c r="B225" t="s" s="3">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C225" t="s" s="3">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D225" s="3"/>
       <c r="E225" t="s" s="3">
@@ -5316,10 +5332,10 @@
         <v>18</v>
       </c>
       <c r="G225" t="s" s="3">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="H225" t="s" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I225" t="n" s="4">
         <v>20.0</v>
@@ -5327,119 +5343,119 @@
     </row>
     <row r="226">
       <c r="B226" t="s" s="3">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="C226" t="s" s="3">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D226" s="3"/>
       <c r="E226" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F226" t="s" s="3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G226" t="s" s="3">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="H226" t="s" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I226" t="n" s="4">
-        <v>20.0</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="227">
       <c r="B227" t="s" s="3">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="C227" t="s" s="3">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="D227" s="3"/>
       <c r="E227" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F227" t="s" s="3">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G227" t="s" s="3">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="H227" t="s" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I227" t="n" s="4">
-        <v>20.0</v>
+        <v>9.42</v>
       </c>
     </row>
     <row r="228">
       <c r="B228" t="s" s="3">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="C228" t="s" s="3">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="D228" s="3"/>
       <c r="E228" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F228" t="s" s="3">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G228" t="s" s="3">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H228" t="s" s="3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I228" t="n" s="4">
-        <v>10.25</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="229">
       <c r="B229" t="s" s="3">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="C229" t="s" s="3">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="D229" s="3"/>
       <c r="E229" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F229" t="s" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G229" t="s" s="3">
         <v>174</v>
       </c>
       <c r="H229" t="s" s="3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I229" t="n" s="4">
-        <v>27.58</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="230">
       <c r="B230" t="s" s="3">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="C230" t="s" s="3">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D230" s="3"/>
       <c r="E230" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F230" t="s" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G230" t="s" s="3">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="H230" t="s" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I230" t="n" s="4">
         <v>20.0</v>
@@ -5447,58 +5463,58 @@
     </row>
     <row r="231">
       <c r="B231" t="s" s="3">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="C231" t="s" s="3">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D231" s="3"/>
       <c r="E231" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F231" t="s" s="3">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="G231" t="s" s="3">
         <v>175</v>
       </c>
       <c r="H231" t="s" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I231" t="n" s="4">
-        <v>59.85</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="232">
       <c r="B232" t="s" s="3">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="C232" t="s" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D232" s="3"/>
       <c r="E232" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F232" t="s" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G232" t="s" s="3">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H232" t="s" s="3">
         <v>8</v>
       </c>
       <c r="I232" t="n" s="4">
-        <v>9.94</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="233">
       <c r="B233" t="s" s="3">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C233" t="s" s="3">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D233" s="3"/>
       <c r="E233" t="s" s="3">
@@ -5508,10 +5524,10 @@
         <v>18</v>
       </c>
       <c r="G233" t="s" s="3">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="H233" t="s" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I233" t="n" s="4">
         <v>20.0</v>
@@ -5519,71 +5535,71 @@
     </row>
     <row r="234">
       <c r="B234" t="s" s="3">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="C234" t="s" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D234" s="3"/>
       <c r="E234" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F234" t="s" s="3">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="G234" t="s" s="3">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H234" t="s" s="3">
         <v>8</v>
       </c>
       <c r="I234" t="n" s="4">
-        <v>98.94</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="235">
       <c r="B235" t="s" s="3">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="C235" t="s" s="3">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="D235" s="3"/>
       <c r="E235" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F235" t="s" s="3">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="G235" t="s" s="3">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H235" t="s" s="3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I235" t="n" s="4">
-        <v>19.98</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="236">
       <c r="B236" t="s" s="3">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="C236" t="s" s="3">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D236" s="3"/>
       <c r="E236" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F236" t="s" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G236" t="s" s="3">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="H236" t="s" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I236" t="n" s="4">
         <v>20.0</v>
@@ -5591,47 +5607,47 @@
     </row>
     <row r="237">
       <c r="B237" t="s" s="3">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="C237" t="s" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D237" s="3"/>
       <c r="E237" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F237" t="s" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G237" t="s" s="3">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H237" t="s" s="3">
         <v>8</v>
       </c>
       <c r="I237" t="n" s="4">
-        <v>10.25</v>
+        <v>10.22</v>
       </c>
     </row>
     <row r="238">
       <c r="B238" t="s" s="3">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="C238" t="s" s="3">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D238" s="3"/>
       <c r="E238" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F238" t="s" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G238" t="s" s="3">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="H238" t="s" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I238" t="n" s="4">
         <v>20.0</v>
@@ -5639,60 +5655,113 @@
     </row>
     <row r="239">
       <c r="B239" t="s" s="3">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="C239" t="s" s="3">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="D239" s="3"/>
       <c r="E239" t="s" s="3">
         <v>11</v>
       </c>
-      <c r="F239" s="3"/>
+      <c r="F239" t="s" s="3">
+        <v>18</v>
+      </c>
       <c r="G239" t="s" s="3">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="H239" t="s" s="3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I239" t="n" s="4">
-        <v>19.98</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="I240" t="n" s="5">
-        <v>1069.81</v>
+      <c r="B240" t="s" s="3">
+        <v>121</v>
+      </c>
+      <c r="C240" t="s" s="3">
+        <v>113</v>
+      </c>
+      <c r="D240" s="3"/>
+      <c r="E240" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F240" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G240" t="s" s="3">
+        <v>175</v>
+      </c>
+      <c r="H240" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I240" t="n" s="4">
+        <v>20.0</v>
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="s" s="2">
+      <c r="B241" t="s" s="3">
+        <v>58</v>
+      </c>
+      <c r="C241" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D241" s="3"/>
+      <c r="E241" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F241" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="G241" t="s" s="3">
         <v>182</v>
       </c>
-      <c r="I241" t="n" s="5">
-        <v>3125.91</v>
+      <c r="H241" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I241" t="n" s="4">
+        <v>9.96</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="2">
-        <v>68</v>
+      <c r="B242" t="s" s="3">
+        <v>122</v>
+      </c>
+      <c r="C242" t="s" s="3">
+        <v>113</v>
+      </c>
+      <c r="D242" s="3"/>
+      <c r="E242" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F242" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G242" t="s" s="3">
+        <v>173</v>
+      </c>
+      <c r="H242" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I242" t="n" s="4">
+        <v>20.0</v>
       </c>
     </row>
     <row r="243">
       <c r="B243" t="s" s="3">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C243" t="s" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D243" s="3"/>
       <c r="E243" t="s" s="3">
         <v>11</v>
       </c>
       <c r="F243" t="s" s="3">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="G243" t="s" s="3">
         <v>183</v>
@@ -5701,33 +5770,508 @@
         <v>8</v>
       </c>
       <c r="I243" t="n" s="4">
+        <v>10.26</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="B244" t="s" s="3">
+        <v>123</v>
+      </c>
+      <c r="C244" t="s" s="3">
+        <v>113</v>
+      </c>
+      <c r="D244" s="3"/>
+      <c r="E244" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F244" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G244" t="s" s="3">
+        <v>175</v>
+      </c>
+      <c r="H244" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I244" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="B245" t="s" s="3">
+        <v>69</v>
+      </c>
+      <c r="C245" t="s" s="3">
+        <v>113</v>
+      </c>
+      <c r="D245" s="3"/>
+      <c r="E245" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F245" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G245" t="s" s="3">
+        <v>173</v>
+      </c>
+      <c r="H245" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I245" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="B246" t="s" s="3">
+        <v>124</v>
+      </c>
+      <c r="C246" t="s" s="3">
+        <v>113</v>
+      </c>
+      <c r="D246" s="3"/>
+      <c r="E246" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F246" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G246" t="s" s="3">
+        <v>175</v>
+      </c>
+      <c r="H246" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I246" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="B247" t="s" s="3">
+        <v>75</v>
+      </c>
+      <c r="C247" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D247" s="3"/>
+      <c r="E247" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F247" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G247" t="s" s="3">
+        <v>184</v>
+      </c>
+      <c r="H247" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I247" t="n" s="4">
+        <v>27.58</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="B248" t="s" s="3">
+        <v>75</v>
+      </c>
+      <c r="C248" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D248" s="3"/>
+      <c r="E248" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F248" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="G248" t="s" s="3">
+        <v>185</v>
+      </c>
+      <c r="H248" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I248" t="n" s="4">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="B249" t="s" s="3">
+        <v>78</v>
+      </c>
+      <c r="C249" t="s" s="3">
+        <v>113</v>
+      </c>
+      <c r="D249" s="3"/>
+      <c r="E249" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F249" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G249" t="s" s="3">
+        <v>173</v>
+      </c>
+      <c r="H249" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I249" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="B250" t="s" s="3">
+        <v>125</v>
+      </c>
+      <c r="C250" t="s" s="3">
+        <v>113</v>
+      </c>
+      <c r="D250" s="3"/>
+      <c r="E250" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F250" t="s" s="3">
+        <v>80</v>
+      </c>
+      <c r="G250" t="s" s="3">
+        <v>186</v>
+      </c>
+      <c r="H250" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I250" t="n" s="4">
+        <v>59.85</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="B251" t="s" s="3">
+        <v>79</v>
+      </c>
+      <c r="C251" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D251" s="3"/>
+      <c r="E251" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F251" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="G251" t="s" s="3">
+        <v>187</v>
+      </c>
+      <c r="H251" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I251" t="n" s="4">
+        <v>9.94</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="B252" t="s" s="3">
+        <v>126</v>
+      </c>
+      <c r="C252" t="s" s="3">
+        <v>113</v>
+      </c>
+      <c r="D252" s="3"/>
+      <c r="E252" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F252" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G252" t="s" s="3">
+        <v>175</v>
+      </c>
+      <c r="H252" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I252" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="B253" t="s" s="3">
+        <v>83</v>
+      </c>
+      <c r="C253" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D253" s="3"/>
+      <c r="E253" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F253" t="s" s="3">
+        <v>47</v>
+      </c>
+      <c r="G253" t="s" s="3">
+        <v>188</v>
+      </c>
+      <c r="H253" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I253" t="n" s="4">
+        <v>98.94</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="B254" t="s" s="3">
+        <v>84</v>
+      </c>
+      <c r="C254" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D254" s="3"/>
+      <c r="E254" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F254" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="G254" t="s" s="3">
+        <v>189</v>
+      </c>
+      <c r="H254" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I254" t="n" s="4">
+        <v>19.98</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="B255" t="s" s="3">
+        <v>85</v>
+      </c>
+      <c r="C255" t="s" s="3">
+        <v>113</v>
+      </c>
+      <c r="D255" s="3"/>
+      <c r="E255" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F255" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G255" t="s" s="3">
+        <v>173</v>
+      </c>
+      <c r="H255" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I255" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="B256" t="s" s="3">
+        <v>86</v>
+      </c>
+      <c r="C256" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D256" s="3"/>
+      <c r="E256" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F256" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="G256" t="s" s="3">
+        <v>190</v>
+      </c>
+      <c r="H256" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I256" t="n" s="4">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="B257" t="s" s="3">
+        <v>87</v>
+      </c>
+      <c r="C257" t="s" s="3">
+        <v>113</v>
+      </c>
+      <c r="D257" s="3"/>
+      <c r="E257" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F257" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G257" t="s" s="3">
+        <v>175</v>
+      </c>
+      <c r="H257" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I257" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="B258" t="s" s="3">
+        <v>88</v>
+      </c>
+      <c r="C258" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D258" s="3"/>
+      <c r="E258" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F258" s="3"/>
+      <c r="G258" t="s" s="3">
+        <v>191</v>
+      </c>
+      <c r="H258" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I258" t="n" s="4">
+        <v>19.98</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="B259" t="s" s="3">
+        <v>92</v>
+      </c>
+      <c r="C259" t="s" s="3">
+        <v>113</v>
+      </c>
+      <c r="D259" s="3"/>
+      <c r="E259" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F259" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="G259" t="s" s="3">
+        <v>173</v>
+      </c>
+      <c r="H259" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I259" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="B260" t="s" s="3">
+        <v>93</v>
+      </c>
+      <c r="C260" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D260" s="3"/>
+      <c r="E260" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F260" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="G260" t="s" s="3">
+        <v>192</v>
+      </c>
+      <c r="H260" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I260" t="n" s="4">
+        <v>9.96</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="B261" t="s" s="3">
+        <v>127</v>
+      </c>
+      <c r="C261" t="s" s="3">
+        <v>113</v>
+      </c>
+      <c r="D261" s="3"/>
+      <c r="E261" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F261" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G261" t="s" s="3">
+        <v>175</v>
+      </c>
+      <c r="H261" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="I261" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="I262" t="n" s="5">
+        <v>1119.77</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="I263" t="n" s="5">
+        <v>3548.11</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="B265" t="s" s="3">
+        <v>66</v>
+      </c>
+      <c r="C265" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D265" s="3"/>
+      <c r="E265" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F265" t="s" s="3">
+        <v>67</v>
+      </c>
+      <c r="G265" t="s" s="3">
+        <v>195</v>
+      </c>
+      <c r="H265" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I265" t="n" s="4">
         <v>17.99</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="I244" t="n" s="5">
+    <row r="266">
+      <c r="A266" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="I266" t="n" s="5">
         <v>17.99</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="B247"/>
-      <c r="C247"/>
-      <c r="D247"/>
-      <c r="E247"/>
-      <c r="F247"/>
-      <c r="G247"/>
-      <c r="H247"/>
-      <c r="I247"/>
+    <row r="269">
+      <c r="A269" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B269"/>
+      <c r="C269"/>
+      <c r="D269"/>
+      <c r="E269"/>
+      <c r="F269"/>
+      <c r="G269"/>
+      <c r="H269"/>
+      <c r="I269"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A247:I247"/>
+    <mergeCell ref="A269:I269"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>
